--- a/数值设定/工具表v0.32.xlsx
+++ b/数值设定/工具表v0.32.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21345" windowHeight="12390" activeTab="3"/>
+    <workbookView windowWidth="22102" windowHeight="12390" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="使用说明" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="514">
   <si>
     <t>工具表版本</t>
   </si>
@@ -598,6 +598,12 @@
     <t>pmg_science_automation_building_steel_mills</t>
   </si>
   <si>
+    <t>pmg_magical_automation_building_steel_mills</t>
+  </si>
+  <si>
+    <t>pmg_magiscientia_automation_building_steel_mills</t>
+  </si>
+  <si>
     <t>building_motor_industry</t>
   </si>
   <si>
@@ -631,12 +637,30 @@
     <t>pmg_zro_extraction_method</t>
   </si>
   <si>
-    <t>building_magic_rifle_industry</t>
+    <t>building_magic_weapon_industry</t>
   </si>
   <si>
     <t>魔能武器厂</t>
   </si>
   <si>
+    <t>pmg_magical_small_arms_manufacturing</t>
+  </si>
+  <si>
+    <t>pmg_automation_building_magic_weapon_industry</t>
+  </si>
+  <si>
+    <t>building_magical_equipment_industry</t>
+  </si>
+  <si>
+    <t>魔能装备厂</t>
+  </si>
+  <si>
+    <t>pmg_psionic_crystal_production</t>
+  </si>
+  <si>
+    <t>pmg_magical_floating_vehicle_production</t>
+  </si>
+  <si>
     <t>生产方式组代码名</t>
   </si>
   <si>
@@ -658,27 +682,6 @@
     <t>pm_strong_intelligent_magical_dolls</t>
   </si>
   <si>
-    <t>pm_test44</t>
-  </si>
-  <si>
-    <t>pm_test55</t>
-  </si>
-  <si>
-    <t>pm_test66</t>
-  </si>
-  <si>
-    <t>pm_test77</t>
-  </si>
-  <si>
-    <t>pm_test88</t>
-  </si>
-  <si>
-    <t>pm_test99</t>
-  </si>
-  <si>
-    <t>pm_test00</t>
-  </si>
-  <si>
     <t>科学线基础</t>
   </si>
   <si>
@@ -766,9 +769,6 @@
     <t>pm_super_doll_building_steel_mill</t>
   </si>
   <si>
-    <t>pmg_magiscientia_automation_building_steel_mills</t>
-  </si>
-  <si>
     <t>魔导自动化</t>
   </si>
   <si>
@@ -859,6 +859,66 @@
     <t>pm_extract_from_body</t>
   </si>
   <si>
+    <t>魔法轻武器生产</t>
+  </si>
+  <si>
+    <t>pm_standard_wands</t>
+  </si>
+  <si>
+    <t>pm_papa_made_magic_rifle</t>
+  </si>
+  <si>
+    <t>pm_standard_magic_rifle</t>
+  </si>
+  <si>
+    <t>pm_compound_magic_rifle</t>
+  </si>
+  <si>
+    <t>pm_base_doll_building_magical_small_arms_industry</t>
+  </si>
+  <si>
+    <t>pm_intellectual_doll_building_magical_small_arms_industry</t>
+  </si>
+  <si>
+    <t>pm_super_doll_building_magical_small_arms_industry</t>
+  </si>
+  <si>
+    <t>pm_doll_based_assemble_line_building_magical_small_arms_industry</t>
+  </si>
+  <si>
+    <t>灵能水晶生产</t>
+  </si>
+  <si>
+    <t>pm_psionic_strike_method</t>
+  </si>
+  <si>
+    <t>pm_psionic_assembling_method</t>
+  </si>
+  <si>
+    <t>pm_psionic_summoning_method</t>
+  </si>
+  <si>
+    <t>浮空车生产</t>
+  </si>
+  <si>
+    <t>pm_no_magical_floating_vehicle_production</t>
+  </si>
+  <si>
+    <t>pm_magical_floating_vehicle_production</t>
+  </si>
+  <si>
+    <t>pm_base_doll_building_magical_equipment_industry</t>
+  </si>
+  <si>
+    <t>pm_intellectual_doll_building_magical_equipment_industry</t>
+  </si>
+  <si>
+    <t>pm_super_doll_building_magical_equipment_industry</t>
+  </si>
+  <si>
+    <t>pm_doll_based_assemble_line_building_magical_equipment_industry</t>
+  </si>
+  <si>
     <t>生产方式代码名</t>
   </si>
   <si>
@@ -1081,9 +1141,6 @@
     <t>无魔法自动化</t>
   </si>
   <si>
-    <t>pmg_magic_automation_building_steel_mills</t>
-  </si>
-  <si>
     <t>基础魔偶</t>
   </si>
   <si>
@@ -1189,6 +1246,42 @@
     <t>尸体榨取</t>
   </si>
   <si>
+    <t>标准法杖</t>
+  </si>
+  <si>
+    <t>硬木</t>
+  </si>
+  <si>
+    <t>魔能轻武器</t>
+  </si>
+  <si>
+    <t>教国法铳</t>
+  </si>
+  <si>
+    <t>制式法铳</t>
+  </si>
+  <si>
+    <t>复式法铳</t>
+  </si>
+  <si>
+    <t>灵能撞击法</t>
+  </si>
+  <si>
+    <t>灵能聚集法</t>
+  </si>
+  <si>
+    <t>灵能召唤法</t>
+  </si>
+  <si>
+    <t>无浮空车生产</t>
+  </si>
+  <si>
+    <t>布料</t>
+  </si>
+  <si>
+    <t>魔能浮空车</t>
+  </si>
+  <si>
     <t>货物代码名</t>
   </si>
   <si>
@@ -1438,9 +1531,6 @@
     <t>magic_small_arms</t>
   </si>
   <si>
-    <t>魔能轻武器</t>
-  </si>
-  <si>
     <t>clergymen</t>
   </si>
   <si>
@@ -1528,9 +1618,6 @@
     <t>fabric</t>
   </si>
   <si>
-    <t>布料</t>
-  </si>
-  <si>
     <t>officers</t>
   </si>
   <si>
@@ -1627,9 +1714,6 @@
     <t>hardwood</t>
   </si>
   <si>
-    <t>硬木</t>
-  </si>
-  <si>
     <t>rubber</t>
   </si>
   <si>
@@ -1670,9 +1754,6 @@
   </si>
   <si>
     <t>magical_vehicle</t>
-  </si>
-  <si>
-    <t>魔能浮空车</t>
   </si>
   <si>
     <t>porcelain</t>
@@ -1758,9 +1839,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -1793,52 +1874,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1852,11 +1889,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1867,18 +1925,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1899,22 +1981,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -1931,7 +1997,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2042,7 +2123,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2054,7 +2153,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2066,19 +2189,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2090,31 +2207,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2126,19 +2219,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2156,7 +2237,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2632,11 +2713,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2656,32 +2743,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2697,11 +2765,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2709,8 +2775,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2737,10 +2818,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2749,19 +2830,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2770,13 +2851,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2785,97 +2863,100 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3581,7 +3662,7 @@
   <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17:S19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4239,7 +4320,7 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4255,40 +4336,40 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>366</v>
+        <v>397</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>368</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="C2" s="8">
         <v>20</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="10" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="G2" s="4">
         <v>3</v>
@@ -4296,19 +4377,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="12" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="C3" s="13">
         <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="G3" s="4">
         <v>12</v>
@@ -4316,19 +4397,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="C4" s="13">
         <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="G4" s="4">
         <v>4</v>
@@ -4336,19 +4417,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="12" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="C5" s="13">
         <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="G5" s="4">
         <v>18</v>
@@ -4356,19 +4437,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="12" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>382</v>
+        <v>320</v>
       </c>
       <c r="C6" s="13">
         <v>70</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="G6" s="4">
         <v>4</v>
@@ -4376,19 +4457,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="12" t="s">
-        <v>384</v>
+        <v>414</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>385</v>
+        <v>415</v>
       </c>
       <c r="C7" s="13">
         <v>70</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>386</v>
+        <v>416</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="G7" s="4">
         <v>4</v>
@@ -4396,19 +4477,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="12" t="s">
-        <v>387</v>
+        <v>417</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="C8" s="13">
         <v>120</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="G8" s="4">
         <v>3</v>
@@ -4416,19 +4497,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="12" t="s">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>391</v>
+        <v>421</v>
       </c>
       <c r="C9" s="13">
         <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>392</v>
+        <v>422</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="G9" s="4">
         <v>1.5</v>
@@ -4436,19 +4517,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="12" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="C10" s="13">
         <v>140</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
@@ -4456,19 +4537,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="12" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>398</v>
+        <v>428</v>
       </c>
       <c r="C11" s="13">
         <v>120</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>399</v>
+        <v>429</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
@@ -4476,19 +4557,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="12" t="s">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="C12" s="13">
         <v>80</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="G12" s="4">
         <v>1.5</v>
@@ -4496,19 +4577,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="12" t="s">
-        <v>403</v>
+        <v>433</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="C13" s="13">
         <v>100</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>405</v>
+        <v>435</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="G13" s="4">
         <v>4</v>
@@ -4516,19 +4597,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="12" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="C14" s="13">
         <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>407</v>
+        <v>437</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="G14" s="4">
         <v>20</v>
@@ -4536,19 +4617,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
       <c r="C15" s="13">
         <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="G15" s="4">
         <v>6</v>
@@ -4556,19 +4637,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="12" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>412</v>
+        <v>328</v>
       </c>
       <c r="C16" s="13">
         <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>414</v>
+        <v>443</v>
       </c>
       <c r="G16" s="4">
         <v>5</v>
@@ -4576,19 +4657,19 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="12" t="s">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>416</v>
+        <v>445</v>
       </c>
       <c r="C17" s="13">
         <v>30</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>417</v>
+        <v>446</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>418</v>
+        <v>447</v>
       </c>
       <c r="G17" s="4">
         <v>0.2</v>
@@ -4596,19 +4677,19 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="12" t="s">
-        <v>419</v>
+        <v>448</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>420</v>
+        <v>449</v>
       </c>
       <c r="C18" s="13">
         <v>30</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="G18" s="4">
         <v>2</v>
@@ -4616,19 +4697,19 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="12" t="s">
-        <v>422</v>
+        <v>451</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>423</v>
+        <v>452</v>
       </c>
       <c r="C19" s="13">
         <v>30</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
@@ -4636,19 +4717,19 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="12" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="C20" s="13">
         <v>30</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>426</v>
+        <v>455</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>427</v>
+        <v>456</v>
       </c>
       <c r="G20" s="4">
         <v>2</v>
@@ -4656,10 +4737,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="12" t="s">
-        <v>428</v>
+        <v>457</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="C21" s="13">
         <v>30</v>
@@ -4667,10 +4748,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="12" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>430</v>
+        <v>459</v>
       </c>
       <c r="C22" s="13">
         <v>30</v>
@@ -4678,10 +4759,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="12" t="s">
-        <v>431</v>
+        <v>460</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>432</v>
+        <v>461</v>
       </c>
       <c r="C23" s="13">
         <v>60</v>
@@ -4689,10 +4770,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="12" t="s">
-        <v>433</v>
+        <v>462</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>434</v>
+        <v>463</v>
       </c>
       <c r="C24" s="13">
         <v>40</v>
@@ -4700,10 +4781,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="12" t="s">
-        <v>435</v>
+        <v>464</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>436</v>
+        <v>465</v>
       </c>
       <c r="C25" s="13">
         <v>40</v>
@@ -4711,10 +4792,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="12" t="s">
-        <v>437</v>
+        <v>466</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>438</v>
+        <v>467</v>
       </c>
       <c r="C26" s="13">
         <v>50</v>
@@ -4722,10 +4803,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="12" t="s">
-        <v>439</v>
+        <v>468</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="C27" s="13">
         <v>30</v>
@@ -4733,10 +4814,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="12" t="s">
-        <v>440</v>
+        <v>469</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="C28" s="13">
         <v>40</v>
@@ -4744,10 +4825,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="12" t="s">
-        <v>441</v>
+        <v>470</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="C29" s="13">
         <v>50</v>
@@ -4755,10 +4836,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="12" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>443</v>
+        <v>472</v>
       </c>
       <c r="C30" s="13">
         <v>40</v>
@@ -4766,10 +4847,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="12" t="s">
-        <v>444</v>
+        <v>473</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>445</v>
+        <v>319</v>
       </c>
       <c r="C31" s="13">
         <v>40</v>
@@ -4777,10 +4858,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="12" t="s">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="C32" s="13">
         <v>40</v>
@@ -4788,10 +4869,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="12" t="s">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="C33" s="13">
         <v>60</v>
@@ -4799,10 +4880,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="12" t="s">
-        <v>448</v>
+        <v>476</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="C34" s="13">
         <v>60</v>
@@ -4810,10 +4891,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="12" t="s">
-        <v>449</v>
+        <v>477</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="C35" s="13">
         <v>30</v>
@@ -4821,10 +4902,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="12" t="s">
-        <v>451</v>
+        <v>479</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="C36" s="13">
         <v>40</v>
@@ -4832,10 +4913,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="12" t="s">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="C37" s="13">
         <v>50</v>
@@ -4843,10 +4924,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="12" t="s">
-        <v>454</v>
+        <v>482</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="C38" s="13">
         <v>40</v>
@@ -4854,10 +4935,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="12" t="s">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="C39" s="13">
         <v>150</v>
@@ -4865,10 +4946,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="12" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="C40" s="13">
         <v>100</v>
@@ -4876,10 +4957,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="12" t="s">
-        <v>457</v>
+        <v>485</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="C41" s="13">
         <v>120</v>
@@ -4887,10 +4968,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="12" t="s">
-        <v>458</v>
+        <v>486</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="C42" s="13">
         <v>150</v>
@@ -4898,10 +4979,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="12" t="s">
-        <v>459</v>
+        <v>487</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>460</v>
+        <v>329</v>
       </c>
       <c r="C43" s="13">
         <v>90</v>
@@ -4909,10 +4990,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="12" t="s">
-        <v>461</v>
+        <v>488</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>462</v>
+        <v>489</v>
       </c>
       <c r="C44" s="13">
         <v>70</v>
@@ -4920,10 +5001,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="12" t="s">
-        <v>463</v>
+        <v>490</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>464</v>
+        <v>491</v>
       </c>
       <c r="C45" s="13">
         <v>30</v>
@@ -4931,10 +5012,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="12" t="s">
-        <v>465</v>
+        <v>492</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="C46" s="13">
         <v>30</v>
@@ -4942,10 +5023,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="12" t="s">
-        <v>467</v>
+        <v>494</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>468</v>
+        <v>495</v>
       </c>
       <c r="C47" s="13">
         <v>30</v>
@@ -4953,10 +5034,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="12" t="s">
-        <v>469</v>
+        <v>496</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
       <c r="C48" s="13">
         <v>50</v>
@@ -4964,10 +5045,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="12" t="s">
-        <v>471</v>
+        <v>498</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>472</v>
+        <v>499</v>
       </c>
       <c r="C49" s="13">
         <v>50</v>
@@ -4975,10 +5056,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="12" t="s">
-        <v>473</v>
+        <v>500</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>474</v>
+        <v>501</v>
       </c>
       <c r="C50" s="13">
         <v>30</v>
@@ -4986,10 +5067,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="12" t="s">
-        <v>475</v>
+        <v>502</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>476</v>
+        <v>503</v>
       </c>
       <c r="C51" s="13">
         <v>40</v>
@@ -4997,10 +5078,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="12" t="s">
-        <v>477</v>
+        <v>504</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="C52" s="13">
         <v>50</v>
@@ -5008,10 +5089,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="12" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>480</v>
+        <v>507</v>
       </c>
       <c r="C53" s="13">
         <v>60</v>
@@ -5019,10 +5100,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="12" t="s">
-        <v>481</v>
+        <v>508</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>482</v>
+        <v>509</v>
       </c>
       <c r="C54" s="13">
         <v>60</v>
@@ -5030,10 +5111,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="12" t="s">
-        <v>483</v>
+        <v>510</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>484</v>
+        <v>511</v>
       </c>
       <c r="C55" s="13">
         <v>100</v>
@@ -5041,10 +5122,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="12" t="s">
-        <v>485</v>
+        <v>512</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="C56" s="13">
         <v>200</v>
@@ -30792,10 +30873,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AZ45"/>
+  <dimension ref="A1:BA45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -30803,33 +30884,33 @@
     <col min="1" max="1" width="10.1592920353982" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.4247787610619" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.283185840708" style="2" customWidth="1"/>
-    <col min="4" max="8" width="11.6637168141593" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5575221238938" customWidth="1"/>
-    <col min="10" max="10" width="20.2212389380531" customWidth="1"/>
-    <col min="11" max="11" width="6.7787610619469" customWidth="1"/>
-    <col min="12" max="12" width="6" customWidth="1"/>
-    <col min="13" max="13" width="15.4424778761062" customWidth="1"/>
-    <col min="14" max="14" width="10.1061946902655" customWidth="1"/>
-    <col min="15" max="15" width="6.33628318584071" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="11.4424778761062" customWidth="1"/>
-    <col min="18" max="18" width="13.1061946902655" customWidth="1"/>
-    <col min="23" max="23" width="20.4424778761062" customWidth="1"/>
-    <col min="24" max="24" width="10.2212389380531" customWidth="1"/>
-    <col min="25" max="25" width="13.6637168141593" customWidth="1"/>
-    <col min="26" max="26" width="14.6637168141593" customWidth="1"/>
-    <col min="28" max="28" width="28.5575221238938" customWidth="1"/>
-    <col min="29" max="29" width="18.6637168141593" customWidth="1"/>
-    <col min="30" max="30" width="24.8849557522124" customWidth="1"/>
-    <col min="31" max="31" width="42.8849557522124" customWidth="1"/>
-    <col min="32" max="32" width="29.4424778761062" customWidth="1"/>
-    <col min="33" max="33" width="9.7787610619469" customWidth="1"/>
-    <col min="34" max="34" width="23.8849557522124" customWidth="1"/>
-    <col min="35" max="35" width="5.10619469026549" customWidth="1"/>
-    <col min="36" max="36" width="7.44247787610619" customWidth="1"/>
+    <col min="4" max="9" width="11.6637168141593" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5575221238938" customWidth="1"/>
+    <col min="11" max="11" width="20.2212389380531" customWidth="1"/>
+    <col min="12" max="12" width="6.7787610619469" customWidth="1"/>
+    <col min="13" max="13" width="6" customWidth="1"/>
+    <col min="14" max="14" width="15.4424778761062" customWidth="1"/>
+    <col min="15" max="15" width="10.1061946902655" customWidth="1"/>
+    <col min="16" max="16" width="6.33628318584071" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="11.4424778761062" customWidth="1"/>
+    <col min="19" max="19" width="13.1061946902655" customWidth="1"/>
+    <col min="24" max="24" width="20.4424778761062" customWidth="1"/>
+    <col min="25" max="25" width="10.2212389380531" customWidth="1"/>
+    <col min="26" max="26" width="13.6637168141593" customWidth="1"/>
+    <col min="27" max="27" width="14.6637168141593" customWidth="1"/>
+    <col min="29" max="29" width="28.5575221238938" customWidth="1"/>
+    <col min="30" max="30" width="18.6637168141593" customWidth="1"/>
+    <col min="31" max="31" width="24.8849557522124" customWidth="1"/>
+    <col min="32" max="32" width="42.8849557522124" customWidth="1"/>
+    <col min="33" max="33" width="29.4424778761062" customWidth="1"/>
+    <col min="34" max="34" width="9.7787610619469" customWidth="1"/>
+    <col min="35" max="35" width="23.8849557522124" customWidth="1"/>
+    <col min="36" max="36" width="5.10619469026549" customWidth="1"/>
+    <col min="37" max="37" width="7.44247787610619" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:52">
+    <row r="1" ht="15" spans="1:53">
       <c r="A1" s="37" t="s">
         <v>58</v>
       </c>
@@ -30854,92 +30935,92 @@
       <c r="H1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="81" t="s">
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="K1" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="81" t="s">
+      <c r="L1" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="81" t="s">
+      <c r="M1" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="81" t="s">
+      <c r="N1" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="81" t="s">
+      <c r="O1" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="81" t="s">
+      <c r="P1" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="81" t="s">
+      <c r="Q1" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="81" t="s">
+      <c r="R1" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="R1" s="81" t="s">
+      <c r="S1" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="81" t="s">
+      <c r="T1" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="T1" s="81" t="s">
+      <c r="U1" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="U1" s="81" t="s">
+      <c r="V1" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="V1" s="81" t="s">
+      <c r="W1" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="W1" s="81" t="s">
+      <c r="X1" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="X1" s="81" t="s">
+      <c r="Y1" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="Y1" s="81" t="s">
+      <c r="Z1" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="Z1" s="81" t="s">
+      <c r="AA1" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="AA1" s="81" t="s">
+      <c r="AB1" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="81" t="s">
+      <c r="AC1" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="AC1" s="81" t="s">
+      <c r="AD1" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="AD1" s="81" t="s">
+      <c r="AE1" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="AE1" s="81" t="s">
+      <c r="AF1" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="AF1" s="81" t="s">
+      <c r="AG1" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="AG1" s="81" t="s">
+      <c r="AH1" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="AH1" s="81" t="s">
+      <c r="AI1" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="AI1" s="81" t="s">
+      <c r="AJ1" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AJ1" s="81" t="s">
+      <c r="AK1" s="81" t="s">
         <v>89</v>
-      </c>
-      <c r="AK1" s="81" t="s">
-        <v>80</v>
       </c>
       <c r="AL1" s="81" t="s">
         <v>80</v>
@@ -30948,7 +31029,7 @@
         <v>80</v>
       </c>
       <c r="AN1" s="81" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AO1" s="81" t="s">
         <v>90</v>
@@ -30956,7 +31037,9 @@
       <c r="AP1" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="AR1" s="81"/>
+      <c r="AQ1" s="81" t="s">
+        <v>90</v>
+      </c>
       <c r="AS1" s="81"/>
       <c r="AT1" s="81"/>
       <c r="AU1" s="81"/>
@@ -30965,8 +31048,9 @@
       <c r="AX1" s="81"/>
       <c r="AY1" s="81"/>
       <c r="AZ1" s="81"/>
-    </row>
-    <row r="2" ht="14.25" spans="1:52">
+      <c r="BA1" s="81"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:53">
       <c r="A2" s="11" t="s">
         <v>91</v>
       </c>
@@ -30982,10 +31066,10 @@
       <c r="E2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="81"/>
+      <c r="I2" s="1"/>
       <c r="J2" s="81"/>
       <c r="K2" s="81"/>
       <c r="L2" s="81"/>
@@ -31019,7 +31103,7 @@
       <c r="AN2" s="81"/>
       <c r="AO2" s="81"/>
       <c r="AP2" s="81"/>
-      <c r="AR2" s="81"/>
+      <c r="AQ2" s="81"/>
       <c r="AS2" s="81"/>
       <c r="AT2" s="81"/>
       <c r="AU2" s="81"/>
@@ -31028,8 +31112,9 @@
       <c r="AX2" s="81"/>
       <c r="AY2" s="81"/>
       <c r="AZ2" s="81"/>
-    </row>
-    <row r="3" spans="1:52">
+      <c r="BA2" s="81"/>
+    </row>
+    <row r="3" spans="1:53">
       <c r="A3" s="2" t="s">
         <v>97</v>
       </c>
@@ -31049,12 +31134,14 @@
         <v>101</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="81"/>
       <c r="J3" s="81"/>
       <c r="K3" s="81"/>
       <c r="L3" s="81"/>
@@ -31088,7 +31175,7 @@
       <c r="AN3" s="81"/>
       <c r="AO3" s="81"/>
       <c r="AP3" s="81"/>
-      <c r="AR3" s="81"/>
+      <c r="AQ3" s="81"/>
       <c r="AS3" s="81"/>
       <c r="AT3" s="81"/>
       <c r="AU3" s="81"/>
@@ -31097,27 +31184,27 @@
       <c r="AX3" s="81"/>
       <c r="AY3" s="81"/>
       <c r="AZ3" s="81"/>
-    </row>
-    <row r="4" spans="1:52">
+      <c r="BA3" s="81"/>
+    </row>
+    <row r="4" spans="1:53">
       <c r="A4" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I4" s="81"/>
       <c r="J4" s="81"/>
       <c r="K4" s="81"/>
       <c r="L4" s="81"/>
@@ -31151,7 +31238,7 @@
       <c r="AN4" s="81"/>
       <c r="AO4" s="81"/>
       <c r="AP4" s="81"/>
-      <c r="AR4" s="81"/>
+      <c r="AQ4" s="81"/>
       <c r="AS4" s="81"/>
       <c r="AT4" s="81"/>
       <c r="AU4" s="81"/>
@@ -31160,27 +31247,27 @@
       <c r="AX4" s="81"/>
       <c r="AY4" s="81"/>
       <c r="AZ4" s="81"/>
-    </row>
-    <row r="5" spans="1:52">
+      <c r="BA4" s="81"/>
+    </row>
+    <row r="5" spans="1:53">
       <c r="A5" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I5" s="81"/>
       <c r="J5" s="81"/>
       <c r="K5" s="81"/>
       <c r="L5" s="81"/>
@@ -31214,7 +31301,7 @@
       <c r="AN5" s="81"/>
       <c r="AO5" s="81"/>
       <c r="AP5" s="81"/>
-      <c r="AR5" s="81"/>
+      <c r="AQ5" s="81"/>
       <c r="AS5" s="81"/>
       <c r="AT5" s="81"/>
       <c r="AU5" s="81"/>
@@ -31223,24 +31310,24 @@
       <c r="AX5" s="81"/>
       <c r="AY5" s="81"/>
       <c r="AZ5" s="81"/>
-    </row>
-    <row r="6" spans="1:52">
+      <c r="BA5" s="81"/>
+    </row>
+    <row r="6" spans="1:53">
       <c r="A6" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I6" s="81"/>
       <c r="J6" s="81"/>
       <c r="K6" s="81"/>
       <c r="L6" s="81"/>
@@ -31274,7 +31361,7 @@
       <c r="AN6" s="81"/>
       <c r="AO6" s="81"/>
       <c r="AP6" s="81"/>
-      <c r="AR6" s="81"/>
+      <c r="AQ6" s="81"/>
       <c r="AS6" s="81"/>
       <c r="AT6" s="81"/>
       <c r="AU6" s="81"/>
@@ -31283,18 +31370,27 @@
       <c r="AX6" s="81"/>
       <c r="AY6" s="81"/>
       <c r="AZ6" s="81"/>
-    </row>
-    <row r="7" spans="1:52">
+      <c r="BA6" s="81"/>
+    </row>
+    <row r="7" spans="1:53">
       <c r="A7" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I7" s="81"/>
+      <c r="D7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="J7" s="81"/>
       <c r="K7" s="81"/>
       <c r="L7" s="81"/>
@@ -31328,7 +31424,7 @@
       <c r="AN7" s="81"/>
       <c r="AO7" s="81"/>
       <c r="AP7" s="81"/>
-      <c r="AR7" s="81"/>
+      <c r="AQ7" s="81"/>
       <c r="AS7" s="81"/>
       <c r="AT7" s="81"/>
       <c r="AU7" s="81"/>
@@ -31337,9 +31433,30 @@
       <c r="AX7" s="81"/>
       <c r="AY7" s="81"/>
       <c r="AZ7" s="81"/>
-    </row>
-    <row r="8" spans="9:52">
-      <c r="I8" s="81"/>
+      <c r="BA7" s="81"/>
+    </row>
+    <row r="8" spans="1:53">
+      <c r="A8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="J8" s="81"/>
       <c r="K8" s="81"/>
       <c r="L8" s="81"/>
@@ -31373,7 +31490,7 @@
       <c r="AN8" s="81"/>
       <c r="AO8" s="81"/>
       <c r="AP8" s="81"/>
-      <c r="AR8" s="81"/>
+      <c r="AQ8" s="81"/>
       <c r="AS8" s="81"/>
       <c r="AT8" s="81"/>
       <c r="AU8" s="81"/>
@@ -31382,9 +31499,9 @@
       <c r="AX8" s="81"/>
       <c r="AY8" s="81"/>
       <c r="AZ8" s="81"/>
-    </row>
-    <row r="9" spans="9:52">
-      <c r="I9" s="81"/>
+      <c r="BA8" s="81"/>
+    </row>
+    <row r="9" spans="10:53">
       <c r="J9" s="81"/>
       <c r="K9" s="81"/>
       <c r="L9" s="81"/>
@@ -31418,7 +31535,7 @@
       <c r="AN9" s="81"/>
       <c r="AO9" s="81"/>
       <c r="AP9" s="81"/>
-      <c r="AR9" s="81"/>
+      <c r="AQ9" s="81"/>
       <c r="AS9" s="81"/>
       <c r="AT9" s="81"/>
       <c r="AU9" s="81"/>
@@ -31427,9 +31544,9 @@
       <c r="AX9" s="81"/>
       <c r="AY9" s="81"/>
       <c r="AZ9" s="81"/>
-    </row>
-    <row r="10" spans="9:52">
-      <c r="I10" s="81"/>
+      <c r="BA9" s="81"/>
+    </row>
+    <row r="10" spans="10:53">
       <c r="J10" s="81"/>
       <c r="K10" s="81"/>
       <c r="L10" s="81"/>
@@ -31463,7 +31580,7 @@
       <c r="AN10" s="81"/>
       <c r="AO10" s="81"/>
       <c r="AP10" s="81"/>
-      <c r="AR10" s="81"/>
+      <c r="AQ10" s="81"/>
       <c r="AS10" s="81"/>
       <c r="AT10" s="81"/>
       <c r="AU10" s="81"/>
@@ -31472,9 +31589,9 @@
       <c r="AX10" s="81"/>
       <c r="AY10" s="81"/>
       <c r="AZ10" s="81"/>
-    </row>
-    <row r="11" spans="9:52">
-      <c r="I11" s="81"/>
+      <c r="BA10" s="81"/>
+    </row>
+    <row r="11" spans="10:53">
       <c r="J11" s="81"/>
       <c r="K11" s="81"/>
       <c r="L11" s="81"/>
@@ -31508,7 +31625,7 @@
       <c r="AN11" s="81"/>
       <c r="AO11" s="81"/>
       <c r="AP11" s="81"/>
-      <c r="AR11" s="81"/>
+      <c r="AQ11" s="81"/>
       <c r="AS11" s="81"/>
       <c r="AT11" s="81"/>
       <c r="AU11" s="81"/>
@@ -31517,9 +31634,9 @@
       <c r="AX11" s="81"/>
       <c r="AY11" s="81"/>
       <c r="AZ11" s="81"/>
-    </row>
-    <row r="12" spans="9:52">
-      <c r="I12" s="81"/>
+      <c r="BA11" s="81"/>
+    </row>
+    <row r="12" spans="10:53">
       <c r="J12" s="81"/>
       <c r="K12" s="81"/>
       <c r="L12" s="81"/>
@@ -31553,7 +31670,7 @@
       <c r="AN12" s="81"/>
       <c r="AO12" s="81"/>
       <c r="AP12" s="81"/>
-      <c r="AR12" s="81"/>
+      <c r="AQ12" s="81"/>
       <c r="AS12" s="81"/>
       <c r="AT12" s="81"/>
       <c r="AU12" s="81"/>
@@ -31562,9 +31679,9 @@
       <c r="AX12" s="81"/>
       <c r="AY12" s="81"/>
       <c r="AZ12" s="81"/>
-    </row>
-    <row r="13" spans="9:52">
-      <c r="I13" s="81"/>
+      <c r="BA12" s="81"/>
+    </row>
+    <row r="13" spans="10:53">
       <c r="J13" s="81"/>
       <c r="K13" s="81"/>
       <c r="L13" s="81"/>
@@ -31598,7 +31715,7 @@
       <c r="AN13" s="81"/>
       <c r="AO13" s="81"/>
       <c r="AP13" s="81"/>
-      <c r="AR13" s="81"/>
+      <c r="AQ13" s="81"/>
       <c r="AS13" s="81"/>
       <c r="AT13" s="81"/>
       <c r="AU13" s="81"/>
@@ -31607,9 +31724,9 @@
       <c r="AX13" s="81"/>
       <c r="AY13" s="81"/>
       <c r="AZ13" s="81"/>
-    </row>
-    <row r="14" spans="9:52">
-      <c r="I14" s="81"/>
+      <c r="BA13" s="81"/>
+    </row>
+    <row r="14" spans="10:53">
       <c r="J14" s="81"/>
       <c r="K14" s="81"/>
       <c r="L14" s="81"/>
@@ -31643,7 +31760,7 @@
       <c r="AN14" s="81"/>
       <c r="AO14" s="81"/>
       <c r="AP14" s="81"/>
-      <c r="AR14" s="81"/>
+      <c r="AQ14" s="81"/>
       <c r="AS14" s="81"/>
       <c r="AT14" s="81"/>
       <c r="AU14" s="81"/>
@@ -31652,9 +31769,9 @@
       <c r="AX14" s="81"/>
       <c r="AY14" s="81"/>
       <c r="AZ14" s="81"/>
-    </row>
-    <row r="15" spans="9:52">
-      <c r="I15" s="81"/>
+      <c r="BA14" s="81"/>
+    </row>
+    <row r="15" spans="10:53">
       <c r="J15" s="81"/>
       <c r="K15" s="81"/>
       <c r="L15" s="81"/>
@@ -31688,7 +31805,7 @@
       <c r="AN15" s="81"/>
       <c r="AO15" s="81"/>
       <c r="AP15" s="81"/>
-      <c r="AR15" s="81"/>
+      <c r="AQ15" s="81"/>
       <c r="AS15" s="81"/>
       <c r="AT15" s="81"/>
       <c r="AU15" s="81"/>
@@ -31697,9 +31814,9 @@
       <c r="AX15" s="81"/>
       <c r="AY15" s="81"/>
       <c r="AZ15" s="81"/>
-    </row>
-    <row r="16" spans="9:52">
-      <c r="I16" s="81"/>
+      <c r="BA15" s="81"/>
+    </row>
+    <row r="16" spans="10:53">
       <c r="J16" s="81"/>
       <c r="K16" s="81"/>
       <c r="L16" s="81"/>
@@ -31733,7 +31850,7 @@
       <c r="AN16" s="81"/>
       <c r="AO16" s="81"/>
       <c r="AP16" s="81"/>
-      <c r="AR16" s="81"/>
+      <c r="AQ16" s="81"/>
       <c r="AS16" s="81"/>
       <c r="AT16" s="81"/>
       <c r="AU16" s="81"/>
@@ -31742,9 +31859,9 @@
       <c r="AX16" s="81"/>
       <c r="AY16" s="81"/>
       <c r="AZ16" s="81"/>
-    </row>
-    <row r="17" spans="9:52">
-      <c r="I17" s="81"/>
+      <c r="BA16" s="81"/>
+    </row>
+    <row r="17" spans="10:53">
       <c r="J17" s="81"/>
       <c r="K17" s="81"/>
       <c r="L17" s="81"/>
@@ -31778,7 +31895,7 @@
       <c r="AN17" s="81"/>
       <c r="AO17" s="81"/>
       <c r="AP17" s="81"/>
-      <c r="AR17" s="81"/>
+      <c r="AQ17" s="81"/>
       <c r="AS17" s="81"/>
       <c r="AT17" s="81"/>
       <c r="AU17" s="81"/>
@@ -31787,9 +31904,9 @@
       <c r="AX17" s="81"/>
       <c r="AY17" s="81"/>
       <c r="AZ17" s="81"/>
-    </row>
-    <row r="18" spans="9:52">
-      <c r="I18" s="81"/>
+      <c r="BA17" s="81"/>
+    </row>
+    <row r="18" spans="10:53">
       <c r="J18" s="81"/>
       <c r="K18" s="81"/>
       <c r="L18" s="81"/>
@@ -31823,7 +31940,7 @@
       <c r="AN18" s="81"/>
       <c r="AO18" s="81"/>
       <c r="AP18" s="81"/>
-      <c r="AR18" s="81"/>
+      <c r="AQ18" s="81"/>
       <c r="AS18" s="81"/>
       <c r="AT18" s="81"/>
       <c r="AU18" s="81"/>
@@ -31832,9 +31949,9 @@
       <c r="AX18" s="81"/>
       <c r="AY18" s="81"/>
       <c r="AZ18" s="81"/>
-    </row>
-    <row r="19" spans="9:52">
-      <c r="I19" s="81"/>
+      <c r="BA18" s="81"/>
+    </row>
+    <row r="19" spans="10:53">
       <c r="J19" s="81"/>
       <c r="K19" s="81"/>
       <c r="L19" s="81"/>
@@ -31868,7 +31985,7 @@
       <c r="AN19" s="81"/>
       <c r="AO19" s="81"/>
       <c r="AP19" s="81"/>
-      <c r="AR19" s="81"/>
+      <c r="AQ19" s="81"/>
       <c r="AS19" s="81"/>
       <c r="AT19" s="81"/>
       <c r="AU19" s="81"/>
@@ -31877,9 +31994,9 @@
       <c r="AX19" s="81"/>
       <c r="AY19" s="81"/>
       <c r="AZ19" s="81"/>
-    </row>
-    <row r="20" spans="9:52">
-      <c r="I20" s="81"/>
+      <c r="BA19" s="81"/>
+    </row>
+    <row r="20" spans="10:53">
       <c r="J20" s="81"/>
       <c r="K20" s="81"/>
       <c r="L20" s="81"/>
@@ -31913,7 +32030,7 @@
       <c r="AN20" s="81"/>
       <c r="AO20" s="81"/>
       <c r="AP20" s="81"/>
-      <c r="AR20" s="81"/>
+      <c r="AQ20" s="81"/>
       <c r="AS20" s="81"/>
       <c r="AT20" s="81"/>
       <c r="AU20" s="81"/>
@@ -31922,9 +32039,9 @@
       <c r="AX20" s="81"/>
       <c r="AY20" s="81"/>
       <c r="AZ20" s="81"/>
-    </row>
-    <row r="21" spans="9:52">
-      <c r="I21" s="81"/>
+      <c r="BA20" s="81"/>
+    </row>
+    <row r="21" spans="10:53">
       <c r="J21" s="81"/>
       <c r="K21" s="81"/>
       <c r="L21" s="81"/>
@@ -31958,7 +32075,7 @@
       <c r="AN21" s="81"/>
       <c r="AO21" s="81"/>
       <c r="AP21" s="81"/>
-      <c r="AR21" s="81"/>
+      <c r="AQ21" s="81"/>
       <c r="AS21" s="81"/>
       <c r="AT21" s="81"/>
       <c r="AU21" s="81"/>
@@ -31967,9 +32084,9 @@
       <c r="AX21" s="81"/>
       <c r="AY21" s="81"/>
       <c r="AZ21" s="81"/>
-    </row>
-    <row r="22" spans="9:52">
-      <c r="I22" s="81"/>
+      <c r="BA21" s="81"/>
+    </row>
+    <row r="22" spans="10:53">
       <c r="J22" s="81"/>
       <c r="K22" s="81"/>
       <c r="L22" s="81"/>
@@ -32003,7 +32120,7 @@
       <c r="AN22" s="81"/>
       <c r="AO22" s="81"/>
       <c r="AP22" s="81"/>
-      <c r="AR22" s="81"/>
+      <c r="AQ22" s="81"/>
       <c r="AS22" s="81"/>
       <c r="AT22" s="81"/>
       <c r="AU22" s="81"/>
@@ -32012,9 +32129,9 @@
       <c r="AX22" s="81"/>
       <c r="AY22" s="81"/>
       <c r="AZ22" s="81"/>
-    </row>
-    <row r="23" spans="9:52">
-      <c r="I23" s="81"/>
+      <c r="BA22" s="81"/>
+    </row>
+    <row r="23" spans="10:53">
       <c r="J23" s="81"/>
       <c r="K23" s="81"/>
       <c r="L23" s="81"/>
@@ -32048,7 +32165,7 @@
       <c r="AN23" s="81"/>
       <c r="AO23" s="81"/>
       <c r="AP23" s="81"/>
-      <c r="AR23" s="81"/>
+      <c r="AQ23" s="81"/>
       <c r="AS23" s="81"/>
       <c r="AT23" s="81"/>
       <c r="AU23" s="81"/>
@@ -32057,9 +32174,9 @@
       <c r="AX23" s="81"/>
       <c r="AY23" s="81"/>
       <c r="AZ23" s="81"/>
-    </row>
-    <row r="24" spans="9:52">
-      <c r="I24" s="81"/>
+      <c r="BA23" s="81"/>
+    </row>
+    <row r="24" spans="10:53">
       <c r="J24" s="81"/>
       <c r="K24" s="81"/>
       <c r="L24" s="81"/>
@@ -32093,7 +32210,7 @@
       <c r="AN24" s="81"/>
       <c r="AO24" s="81"/>
       <c r="AP24" s="81"/>
-      <c r="AR24" s="81"/>
+      <c r="AQ24" s="81"/>
       <c r="AS24" s="81"/>
       <c r="AT24" s="81"/>
       <c r="AU24" s="81"/>
@@ -32102,9 +32219,9 @@
       <c r="AX24" s="81"/>
       <c r="AY24" s="81"/>
       <c r="AZ24" s="81"/>
-    </row>
-    <row r="25" spans="9:52">
-      <c r="I25" s="81"/>
+      <c r="BA24" s="81"/>
+    </row>
+    <row r="25" spans="10:53">
       <c r="J25" s="81"/>
       <c r="K25" s="81"/>
       <c r="L25" s="81"/>
@@ -32138,7 +32255,7 @@
       <c r="AN25" s="81"/>
       <c r="AO25" s="81"/>
       <c r="AP25" s="81"/>
-      <c r="AR25" s="81"/>
+      <c r="AQ25" s="81"/>
       <c r="AS25" s="81"/>
       <c r="AT25" s="81"/>
       <c r="AU25" s="81"/>
@@ -32147,9 +32264,9 @@
       <c r="AX25" s="81"/>
       <c r="AY25" s="81"/>
       <c r="AZ25" s="81"/>
-    </row>
-    <row r="26" spans="9:52">
-      <c r="I26" s="81"/>
+      <c r="BA25" s="81"/>
+    </row>
+    <row r="26" spans="10:53">
       <c r="J26" s="81"/>
       <c r="K26" s="81"/>
       <c r="L26" s="81"/>
@@ -32183,7 +32300,7 @@
       <c r="AN26" s="81"/>
       <c r="AO26" s="81"/>
       <c r="AP26" s="81"/>
-      <c r="AR26" s="81"/>
+      <c r="AQ26" s="81"/>
       <c r="AS26" s="81"/>
       <c r="AT26" s="81"/>
       <c r="AU26" s="81"/>
@@ -32192,9 +32309,9 @@
       <c r="AX26" s="81"/>
       <c r="AY26" s="81"/>
       <c r="AZ26" s="81"/>
-    </row>
-    <row r="27" spans="9:52">
-      <c r="I27" s="81"/>
+      <c r="BA26" s="81"/>
+    </row>
+    <row r="27" spans="10:53">
       <c r="J27" s="81"/>
       <c r="K27" s="81"/>
       <c r="L27" s="81"/>
@@ -32228,7 +32345,7 @@
       <c r="AN27" s="81"/>
       <c r="AO27" s="81"/>
       <c r="AP27" s="81"/>
-      <c r="AR27" s="81"/>
+      <c r="AQ27" s="81"/>
       <c r="AS27" s="81"/>
       <c r="AT27" s="81"/>
       <c r="AU27" s="81"/>
@@ -32237,9 +32354,9 @@
       <c r="AX27" s="81"/>
       <c r="AY27" s="81"/>
       <c r="AZ27" s="81"/>
-    </row>
-    <row r="28" spans="9:52">
-      <c r="I28" s="81"/>
+      <c r="BA27" s="81"/>
+    </row>
+    <row r="28" spans="10:53">
       <c r="J28" s="81"/>
       <c r="K28" s="81"/>
       <c r="L28" s="81"/>
@@ -32273,7 +32390,7 @@
       <c r="AN28" s="81"/>
       <c r="AO28" s="81"/>
       <c r="AP28" s="81"/>
-      <c r="AR28" s="81"/>
+      <c r="AQ28" s="81"/>
       <c r="AS28" s="81"/>
       <c r="AT28" s="81"/>
       <c r="AU28" s="81"/>
@@ -32282,9 +32399,9 @@
       <c r="AX28" s="81"/>
       <c r="AY28" s="81"/>
       <c r="AZ28" s="81"/>
-    </row>
-    <row r="29" spans="9:52">
-      <c r="I29" s="81"/>
+      <c r="BA28" s="81"/>
+    </row>
+    <row r="29" spans="10:53">
       <c r="J29" s="81"/>
       <c r="K29" s="81"/>
       <c r="L29" s="81"/>
@@ -32318,7 +32435,7 @@
       <c r="AN29" s="81"/>
       <c r="AO29" s="81"/>
       <c r="AP29" s="81"/>
-      <c r="AR29" s="81"/>
+      <c r="AQ29" s="81"/>
       <c r="AS29" s="81"/>
       <c r="AT29" s="81"/>
       <c r="AU29" s="81"/>
@@ -32327,9 +32444,9 @@
       <c r="AX29" s="81"/>
       <c r="AY29" s="81"/>
       <c r="AZ29" s="81"/>
-    </row>
-    <row r="30" spans="9:52">
-      <c r="I30" s="81"/>
+      <c r="BA29" s="81"/>
+    </row>
+    <row r="30" spans="10:53">
       <c r="J30" s="81"/>
       <c r="K30" s="81"/>
       <c r="L30" s="81"/>
@@ -32363,7 +32480,7 @@
       <c r="AN30" s="81"/>
       <c r="AO30" s="81"/>
       <c r="AP30" s="81"/>
-      <c r="AR30" s="81"/>
+      <c r="AQ30" s="81"/>
       <c r="AS30" s="81"/>
       <c r="AT30" s="81"/>
       <c r="AU30" s="81"/>
@@ -32372,9 +32489,9 @@
       <c r="AX30" s="81"/>
       <c r="AY30" s="81"/>
       <c r="AZ30" s="81"/>
-    </row>
-    <row r="31" spans="9:52">
-      <c r="I31" s="81"/>
+      <c r="BA30" s="81"/>
+    </row>
+    <row r="31" spans="10:53">
       <c r="J31" s="81"/>
       <c r="K31" s="81"/>
       <c r="L31" s="81"/>
@@ -32408,7 +32525,7 @@
       <c r="AN31" s="81"/>
       <c r="AO31" s="81"/>
       <c r="AP31" s="81"/>
-      <c r="AR31" s="81"/>
+      <c r="AQ31" s="81"/>
       <c r="AS31" s="81"/>
       <c r="AT31" s="81"/>
       <c r="AU31" s="81"/>
@@ -32417,9 +32534,9 @@
       <c r="AX31" s="81"/>
       <c r="AY31" s="81"/>
       <c r="AZ31" s="81"/>
-    </row>
-    <row r="32" spans="9:52">
-      <c r="I32" s="81"/>
+      <c r="BA31" s="81"/>
+    </row>
+    <row r="32" spans="10:53">
       <c r="J32" s="81"/>
       <c r="K32" s="81"/>
       <c r="L32" s="81"/>
@@ -32453,7 +32570,7 @@
       <c r="AN32" s="81"/>
       <c r="AO32" s="81"/>
       <c r="AP32" s="81"/>
-      <c r="AR32" s="81"/>
+      <c r="AQ32" s="81"/>
       <c r="AS32" s="81"/>
       <c r="AT32" s="81"/>
       <c r="AU32" s="81"/>
@@ -32462,9 +32579,9 @@
       <c r="AX32" s="81"/>
       <c r="AY32" s="81"/>
       <c r="AZ32" s="81"/>
-    </row>
-    <row r="33" spans="9:52">
-      <c r="I33" s="81"/>
+      <c r="BA32" s="81"/>
+    </row>
+    <row r="33" spans="10:53">
       <c r="J33" s="81"/>
       <c r="K33" s="81"/>
       <c r="L33" s="81"/>
@@ -32498,7 +32615,7 @@
       <c r="AN33" s="81"/>
       <c r="AO33" s="81"/>
       <c r="AP33" s="81"/>
-      <c r="AR33" s="81"/>
+      <c r="AQ33" s="81"/>
       <c r="AS33" s="81"/>
       <c r="AT33" s="81"/>
       <c r="AU33" s="81"/>
@@ -32507,9 +32624,9 @@
       <c r="AX33" s="81"/>
       <c r="AY33" s="81"/>
       <c r="AZ33" s="81"/>
-    </row>
-    <row r="34" spans="9:52">
-      <c r="I34" s="81"/>
+      <c r="BA33" s="81"/>
+    </row>
+    <row r="34" spans="10:53">
       <c r="J34" s="81"/>
       <c r="K34" s="81"/>
       <c r="L34" s="81"/>
@@ -32543,7 +32660,7 @@
       <c r="AN34" s="81"/>
       <c r="AO34" s="81"/>
       <c r="AP34" s="81"/>
-      <c r="AR34" s="81"/>
+      <c r="AQ34" s="81"/>
       <c r="AS34" s="81"/>
       <c r="AT34" s="81"/>
       <c r="AU34" s="81"/>
@@ -32552,9 +32669,9 @@
       <c r="AX34" s="81"/>
       <c r="AY34" s="81"/>
       <c r="AZ34" s="81"/>
-    </row>
-    <row r="35" spans="9:52">
-      <c r="I35" s="81"/>
+      <c r="BA34" s="81"/>
+    </row>
+    <row r="35" spans="10:53">
       <c r="J35" s="81"/>
       <c r="K35" s="81"/>
       <c r="L35" s="81"/>
@@ -32588,7 +32705,7 @@
       <c r="AN35" s="81"/>
       <c r="AO35" s="81"/>
       <c r="AP35" s="81"/>
-      <c r="AR35" s="81"/>
+      <c r="AQ35" s="81"/>
       <c r="AS35" s="81"/>
       <c r="AT35" s="81"/>
       <c r="AU35" s="81"/>
@@ -32597,9 +32714,9 @@
       <c r="AX35" s="81"/>
       <c r="AY35" s="81"/>
       <c r="AZ35" s="81"/>
-    </row>
-    <row r="36" spans="9:52">
-      <c r="I36" s="81"/>
+      <c r="BA35" s="81"/>
+    </row>
+    <row r="36" spans="10:53">
       <c r="J36" s="81"/>
       <c r="K36" s="81"/>
       <c r="L36" s="81"/>
@@ -32633,7 +32750,7 @@
       <c r="AN36" s="81"/>
       <c r="AO36" s="81"/>
       <c r="AP36" s="81"/>
-      <c r="AR36" s="81"/>
+      <c r="AQ36" s="81"/>
       <c r="AS36" s="81"/>
       <c r="AT36" s="81"/>
       <c r="AU36" s="81"/>
@@ -32642,9 +32759,9 @@
       <c r="AX36" s="81"/>
       <c r="AY36" s="81"/>
       <c r="AZ36" s="81"/>
-    </row>
-    <row r="37" spans="9:52">
-      <c r="I37" s="81"/>
+      <c r="BA36" s="81"/>
+    </row>
+    <row r="37" spans="10:53">
       <c r="J37" s="81"/>
       <c r="K37" s="81"/>
       <c r="L37" s="81"/>
@@ -32678,7 +32795,7 @@
       <c r="AN37" s="81"/>
       <c r="AO37" s="81"/>
       <c r="AP37" s="81"/>
-      <c r="AR37" s="81"/>
+      <c r="AQ37" s="81"/>
       <c r="AS37" s="81"/>
       <c r="AT37" s="81"/>
       <c r="AU37" s="81"/>
@@ -32687,9 +32804,9 @@
       <c r="AX37" s="81"/>
       <c r="AY37" s="81"/>
       <c r="AZ37" s="81"/>
-    </row>
-    <row r="38" spans="9:52">
-      <c r="I38" s="81"/>
+      <c r="BA37" s="81"/>
+    </row>
+    <row r="38" spans="10:53">
       <c r="J38" s="81"/>
       <c r="K38" s="81"/>
       <c r="L38" s="81"/>
@@ -32723,7 +32840,7 @@
       <c r="AN38" s="81"/>
       <c r="AO38" s="81"/>
       <c r="AP38" s="81"/>
-      <c r="AR38" s="81"/>
+      <c r="AQ38" s="81"/>
       <c r="AS38" s="81"/>
       <c r="AT38" s="81"/>
       <c r="AU38" s="81"/>
@@ -32732,9 +32849,9 @@
       <c r="AX38" s="81"/>
       <c r="AY38" s="81"/>
       <c r="AZ38" s="81"/>
-    </row>
-    <row r="39" spans="9:52">
-      <c r="I39" s="81"/>
+      <c r="BA38" s="81"/>
+    </row>
+    <row r="39" spans="10:53">
       <c r="J39" s="81"/>
       <c r="K39" s="81"/>
       <c r="L39" s="81"/>
@@ -32768,7 +32885,7 @@
       <c r="AN39" s="81"/>
       <c r="AO39" s="81"/>
       <c r="AP39" s="81"/>
-      <c r="AR39" s="81"/>
+      <c r="AQ39" s="81"/>
       <c r="AS39" s="81"/>
       <c r="AT39" s="81"/>
       <c r="AU39" s="81"/>
@@ -32777,9 +32894,9 @@
       <c r="AX39" s="81"/>
       <c r="AY39" s="81"/>
       <c r="AZ39" s="81"/>
-    </row>
-    <row r="40" spans="9:52">
-      <c r="I40" s="81"/>
+      <c r="BA39" s="81"/>
+    </row>
+    <row r="40" spans="10:53">
       <c r="J40" s="81"/>
       <c r="K40" s="81"/>
       <c r="L40" s="81"/>
@@ -32813,7 +32930,7 @@
       <c r="AN40" s="81"/>
       <c r="AO40" s="81"/>
       <c r="AP40" s="81"/>
-      <c r="AR40" s="81"/>
+      <c r="AQ40" s="81"/>
       <c r="AS40" s="81"/>
       <c r="AT40" s="81"/>
       <c r="AU40" s="81"/>
@@ -32822,9 +32939,9 @@
       <c r="AX40" s="81"/>
       <c r="AY40" s="81"/>
       <c r="AZ40" s="81"/>
-    </row>
-    <row r="41" spans="9:52">
-      <c r="I41" s="81"/>
+      <c r="BA40" s="81"/>
+    </row>
+    <row r="41" spans="10:53">
       <c r="J41" s="81"/>
       <c r="K41" s="81"/>
       <c r="L41" s="81"/>
@@ -32858,7 +32975,7 @@
       <c r="AN41" s="81"/>
       <c r="AO41" s="81"/>
       <c r="AP41" s="81"/>
-      <c r="AR41" s="81"/>
+      <c r="AQ41" s="81"/>
       <c r="AS41" s="81"/>
       <c r="AT41" s="81"/>
       <c r="AU41" s="81"/>
@@ -32867,9 +32984,9 @@
       <c r="AX41" s="81"/>
       <c r="AY41" s="81"/>
       <c r="AZ41" s="81"/>
-    </row>
-    <row r="42" spans="9:52">
-      <c r="I42" s="81"/>
+      <c r="BA41" s="81"/>
+    </row>
+    <row r="42" spans="10:53">
       <c r="J42" s="81"/>
       <c r="K42" s="81"/>
       <c r="L42" s="81"/>
@@ -32903,7 +33020,7 @@
       <c r="AN42" s="81"/>
       <c r="AO42" s="81"/>
       <c r="AP42" s="81"/>
-      <c r="AR42" s="81"/>
+      <c r="AQ42" s="81"/>
       <c r="AS42" s="81"/>
       <c r="AT42" s="81"/>
       <c r="AU42" s="81"/>
@@ -32912,9 +33029,9 @@
       <c r="AX42" s="81"/>
       <c r="AY42" s="81"/>
       <c r="AZ42" s="81"/>
-    </row>
-    <row r="43" spans="9:52">
-      <c r="I43" s="81"/>
+      <c r="BA42" s="81"/>
+    </row>
+    <row r="43" spans="10:53">
       <c r="J43" s="81"/>
       <c r="K43" s="81"/>
       <c r="L43" s="81"/>
@@ -32948,7 +33065,7 @@
       <c r="AN43" s="81"/>
       <c r="AO43" s="81"/>
       <c r="AP43" s="81"/>
-      <c r="AR43" s="81"/>
+      <c r="AQ43" s="81"/>
       <c r="AS43" s="81"/>
       <c r="AT43" s="81"/>
       <c r="AU43" s="81"/>
@@ -32957,9 +33074,9 @@
       <c r="AX43" s="81"/>
       <c r="AY43" s="81"/>
       <c r="AZ43" s="81"/>
-    </row>
-    <row r="44" spans="9:52">
-      <c r="I44" s="81"/>
+      <c r="BA43" s="81"/>
+    </row>
+    <row r="44" spans="10:53">
       <c r="J44" s="81"/>
       <c r="K44" s="81"/>
       <c r="L44" s="81"/>
@@ -32993,7 +33110,7 @@
       <c r="AN44" s="81"/>
       <c r="AO44" s="81"/>
       <c r="AP44" s="81"/>
-      <c r="AR44" s="81"/>
+      <c r="AQ44" s="81"/>
       <c r="AS44" s="81"/>
       <c r="AT44" s="81"/>
       <c r="AU44" s="81"/>
@@ -33002,9 +33119,9 @@
       <c r="AX44" s="81"/>
       <c r="AY44" s="81"/>
       <c r="AZ44" s="81"/>
-    </row>
-    <row r="45" spans="9:52">
-      <c r="I45" s="81"/>
+      <c r="BA44" s="81"/>
+    </row>
+    <row r="45" spans="10:53">
       <c r="J45" s="81"/>
       <c r="K45" s="81"/>
       <c r="L45" s="81"/>
@@ -33038,7 +33155,7 @@
       <c r="AN45" s="81"/>
       <c r="AO45" s="81"/>
       <c r="AP45" s="81"/>
-      <c r="AR45" s="81"/>
+      <c r="AQ45" s="81"/>
       <c r="AS45" s="81"/>
       <c r="AT45" s="81"/>
       <c r="AU45" s="81"/>
@@ -33047,6 +33164,7 @@
       <c r="AX45" s="81"/>
       <c r="AY45" s="81"/>
       <c r="AZ45" s="81"/>
+      <c r="BA45" s="81"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -33064,10 +33182,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -33092,40 +33210,40 @@
   <sheetData>
     <row r="1" s="14" customFormat="1" ht="15" spans="1:20">
       <c r="A1" s="23" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="M1" s="23"/>
       <c r="N1" s="76"/>
@@ -33138,38 +33256,24 @@
         <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>128</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="11"/>
       <c r="M2" s="10"/>
       <c r="N2" s="11"/>
       <c r="O2" s="10"/>
@@ -33185,23 +33289,24 @@
         <v>99</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>134</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="H3" s="2"/>
       <c r="I3" s="10"/>
       <c r="K3" s="10"/>
       <c r="M3" s="10"/>
@@ -33211,31 +33316,31 @@
         <v>96</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K4" s="12"/>
       <c r="M4" s="12"/>
@@ -33245,20 +33350,22 @@
         <v>100</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>148</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="10"/>
       <c r="K5" s="10"/>
       <c r="M5" s="10"/>
@@ -33268,41 +33375,41 @@
         <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>158</v>
+      <c r="A8" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>159</v>
@@ -33316,7 +33423,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>162</v>
@@ -33333,7 +33440,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>166</v>
@@ -33362,13 +33469,13 @@
         <v>162</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>172</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -33396,7 +33503,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>178</v>
@@ -33413,7 +33520,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>166</v>
@@ -33436,7 +33543,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>186</v>
@@ -33446,6 +33553,103 @@
       </c>
       <c r="D15" s="2" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -33464,10 +33668,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CF53"/>
+  <dimension ref="A1:CF72"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="AD69" sqref="AD69:AG72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -33482,8 +33686,8 @@
     <col min="10" max="10" width="13.6637168141593" style="13" customWidth="1"/>
     <col min="11" max="12" width="13.1061946902655" style="13" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="10.1061946902655" style="12" customWidth="1"/>
-    <col min="14" max="14" width="9.55752212389381" style="12" customWidth="1"/>
-    <col min="15" max="15" width="8.88495575221239" style="12"/>
+    <col min="14" max="14" width="9.55752212389381" style="12" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88495575221239" style="12" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="10.3362831858407" style="13" customWidth="1"/>
     <col min="17" max="17" width="9.10619469026549" style="13" customWidth="1"/>
     <col min="18" max="18" width="10" style="13" customWidth="1"/>
@@ -33528,19 +33732,19 @@
         <v>61</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="D1" s="80" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="E1" s="77" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="G1" s="34" t="s">
         <v>80</v>
@@ -33552,190 +33756,190 @@
         <v>80</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="N1" s="34" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="R1" s="37" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="S1" s="37" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="T1" s="37" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="U1" s="37" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="V1" s="37" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="W1" s="37" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="X1" s="37" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="Y1" s="37" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="Z1" s="34" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AA1" s="34" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="AB1" s="34" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AC1" s="34" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="AD1" s="37" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AE1" s="37" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="AF1" s="37" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AG1" s="37" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="AH1" s="37" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AI1" s="37" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="AJ1" s="34" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="AK1" s="34" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="AL1" s="34" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="AM1" s="34" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="AN1" s="34" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="AO1" s="34" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="AP1" s="37" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="AQ1" s="37" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="AR1" s="37" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="AS1" s="37" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="AT1" s="37" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="AU1" s="37" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="AV1" s="34" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="AW1" s="34" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="AX1" s="34" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="AY1" s="34" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="AZ1" s="34" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="BA1" s="34" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="BB1" s="37" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="BC1" s="37" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="BD1" s="37" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="BE1" s="37" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="BF1" s="37" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="BG1" s="37" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="BH1" s="34" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="BI1" s="34" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="BJ1" s="34" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="BK1" s="34" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="BL1" s="34" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="BM1" s="34" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="BN1" s="34" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="BO1" s="34" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="BP1" s="34" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="BQ1" s="34" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="BR1" s="34" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="BS1" s="34" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:84">
@@ -33743,28 +33947,28 @@
         <v>96</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="Q2" s="13">
         <v>5</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="S2" s="13">
         <v>9</v>
@@ -33773,25 +33977,25 @@
         <v>1</v>
       </c>
       <c r="AD2" s="13" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="AE2" s="13">
         <v>90</v>
       </c>
       <c r="AF2" s="13" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AG2" s="13">
         <v>10</v>
       </c>
       <c r="AP2" s="13" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AQ2" s="13">
         <v>3</v>
       </c>
       <c r="AR2" s="13" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="AS2" s="13">
         <v>2</v>
@@ -33817,19 +34021,19 @@
       <c r="BL2" s="12"/>
       <c r="BM2" s="12"/>
       <c r="BN2" s="7" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="BO2" s="7">
         <v>13</v>
       </c>
       <c r="BP2" s="7" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="BQ2" s="7">
         <v>14</v>
       </c>
       <c r="BR2" s="7" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="BS2" s="7">
         <v>15</v>
@@ -33853,31 +34057,31 @@
         <v>96</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="Q3" s="13">
         <v>5</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="S3" s="13">
         <v>9</v>
       </c>
       <c r="AD3" s="13" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="AE3" s="13">
         <v>100</v>
@@ -33907,13 +34111,13 @@
       <c r="BL3" s="12"/>
       <c r="BM3" s="12"/>
       <c r="BN3" s="12" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="BO3" s="12">
         <v>13</v>
       </c>
       <c r="BP3" s="12" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="BQ3" s="12">
         <v>14</v>
@@ -33924,55 +34128,55 @@
         <v>96</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="13">
         <v>8</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="S4" s="13">
         <v>9</v>
       </c>
       <c r="AD4" s="13" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="AE4" s="13">
         <v>90</v>
       </c>
       <c r="AF4" s="13" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="AG4" s="13">
         <v>5</v>
       </c>
       <c r="AH4" s="13" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AI4" s="13">
         <v>5</v>
       </c>
       <c r="AP4" s="13" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="AQ4" s="13">
         <v>3</v>
       </c>
       <c r="AR4" s="13" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="AS4" s="13">
         <v>2</v>
@@ -34003,46 +34207,46 @@
         <v>96</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="M5" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>210</v>
-      </c>
       <c r="O5" s="12" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="Q5" s="13">
         <v>10</v>
       </c>
       <c r="R5" s="13" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="S5" s="13">
         <v>9</v>
       </c>
       <c r="AD5" s="13" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="AE5" s="13">
         <v>90</v>
       </c>
       <c r="AF5" s="13" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="AG5" s="13">
         <v>10</v>
       </c>
       <c r="AP5" s="13" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="AQ5" s="13">
         <v>5</v>
@@ -34075,31 +34279,31 @@
         <v>96</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="O6" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="N6" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>211</v>
-      </c>
       <c r="P6" s="13" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="Q6" s="13">
         <v>5</v>
       </c>
       <c r="R6" s="13" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="S6" s="13">
         <v>9</v>
       </c>
       <c r="AD6" s="13" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="AE6" s="13">
         <v>100</v>
@@ -34134,49 +34338,49 @@
         <v>96</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="Q7" s="13">
         <v>5</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="S7" s="13">
         <v>9</v>
       </c>
       <c r="AD7" s="13" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AE7" s="13">
         <v>60</v>
       </c>
       <c r="AF7" s="13" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="AG7" s="13">
         <v>40</v>
       </c>
       <c r="AP7" s="13" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="AQ7" s="13">
         <v>3</v>
       </c>
       <c r="AR7" s="13" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="AS7" s="13">
         <v>2</v>
@@ -34207,49 +34411,49 @@
         <v>96</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="P8" s="13" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="Q8" s="13">
         <v>5</v>
       </c>
       <c r="R8" s="13" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="S8" s="13">
         <v>9</v>
       </c>
       <c r="AD8" s="13" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="AE8" s="13">
         <v>60</v>
       </c>
       <c r="AF8" s="13" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AG8" s="13">
         <v>40</v>
       </c>
       <c r="AP8" s="13" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="AQ8" s="13">
         <v>2</v>
       </c>
       <c r="AR8" s="13" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="AS8" s="13">
         <v>2</v>
@@ -34280,22 +34484,22 @@
         <v>96</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="Q9" s="13">
         <v>5</v>
       </c>
       <c r="R9" s="13" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="S9" s="13">
         <v>9</v>
@@ -34330,19 +34534,19 @@
         <v>99</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="Q10" s="13">
         <v>5</v>
       </c>
       <c r="R10" s="13" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="S10" s="13">
         <v>9</v>
@@ -34377,10 +34581,10 @@
         <v>99</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="7"/>
@@ -34395,13 +34599,13 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="8" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="Q11" s="8">
         <v>5</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="S11" s="8">
         <v>5</v>
@@ -34415,13 +34619,13 @@
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="AC11" s="7">
         <v>70</v>
       </c>
       <c r="AD11" s="8" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AE11" s="8">
         <v>4900</v>
@@ -34466,49 +34670,49 @@
         <v>99</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="Q12" s="13">
         <v>25</v>
       </c>
       <c r="R12" s="13" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="S12" s="13">
         <v>35</v>
       </c>
       <c r="Z12" s="12" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="AA12" s="12">
         <v>70</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="AC12" s="12">
         <v>30</v>
       </c>
       <c r="AD12" s="13" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AE12" s="13">
         <v>4000</v>
       </c>
       <c r="AF12" s="13" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="AG12" s="13">
         <v>650</v>
       </c>
       <c r="AH12" s="13" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="AI12" s="13">
         <v>300</v>
@@ -34543,49 +34747,49 @@
         <v>99</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="Q13" s="13">
         <v>35</v>
       </c>
       <c r="R13" s="13" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="S13" s="13">
         <v>55</v>
       </c>
       <c r="Z13" s="12" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="AA13" s="12">
         <v>90</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="AC13" s="12">
         <v>35</v>
       </c>
       <c r="AD13" s="13" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AE13" s="13">
         <v>3500</v>
       </c>
       <c r="AF13" s="13" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="AG13" s="13">
         <v>1000</v>
       </c>
       <c r="AH13" s="13" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="AI13" s="13">
         <v>450</v>
@@ -34620,49 +34824,49 @@
         <v>99</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="Q14" s="13">
         <v>40</v>
       </c>
       <c r="R14" s="13" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="S14" s="13">
         <v>75</v>
       </c>
       <c r="Z14" s="12" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="AA14" s="12">
         <v>110</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="AC14" s="12">
         <v>40</v>
       </c>
       <c r="AD14" s="13" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AE14" s="13">
         <v>3000</v>
       </c>
       <c r="AF14" s="13" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="AG14" s="13">
         <v>1250</v>
       </c>
       <c r="AH14" s="13" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="AI14" s="13">
         <v>700</v>
@@ -34697,10 +34901,10 @@
         <v>100</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="AP15" s="13"/>
       <c r="AQ15" s="13"/>
@@ -34732,49 +34936,49 @@
         <v>100</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="13">
         <v>0</v>
       </c>
       <c r="R16" s="13" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="S16" s="13">
         <v>35</v>
       </c>
       <c r="T16" s="13" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="U16" s="13">
         <v>20</v>
       </c>
       <c r="Z16" s="12" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="AA16" s="12">
         <v>85</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="AC16" s="12">
         <v>35</v>
       </c>
       <c r="AD16" s="13" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AE16" s="13">
         <v>750</v>
       </c>
       <c r="AH16" s="13" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AI16" s="13">
         <v>250</v>
@@ -34809,49 +35013,49 @@
         <v>100</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="P17" s="13" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="13">
         <v>0</v>
       </c>
       <c r="R17" s="13" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="S17" s="13">
         <v>45</v>
       </c>
       <c r="T17" s="13" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="U17" s="13">
         <v>25</v>
       </c>
       <c r="Z17" s="12" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="AA17" s="12">
         <v>105</v>
       </c>
       <c r="AB17" s="12" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="AC17" s="12">
         <v>40</v>
       </c>
       <c r="AD17" s="13" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AE17" s="13">
         <v>500</v>
       </c>
       <c r="AH17" s="13" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AI17" s="13">
         <v>500</v>
@@ -34886,49 +35090,49 @@
         <v>100</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="Q18" s="13">
         <v>0</v>
       </c>
       <c r="R18" s="13" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="S18" s="13">
         <v>55</v>
       </c>
       <c r="T18" s="13" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="U18" s="13">
         <v>30</v>
       </c>
       <c r="Z18" s="12" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="AA18" s="12">
         <v>120</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="AC18" s="12">
         <v>45</v>
       </c>
       <c r="AD18" s="13" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AE18" s="13">
         <v>250</v>
       </c>
       <c r="AH18" s="13" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AI18" s="13">
         <v>750</v>
@@ -34963,10 +35167,10 @@
         <v>101</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="AP19" s="13"/>
       <c r="AQ19" s="13"/>
@@ -34998,46 +35202,46 @@
         <v>101</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="Q20" s="13">
         <v>3</v>
       </c>
       <c r="R20" s="13" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="S20" s="13">
         <v>0</v>
       </c>
       <c r="T20" s="13" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="U20" s="13">
         <v>3</v>
       </c>
       <c r="AD20" s="13" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AE20" s="13">
         <v>-750</v>
       </c>
       <c r="AF20" s="13" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="AG20" s="13">
         <v>150</v>
       </c>
       <c r="AH20" s="13" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="AI20" s="13">
         <v>50</v>
@@ -35072,46 +35276,46 @@
         <v>101</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="Q21" s="13">
         <v>10</v>
       </c>
       <c r="R21" s="13" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="S21" s="13">
         <v>0</v>
       </c>
       <c r="T21" s="13" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="U21" s="13">
         <v>5</v>
       </c>
       <c r="AD21" s="13" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AE21" s="13">
         <v>-1250</v>
       </c>
       <c r="AF21" s="13" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="AG21" s="13">
         <v>50</v>
       </c>
       <c r="AH21" s="13" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="AI21" s="13">
         <v>150</v>
@@ -35142,14 +35346,14 @@
       <c r="BM21" s="12"/>
     </row>
     <row r="22" spans="1:65">
-      <c r="A22" s="12" t="s">
-        <v>101</v>
+      <c r="A22" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="AP22" s="13"/>
       <c r="AQ22" s="13"/>
@@ -35177,62 +35381,62 @@
       <c r="BM22" s="12"/>
     </row>
     <row r="23" spans="1:65">
-      <c r="A23" s="12" t="s">
-        <v>263</v>
+      <c r="A23" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="N23" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="P23" s="13" t="s">
         <v>266</v>
-      </c>
-      <c r="P23" s="13" t="s">
-        <v>246</v>
       </c>
       <c r="Q23" s="13">
         <v>0</v>
       </c>
       <c r="R23" s="13" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="S23" s="13">
         <v>1</v>
       </c>
       <c r="T23" s="13" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="U23" s="13">
         <v>1</v>
       </c>
       <c r="V23" s="13" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="W23" s="13">
         <v>1</v>
       </c>
       <c r="AD23" s="13" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AE23" s="13">
         <v>-500</v>
       </c>
       <c r="AF23" s="13" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="AG23" s="13">
         <v>0</v>
       </c>
       <c r="AH23" s="13" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AI23" s="13">
         <v>50</v>
@@ -35263,62 +35467,62 @@
       <c r="BM23" s="12"/>
     </row>
     <row r="24" spans="1:65">
-      <c r="A24" s="12" t="s">
-        <v>263</v>
+      <c r="A24" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="N24" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="P24" s="13" t="s">
         <v>266</v>
-      </c>
-      <c r="P24" s="13" t="s">
-        <v>246</v>
       </c>
       <c r="Q24" s="13">
         <v>0</v>
       </c>
       <c r="R24" s="13" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="S24" s="13">
         <v>2</v>
       </c>
       <c r="T24" s="13" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="U24" s="13">
         <v>1</v>
       </c>
       <c r="V24" s="13" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="W24" s="13">
         <v>2</v>
       </c>
       <c r="AD24" s="13" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AE24" s="13">
         <v>-1000</v>
       </c>
       <c r="AF24" s="13" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="AG24" s="13">
         <v>0</v>
       </c>
       <c r="AH24" s="13" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AI24" s="13">
         <v>100</v>
@@ -35349,62 +35553,62 @@
       <c r="BM24" s="12"/>
     </row>
     <row r="25" spans="1:65">
-      <c r="A25" s="12" t="s">
-        <v>263</v>
+      <c r="A25" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="N25" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="P25" s="13" t="s">
         <v>266</v>
-      </c>
-      <c r="P25" s="13" t="s">
-        <v>246</v>
       </c>
       <c r="Q25" s="13">
         <v>0</v>
       </c>
       <c r="R25" s="13" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="S25" s="13">
         <v>3</v>
       </c>
       <c r="T25" s="13" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="U25" s="13">
         <v>1</v>
       </c>
       <c r="V25" s="13" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="W25" s="13">
         <v>3</v>
       </c>
       <c r="AD25" s="13" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AE25" s="13">
         <v>-2000</v>
       </c>
       <c r="AF25" s="13" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="AG25" s="13">
         <v>0</v>
       </c>
       <c r="AH25" s="13" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AI25" s="13">
         <v>150</v>
@@ -35436,13 +35640,13 @@
     </row>
     <row r="26" spans="1:65">
       <c r="A26" s="12" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>160</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="AP26" s="13"/>
       <c r="AQ26" s="13"/>
@@ -35471,67 +35675,67 @@
     </row>
     <row r="27" spans="1:65">
       <c r="A27" s="12" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>161</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="P27" s="13" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="Q27" s="13">
         <v>5</v>
       </c>
       <c r="R27" s="13" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="S27" s="13">
         <v>1</v>
       </c>
       <c r="T27" s="13" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="U27" s="13">
         <v>3</v>
       </c>
       <c r="V27" s="13" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="W27" s="13">
         <v>1</v>
       </c>
       <c r="X27" s="13" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="Y27" s="13">
         <v>1</v>
       </c>
       <c r="AD27" s="13" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="AE27" s="13">
         <v>-1250</v>
       </c>
       <c r="AF27" s="13" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="AG27" s="13">
         <v>250</v>
       </c>
       <c r="AH27" s="13" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AI27" s="13">
         <v>250</v>
@@ -35563,28 +35767,28 @@
     </row>
     <row r="28" spans="1:65">
       <c r="A28" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>163</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="P28" s="13" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="Q28" s="13">
         <v>20</v>
       </c>
       <c r="Z28" s="12" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="AA28" s="12">
         <v>80</v>
       </c>
       <c r="AD28" s="13" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AE28" s="13">
         <v>4900</v>
@@ -35616,52 +35820,52 @@
     </row>
     <row r="29" spans="1:65">
       <c r="A29" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>164</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="Q29" s="13">
         <v>40</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="S29" s="13">
         <v>10</v>
       </c>
       <c r="T29" s="13" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="U29" s="13">
         <v>5</v>
       </c>
       <c r="Z29" s="12" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="AA29" s="12">
         <v>120</v>
       </c>
       <c r="AD29" s="13" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AE29" s="13">
         <v>4000</v>
       </c>
       <c r="AF29" s="13" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="AG29" s="13">
         <v>650</v>
       </c>
       <c r="AH29" s="13" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="AI29" s="13">
         <v>300</v>
@@ -35693,64 +35897,64 @@
     </row>
     <row r="30" spans="1:65">
       <c r="A30" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>165</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="Q30" s="13">
         <v>50</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="S30" s="13">
         <v>10</v>
       </c>
       <c r="T30" s="13" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="U30" s="13">
         <v>10</v>
       </c>
       <c r="V30" s="13" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="W30" s="13">
         <v>10</v>
       </c>
       <c r="X30" s="13" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="Y30" s="13">
         <v>5</v>
       </c>
       <c r="Z30" s="12" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="AA30" s="12">
         <v>180</v>
       </c>
       <c r="AD30" s="13" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AE30" s="13">
         <v>3900</v>
       </c>
       <c r="AF30" s="13" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="AG30" s="13">
         <v>750</v>
       </c>
       <c r="AH30" s="13" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AI30" s="13">
         <v>250</v>
@@ -35782,13 +35986,13 @@
     </row>
     <row r="31" spans="1:65">
       <c r="A31" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>167</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="AP31" s="13"/>
       <c r="AQ31" s="13"/>
@@ -35817,43 +36021,43 @@
     </row>
     <row r="32" spans="1:65">
       <c r="A32" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>168</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="J32" s="13" t="s">
         <v>163</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="Q32" s="13">
         <v>2</v>
       </c>
       <c r="R32" s="13" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="S32" s="13">
         <v>2</v>
       </c>
       <c r="AD32" s="13" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AE32" s="13">
         <v>-750</v>
       </c>
       <c r="AF32" s="13" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="AG32" s="13">
         <v>250</v>
       </c>
       <c r="AH32" s="13" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="AI32" s="13">
         <v>150</v>
@@ -35885,43 +36089,43 @@
     </row>
     <row r="33" spans="1:65">
       <c r="A33" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>169</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="J33" s="13" t="s">
         <v>164</v>
       </c>
       <c r="P33" s="13" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="Q33" s="13">
         <v>5</v>
       </c>
       <c r="R33" s="13" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="S33" s="13">
         <v>5</v>
       </c>
       <c r="AD33" s="13" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AE33" s="13">
         <v>-1250</v>
       </c>
       <c r="AF33" s="13" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="AG33" s="13">
         <v>200</v>
       </c>
       <c r="AH33" s="13" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="AI33" s="13">
         <v>200</v>
@@ -35953,49 +36157,49 @@
     </row>
     <row r="34" spans="1:65">
       <c r="A34" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>170</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="J34" s="13" t="s">
         <v>164</v>
       </c>
       <c r="P34" s="13" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="Q34" s="13">
         <v>10</v>
       </c>
       <c r="R34" s="13" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="S34" s="13">
         <v>10</v>
       </c>
       <c r="T34" s="13" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="U34" s="13">
         <v>1</v>
       </c>
       <c r="AD34" s="13" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AE34" s="13">
         <v>-2000</v>
       </c>
       <c r="AF34" s="13" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="AG34" s="13">
         <v>150</v>
       </c>
       <c r="AH34" s="13" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="AI34" s="13">
         <v>250</v>
@@ -36027,64 +36231,64 @@
     </row>
     <row r="35" spans="1:65">
       <c r="A35" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>171</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="J35" s="13" t="s">
         <v>165</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="P35" s="13" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="Q35" s="13">
         <v>10</v>
       </c>
       <c r="R35" s="13" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="S35" s="13">
         <v>10</v>
       </c>
       <c r="T35" s="13" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="U35" s="13">
         <v>2</v>
       </c>
       <c r="V35" s="13" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="W35" s="13">
         <v>2</v>
       </c>
       <c r="X35" s="13" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="Y35" s="13">
         <v>1</v>
       </c>
       <c r="AD35" s="13" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AE35" s="13">
         <v>-3900</v>
       </c>
       <c r="AF35" s="13" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="AG35" s="13">
         <v>500</v>
       </c>
       <c r="AH35" s="13" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AI35" s="13">
         <v>500</v>
@@ -36119,52 +36323,52 @@
         <v>94</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="Q36" s="13">
         <v>5</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="S36" s="13">
         <v>5</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="U36" s="13">
         <v>5</v>
       </c>
       <c r="Z36" s="12" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="AA36" s="12">
         <v>40</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AE36" s="13">
         <v>1100</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="AG36" s="13">
         <v>350</v>
       </c>
       <c r="AH36" s="13" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="AI36" s="13">
         <v>50</v>
@@ -36202,49 +36406,49 @@
         <v>172</v>
       </c>
       <c r="C37" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="M37" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="M37" s="12" t="s">
-        <v>265</v>
-      </c>
       <c r="P37" s="13" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="Q37" s="13">
         <v>10</v>
       </c>
       <c r="R37" s="13" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="S37" s="13">
         <v>10</v>
       </c>
       <c r="T37" s="13" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="U37" s="13">
         <v>5</v>
       </c>
       <c r="Z37" s="12" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="AA37" s="12">
         <v>50</v>
       </c>
       <c r="AD37" s="13" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AE37" s="13">
         <v>1000</v>
       </c>
       <c r="AF37" s="13" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="AG37" s="13">
         <v>450</v>
       </c>
       <c r="AH37" s="13" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="AI37" s="13">
         <v>50</v>
@@ -36255,64 +36459,64 @@
         <v>94</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="P38" s="13" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="Q38" s="13">
         <v>10</v>
       </c>
       <c r="R38" s="13" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="S38" s="13">
         <v>10</v>
       </c>
       <c r="T38" s="13" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="U38" s="13">
         <v>10</v>
       </c>
       <c r="V38" s="13" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="W38" s="13">
         <v>5</v>
       </c>
       <c r="X38" s="13" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="Y38" s="13">
         <v>5</v>
       </c>
       <c r="Z38" s="12" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="AA38" s="12">
         <v>70</v>
       </c>
       <c r="AD38" s="13" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AE38" s="13">
         <v>800</v>
       </c>
       <c r="AF38" s="13" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="AG38" s="13">
         <v>650</v>
       </c>
       <c r="AH38" s="13" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="AI38" s="13">
         <v>100</v>
@@ -36326,7 +36530,7 @@
         <v>173</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="E39" s="13"/>
       <c r="G39" s="13"/>
@@ -36339,31 +36543,31 @@
         <v>174</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="R40" s="13" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="S40" s="13">
         <v>1</v>
       </c>
       <c r="T40" s="13" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="U40" s="13">
         <v>1</v>
       </c>
       <c r="V40" s="13" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="W40" s="13">
         <v>1</v>
       </c>
       <c r="AD40" s="13" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AE40" s="13">
         <v>-200</v>
@@ -36377,37 +36581,37 @@
         <v>175</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="R41" s="13" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="S41" s="13">
         <v>2</v>
       </c>
       <c r="T41" s="13" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="U41" s="13">
         <v>2</v>
       </c>
       <c r="V41" s="13" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="W41" s="13">
         <v>2</v>
       </c>
       <c r="AD41" s="13" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AE41" s="13">
         <v>-300</v>
       </c>
       <c r="AF41" s="13" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="AG41" s="13">
         <v>-50</v>
@@ -36421,37 +36625,37 @@
         <v>176</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="R42" s="13" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="S42" s="13">
         <v>3</v>
       </c>
       <c r="T42" s="13" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="U42" s="13">
         <v>3</v>
       </c>
       <c r="V42" s="13" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="W42" s="13">
         <v>3</v>
       </c>
       <c r="AD42" s="13" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AE42" s="13">
         <v>-500</v>
       </c>
       <c r="AF42" s="13" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="AG42" s="13">
         <v>-100</v>
@@ -36465,52 +36669,52 @@
         <v>177</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="P43" s="13" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="Q43" s="13">
         <v>1</v>
       </c>
       <c r="R43" s="13" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="S43" s="13">
         <v>2</v>
       </c>
       <c r="T43" s="13" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="U43" s="13">
         <v>2</v>
       </c>
       <c r="V43" s="13" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="W43" s="13">
         <v>2</v>
       </c>
       <c r="X43" s="13" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="Y43" s="13">
         <v>5</v>
       </c>
       <c r="AD43" s="13" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AE43" s="13">
         <v>-800</v>
       </c>
       <c r="AF43" s="13" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="AG43" s="13">
         <v>-150</v>
@@ -36518,52 +36722,52 @@
     </row>
     <row r="44" spans="1:35">
       <c r="A44" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>179</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="P44" s="13" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="Q44" s="13">
         <v>5</v>
       </c>
       <c r="R44" s="13" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="S44" s="13">
         <v>15</v>
       </c>
       <c r="T44" s="13" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="U44" s="13">
         <v>5</v>
       </c>
       <c r="Z44" s="12" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="AA44" s="12">
         <v>50</v>
       </c>
       <c r="AD44" s="13" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AE44" s="13">
         <v>1100</v>
       </c>
       <c r="AF44" s="13" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="AG44" s="13">
         <v>350</v>
       </c>
       <c r="AH44" s="13" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="AI44" s="13">
         <v>50</v>
@@ -36571,52 +36775,52 @@
     </row>
     <row r="45" spans="1:35">
       <c r="A45" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="P45" s="13" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="Q45" s="13">
         <v>15</v>
       </c>
       <c r="R45" s="13" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="S45" s="13">
         <v>20</v>
       </c>
       <c r="T45" s="13" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="U45" s="13">
         <v>15</v>
       </c>
       <c r="Z45" s="12" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="AA45" s="12">
         <v>100</v>
       </c>
       <c r="AD45" s="13" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AE45" s="13">
         <v>1000</v>
       </c>
       <c r="AF45" s="13" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="AG45" s="13">
         <v>450</v>
       </c>
       <c r="AH45" s="13" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="AI45" s="13">
         <v>50</v>
@@ -36624,52 +36828,52 @@
     </row>
     <row r="46" spans="1:35">
       <c r="A46" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>181</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="P46" s="13" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="Q46" s="13">
         <v>20</v>
       </c>
       <c r="R46" s="13" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="S46" s="13">
         <v>25</v>
       </c>
       <c r="T46" s="13" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="U46" s="13">
         <v>20</v>
       </c>
       <c r="Z46" s="12" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="AA46" s="12">
         <v>140</v>
       </c>
       <c r="AD46" s="13" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AE46" s="13">
         <v>800</v>
       </c>
       <c r="AF46" s="13" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="AG46" s="13">
         <v>650</v>
       </c>
       <c r="AH46" s="13" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="AI46" s="13">
         <v>100</v>
@@ -36677,45 +36881,45 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:31">
       <c r="A48" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>182</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="P48" s="13" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="Q48" s="13">
         <v>1</v>
       </c>
       <c r="R48" s="13" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="S48" s="13">
         <v>1</v>
       </c>
       <c r="T48" s="13" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="U48" s="13">
         <v>1</v>
       </c>
       <c r="AD48" s="13" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AE48" s="13">
         <v>-200</v>
@@ -36723,40 +36927,40 @@
     </row>
     <row r="49" spans="1:33">
       <c r="A49" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="P49" s="13" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="Q49" s="13">
         <v>2</v>
       </c>
       <c r="R49" s="13" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="S49" s="13">
         <v>2</v>
       </c>
       <c r="T49" s="13" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="U49" s="13">
         <v>2</v>
       </c>
       <c r="AD49" s="13" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AE49" s="13">
         <v>-300</v>
       </c>
       <c r="AF49" s="13" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="AG49" s="13">
         <v>-50</v>
@@ -36764,40 +36968,40 @@
     </row>
     <row r="50" spans="1:33">
       <c r="A50" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B50" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" s="13" t="s">
         <v>184</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="P50" s="13" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="Q50" s="13">
         <v>3</v>
       </c>
       <c r="R50" s="13" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="S50" s="13">
         <v>3</v>
       </c>
       <c r="T50" s="13" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="U50" s="13">
         <v>3</v>
       </c>
       <c r="AD50" s="13" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AE50" s="13">
         <v>-500</v>
       </c>
       <c r="AF50" s="13" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="AG50" s="13">
         <v>-100</v>
@@ -36805,52 +37009,52 @@
     </row>
     <row r="51" spans="1:33">
       <c r="A51" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B51" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="13" t="s">
         <v>185</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="P51" s="13" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="Q51" s="13">
         <v>2</v>
       </c>
       <c r="R51" s="13" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="S51" s="13">
         <v>2</v>
       </c>
       <c r="T51" s="13" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="U51" s="13">
         <v>2</v>
       </c>
       <c r="V51" s="13" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="W51" s="13">
         <v>5</v>
       </c>
       <c r="X51" s="13" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="Y51" s="13">
         <v>5</v>
       </c>
       <c r="AD51" s="13" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AE51" s="13">
         <v>-800</v>
       </c>
       <c r="AF51" s="13" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="AG51" s="13">
         <v>-150</v>
@@ -36858,58 +37062,58 @@
     </row>
     <row r="52" spans="1:47">
       <c r="A52" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>291</v>
+        <v>114</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>310</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="P52" s="13" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="Q52" s="13">
         <v>30</v>
       </c>
       <c r="Z52" s="12" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="AA52" s="12">
         <v>10</v>
       </c>
       <c r="AD52" s="13" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AE52" s="13">
         <v>500</v>
       </c>
       <c r="AF52" s="13" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="AG52" s="13">
         <v>3500</v>
       </c>
       <c r="AH52" s="13" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AI52" s="13">
         <v>900</v>
       </c>
       <c r="AP52" s="12" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="AQ52" s="12">
         <v>0.5</v>
       </c>
       <c r="AR52" s="12" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="AS52" s="12">
         <v>0.25</v>
       </c>
       <c r="AT52" s="12" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="AU52" s="12">
         <v>0.5</v>
@@ -36917,55 +37121,804 @@
     </row>
     <row r="53" spans="1:45">
       <c r="A53" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B53" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="13" t="s">
         <v>188</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="P53" s="13" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="Q53" s="13">
         <v>10</v>
       </c>
       <c r="Z53" s="12" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="AA53" s="12">
         <v>40</v>
       </c>
       <c r="AD53" s="13" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AE53" s="13">
         <v>1000</v>
       </c>
       <c r="AF53" s="13" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="AG53" s="13">
         <v>2500</v>
       </c>
       <c r="AH53" s="13" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AI53" s="13">
         <v>900</v>
       </c>
       <c r="AP53" s="12" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="AQ53" s="12">
         <v>1.5</v>
       </c>
       <c r="AR53" s="12" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="AS53" s="12">
         <v>0.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33">
+      <c r="A54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="P54" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q54" s="13">
+        <v>5</v>
+      </c>
+      <c r="R54" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="S54" s="13">
+        <v>5</v>
+      </c>
+      <c r="Z54" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA54" s="12">
+        <v>40</v>
+      </c>
+      <c r="AD54" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE54" s="13">
+        <v>4500</v>
+      </c>
+      <c r="AF54" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="AG54" s="13">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33">
+      <c r="A55" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="P55" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q55" s="13">
+        <v>10</v>
+      </c>
+      <c r="R55" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="S55" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z55" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA55" s="12">
+        <v>80</v>
+      </c>
+      <c r="AD55" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE55" s="13">
+        <v>4500</v>
+      </c>
+      <c r="AF55" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG55" s="13">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33">
+      <c r="A56" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="P56" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q56" s="13">
+        <v>10</v>
+      </c>
+      <c r="R56" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="S56" s="13">
+        <v>10</v>
+      </c>
+      <c r="T56" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="U56" s="13">
+        <v>5</v>
+      </c>
+      <c r="Z56" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA56" s="12">
+        <v>120</v>
+      </c>
+      <c r="AD56" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE56" s="13">
+        <v>4500</v>
+      </c>
+      <c r="AF56" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="AG56" s="13">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33">
+      <c r="A57" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="P57" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q57" s="13">
+        <v>10</v>
+      </c>
+      <c r="R57" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="S57" s="13">
+        <v>10</v>
+      </c>
+      <c r="T57" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="U57" s="13">
+        <v>10</v>
+      </c>
+      <c r="V57" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="W57" s="13">
+        <v>5</v>
+      </c>
+      <c r="Z57" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA57" s="12">
+        <v>160</v>
+      </c>
+      <c r="AD57" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE57" s="13">
+        <v>4000</v>
+      </c>
+      <c r="AF57" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="AG57" s="13">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33">
+      <c r="A59" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="J59" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="K59" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="P59" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q59" s="13">
+        <v>2</v>
+      </c>
+      <c r="R59" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="S59" s="13">
+        <v>1</v>
+      </c>
+      <c r="T59" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="U59" s="13">
+        <v>2</v>
+      </c>
+      <c r="AD59" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE59" s="13">
+        <v>-1000</v>
+      </c>
+      <c r="AF59" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="AG59" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33">
+      <c r="A60" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J60" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="K60" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="P60" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q60" s="13">
+        <v>3</v>
+      </c>
+      <c r="R60" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="S60" s="13">
+        <v>2</v>
+      </c>
+      <c r="T60" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="U60" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD60" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE60" s="13">
+        <v>-2000</v>
+      </c>
+      <c r="AF60" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="AG60" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33">
+      <c r="A61" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="J61" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="K61" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="P61" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q61" s="13">
+        <v>4</v>
+      </c>
+      <c r="R61" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="S61" s="13">
+        <v>3</v>
+      </c>
+      <c r="T61" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="U61" s="13">
+        <v>4</v>
+      </c>
+      <c r="AD61" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE61" s="13">
+        <v>-3000</v>
+      </c>
+      <c r="AF61" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="AG61" s="13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="2:33">
+      <c r="B62" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="K62" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="P62" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q62" s="13">
+        <v>3</v>
+      </c>
+      <c r="R62" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="S62" s="13">
+        <v>2</v>
+      </c>
+      <c r="T62" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="U62" s="13">
+        <v>4</v>
+      </c>
+      <c r="V62" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="W62" s="13">
+        <v>5</v>
+      </c>
+      <c r="X62" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y62" s="13">
+        <v>5</v>
+      </c>
+      <c r="AD62" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE62" s="13">
+        <v>-4000</v>
+      </c>
+      <c r="AF62" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="AG62" s="13">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33">
+      <c r="A63" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="P63" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q63" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z63" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA63" s="12">
+        <v>40</v>
+      </c>
+      <c r="AD63" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE63" s="13">
+        <v>4500</v>
+      </c>
+      <c r="AF63" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="AG63" s="13">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33">
+      <c r="A64" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="P64" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q64" s="13">
+        <v>15</v>
+      </c>
+      <c r="Z64" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA64" s="12">
+        <v>65</v>
+      </c>
+      <c r="AD64" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE64" s="13">
+        <v>4300</v>
+      </c>
+      <c r="AF64" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="AG64" s="13">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33">
+      <c r="A65" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="P65" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q65" s="13">
+        <v>20</v>
+      </c>
+      <c r="Z65" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA65" s="12">
+        <v>90</v>
+      </c>
+      <c r="AD65" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE65" s="13">
+        <v>4000</v>
+      </c>
+      <c r="AF65" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="AG65" s="13">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33">
+      <c r="A67" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="P67" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q67" s="13">
+        <v>5</v>
+      </c>
+      <c r="R67" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="S67" s="13">
+        <v>5</v>
+      </c>
+      <c r="T67" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="U67" s="13">
+        <v>5</v>
+      </c>
+      <c r="V67" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="W67" s="13">
+        <v>5</v>
+      </c>
+      <c r="X67" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y67" s="13">
+        <v>5</v>
+      </c>
+      <c r="Z67" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="AA67" s="12">
+        <v>40</v>
+      </c>
+      <c r="AD67" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE67" s="13">
+        <v>100</v>
+      </c>
+      <c r="AF67" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="AG67" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33">
+      <c r="A69" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="P69" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q69" s="13">
+        <v>2</v>
+      </c>
+      <c r="R69" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="S69" s="13">
+        <v>1</v>
+      </c>
+      <c r="T69" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="U69" s="13">
+        <v>2</v>
+      </c>
+      <c r="AD69" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE69" s="13">
+        <v>-1000</v>
+      </c>
+      <c r="AF69" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="AG69" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33">
+      <c r="A70" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="P70" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q70" s="13">
+        <v>3</v>
+      </c>
+      <c r="R70" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="S70" s="13">
+        <v>2</v>
+      </c>
+      <c r="T70" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="U70" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD70" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE70" s="13">
+        <v>-2000</v>
+      </c>
+      <c r="AF70" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="AG70" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33">
+      <c r="A71" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="P71" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q71" s="13">
+        <v>4</v>
+      </c>
+      <c r="R71" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="S71" s="13">
+        <v>3</v>
+      </c>
+      <c r="T71" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="U71" s="13">
+        <v>4</v>
+      </c>
+      <c r="AD71" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE71" s="13">
+        <v>-3000</v>
+      </c>
+      <c r="AF71" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="AG71" s="13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33">
+      <c r="A72" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="P72" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q72" s="13">
+        <v>3</v>
+      </c>
+      <c r="R72" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="S72" s="13">
+        <v>2</v>
+      </c>
+      <c r="T72" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="U72" s="13">
+        <v>4</v>
+      </c>
+      <c r="V72" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="W72" s="13">
+        <v>5</v>
+      </c>
+      <c r="X72" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y72" s="13">
+        <v>5</v>
+      </c>
+      <c r="AD72" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE72" s="13">
+        <v>-4000</v>
+      </c>
+      <c r="AF72" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="AG72" s="13">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -36976,24 +37929,18 @@
       <headerFooter/>
     </customSheetView>
   </customSheetViews>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ1059:AJ1048576 AL1059:AL1048576 AN1059:AN1048576">
-      <formula1>数据表!$F$2:$F$673</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P8 P14 P15 P19 P22 P27 P33 P34 P35 P36 P2:P7 P9:P10 P11:P13 P16:P18 P20:P21 P23:P25 P28:P32">
-      <formula1>[1]数据表!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P47 P37:P39 P40:P43 P44:P46 P52:P1048576">
-      <formula1>数据表!$B$2:$B$39</formula1>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD47 AF47 AH47 AD1:AD39 AD40:AD43 AD44:AD46 AD48:AD51 AD52:AD58 AD59:AD63 AD64:AD68 AD69:AD72 AD73:AD1048576 AF1:AF39 AF40:AF43 AF44:AF46 AF48:AF51 AF52:AF58 AF59:AF63 AF64:AF68 AF69:AF72 AF73:AF1048576 AH1:AH39 AH40:AH43 AH44:AH46 AH48:AH51 AH52:AH1048576">
+      <formula1>数据表!$F:$F</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ37:AJ1058 AL37:AL1058 AN37:AN1058">
       <formula1>数据表!$F$2:$F$32</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R47 T47 V47 P48:P51 R1:R39 R40:R43 R44:R46 R48:R51 R52:R1048576 T1:T43 T44:T46 T48:T51 T52:T1048576 V1:V43 V44:V46 V48:V51 V52:V1048576 X1:X43 X44:X46 X47:X1048576 Z1:Z43 Z44:Z46 Z47:Z1048576 AB$1:AB$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z55 Z56 Z57 Z58 P1:P58 P59:P62 P63:P68 P69:P72 P73:P1048576 R1:R58 R59:R62 R63:R68 R69:R72 R73:R1048576 T1:T58 T59:T62 T63:T68 T69:T72 T73:T1048576 V1:V58 V59:V62 V63:V68 V69:V72 V73:V1048576 X1:X58 X59:X62 X63:X68 X69:X72 X73:X1048576 Z1:Z43 Z44:Z46 Z47:Z54 Z59:Z1048576 AB$1:AB$1048576">
       <formula1>数据表!$B:$B</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD47 AF47 AH47 AD1:AD39 AD40:AD43 AD44:AD46 AD48:AD51 AD52:AD1048576 AF1:AF39 AF40:AF43 AF44:AF46 AF48:AF51 AF52:AF1048576 AH1:AH39 AH40:AH43 AH44:AH46 AH48:AH51 AH52:AH1048576">
-      <formula1>数据表!$F:$F</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ1059:AJ1048576 AL1059:AL1048576 AN1059:AN1048576">
+      <formula1>数据表!$F$2:$F$673</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37027,51 +37974,51 @@
   <sheetData>
     <row r="1" s="14" customFormat="1" ht="15" spans="1:10">
       <c r="A1" s="23" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="B1" s="76" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="F1" s="76" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="H1" s="76" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="J1" s="76" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" s="10" customFormat="1" ht="14.25" spans="1:10">
       <c r="A2" s="10" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="D2" s="11">
         <v>30</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="F2" s="11">
         <v>1</v>
@@ -37080,7 +38027,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="I2" s="10">
         <v>1</v>
@@ -37091,19 +38038,19 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="D3" s="2">
         <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
@@ -37112,7 +38059,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
@@ -37157,70 +38104,70 @@
       <c r="B1" s="52"/>
       <c r="C1" s="53"/>
       <c r="D1" s="54" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="E1" s="55" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="F1" s="55" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="G1" s="55" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="H1" s="55" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="I1" s="55" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="J1" s="55" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="K1" s="55" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="L1" s="55" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="M1" s="55" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="N1" s="55" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="O1" s="55" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="P1" s="55" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="Q1" s="55" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="R1" s="55" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="S1" s="55" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="T1" s="55" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="U1" s="55" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="V1" s="55" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="W1" s="55" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="X1" s="55" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="Y1" s="70" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="Z1" s="71"/>
     </row>
@@ -37229,46 +38176,46 @@
       <c r="B2" s="57"/>
       <c r="C2" s="58"/>
       <c r="D2" s="59" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="E2" s="60" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="F2" s="60" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="H2" s="60" t="s">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="J2" s="60" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="K2" s="60" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="L2" s="60" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="M2" s="60" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="N2" s="60" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="O2" s="60" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="P2" s="60" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="Q2" s="60" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="R2" s="60"/>
       <c r="S2" s="60"/>
@@ -37285,70 +38232,70 @@
       <c r="B3" s="57"/>
       <c r="C3" s="58"/>
       <c r="D3" s="61" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="G3" s="62" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="H3" s="62" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="I3" s="62" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="K3" s="62" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="L3" s="62" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="M3" s="62" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="N3" s="62" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="O3" s="62" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="P3" s="62" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="Q3" s="62" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="R3" s="62" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="S3" s="62" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="T3" s="62" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="U3" s="62" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="V3" s="62" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="W3" s="62" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="X3" s="62" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="Y3" s="74" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="Z3" s="71"/>
     </row>
@@ -37357,46 +38304,46 @@
       <c r="B4" s="57"/>
       <c r="C4" s="58"/>
       <c r="D4" s="59" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="G4" s="60" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="H4" s="60" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="I4" s="60" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="J4" s="60" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="K4" s="60" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="M4" s="60" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="N4" s="60" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="O4" s="60" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="P4" s="60" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="Q4" s="60" t="s">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="R4" s="60"/>
       <c r="S4" s="60"/>
@@ -37413,70 +38360,70 @@
       <c r="B5" s="57"/>
       <c r="C5" s="58"/>
       <c r="D5" s="61" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="F5" s="62" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="G5" s="62" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="H5" s="62" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="I5" s="62" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="K5" s="62" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="L5" s="62" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="M5" s="62" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="N5" s="62" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="O5" s="62" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="P5" s="62" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="Q5" s="62" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="R5" s="62" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="S5" s="62" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="T5" s="62" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="U5" s="62" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="V5" s="62" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="W5" s="62" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="X5" s="62" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="Y5" s="74" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="Z5" s="71"/>
     </row>
@@ -37538,79 +38485,79 @@
     </row>
     <row r="7" s="43" customFormat="1" ht="14.25" spans="1:26">
       <c r="A7" s="43" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="D7" s="67" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="E7" s="68" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="F7" s="68" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="G7" s="68" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="H7" s="68" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="I7" s="68" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="J7" s="68" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="K7" s="68" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="L7" s="68" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="M7" s="68" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="N7" s="68" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="O7" s="68" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="P7" s="68" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="Q7" s="68" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="R7" s="68" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="S7" s="68" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="T7" s="68" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="U7" s="68" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="V7" s="68" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="W7" s="68" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="X7" s="68" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="Y7" s="75" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="Z7" s="71"/>
     </row>
@@ -41519,111 +42466,111 @@
   <sheetData>
     <row r="1" s="14" customFormat="1" ht="15" spans="1:31">
       <c r="A1" s="23" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="O1" s="38" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="P1" s="28" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="Q1" s="34" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="R1" s="34" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="T1" s="36" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="U1" s="37" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="V1" s="37" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="W1" s="38" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="X1" s="28" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="Y1" s="34" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="Z1" s="34" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="AA1" s="35" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="AB1" s="36" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="AC1" s="37" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="AD1" s="37" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="AE1" s="38" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2" s="10" customFormat="1" ht="14.25" spans="1:31">
       <c r="A2" s="10" t="s">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="E2" s="31">
         <v>1</v>
@@ -41635,7 +42582,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="I2" s="10">
         <v>2</v>
@@ -41665,16 +42612,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>365</v>
+        <v>396</v>
       </c>
       <c r="E3" s="17">
         <v>1.5</v>

--- a/数值设定/工具表v0.32.xlsx
+++ b/数值设定/工具表v0.32.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22102" windowHeight="12390" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="21562" windowHeight="12390" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="使用说明" sheetId="8" r:id="rId1"/>
@@ -18,9 +18,6 @@
     <sheet name="pop需求类型" sheetId="7" r:id="rId9"/>
     <sheet name="数据表" sheetId="10" r:id="rId10"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId11"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Z_3363CAA7_4355_4179_A18A_52B673CA7BD5_.wvu.Cols" localSheetId="5" hidden="1">生产方式!$D:$I</definedName>
   </definedNames>
@@ -32,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="534">
   <si>
     <t>工具表版本</t>
   </si>
@@ -661,6 +658,21 @@
     <t>pmg_magical_floating_vehicle_production</t>
   </si>
   <si>
+    <t>building_war_machine_industry</t>
+  </si>
+  <si>
+    <t>科学军械厂</t>
+  </si>
+  <si>
+    <t>pmg_aeroplanes</t>
+  </si>
+  <si>
+    <t>pmg_science_mech_production</t>
+  </si>
+  <si>
+    <t>pmg_automation_building_war_machine_industry</t>
+  </si>
+  <si>
     <t>生产方式组代码名</t>
   </si>
   <si>
@@ -919,6 +931,42 @@
     <t>pm_doll_based_assemble_line_building_magical_equipment_industry</t>
   </si>
   <si>
+    <t>蒸汽飞行器</t>
+  </si>
+  <si>
+    <t>pm_no_aerocraft_production</t>
+  </si>
+  <si>
+    <t>pm_aeroplane_production</t>
+  </si>
+  <si>
+    <t>pm_helicarrier</t>
+  </si>
+  <si>
+    <t>蒸汽机甲</t>
+  </si>
+  <si>
+    <t>pm_no_mech_production</t>
+  </si>
+  <si>
+    <t>pm_steam_mech_production</t>
+  </si>
+  <si>
+    <t>pm_magiscientia_mech_production</t>
+  </si>
+  <si>
+    <t>pm_watertube_boiler_building_war_machine_industry</t>
+  </si>
+  <si>
+    <t>pm_rotary_valve_engine_building_war_machine_industry</t>
+  </si>
+  <si>
+    <t>pm_assembly_lines_building_war_machine_industry</t>
+  </si>
+  <si>
+    <t>pm_doll_based_assemble_line_building_war_machine_industry</t>
+  </si>
+  <si>
     <t>生产方式代码名</t>
   </si>
   <si>
@@ -1282,6 +1330,21 @@
     <t>魔能浮空车</t>
   </si>
   <si>
+    <t>无飞行器生产</t>
+  </si>
+  <si>
+    <t>蒸汽飞机生产</t>
+  </si>
+  <si>
+    <t>空天母舰生产</t>
+  </si>
+  <si>
+    <t>无机甲生产</t>
+  </si>
+  <si>
+    <t>魔导机甲</t>
+  </si>
+  <si>
     <t>货物代码名</t>
   </si>
   <si>
@@ -1555,9 +1618,6 @@
     <t>mech</t>
   </si>
   <si>
-    <t>蒸汽机甲</t>
-  </si>
-  <si>
     <t>farmers</t>
   </si>
   <si>
@@ -1583,9 +1643,6 @@
   </si>
   <si>
     <t>areoplanes</t>
-  </si>
-  <si>
-    <t>蒸汽飞行器</t>
   </si>
   <si>
     <t>machinists</t>
@@ -1839,9 +1896,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -1881,9 +1938,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1896,8 +1959,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1910,32 +1974,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1957,10 +1997,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1981,21 +2045,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
@@ -2006,6 +2055,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2123,7 +2180,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2135,13 +2192,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2153,7 +2210,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2165,19 +2234,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2189,43 +2246,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2238,6 +2265,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2713,6 +2770,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2745,38 +2811,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2796,6 +2833,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2810,6 +2856,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2818,10 +2875,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2830,130 +2887,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3370,37 +3427,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="使用说明"/>
-      <sheetName val="注释"/>
-      <sheetName val="建筑组"/>
-      <sheetName val="建筑"/>
-      <sheetName val="生产方式组"/>
-      <sheetName val="生产方式"/>
-      <sheetName val="货物"/>
-      <sheetName val="pop需求量表"/>
-      <sheetName val="pop需求类型"/>
-      <sheetName val="数据表"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -4336,40 +4362,40 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="C2" s="8">
         <v>20</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="10" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="G2" s="4">
         <v>3</v>
@@ -4377,19 +4403,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="12" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="C3" s="13">
         <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="G3" s="4">
         <v>12</v>
@@ -4397,19 +4423,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
-        <v>406</v>
+        <v>428</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="C4" s="13">
         <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G4" s="4">
         <v>4</v>
@@ -4417,19 +4443,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="12" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="C5" s="13">
         <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="G5" s="4">
         <v>18</v>
@@ -4437,19 +4463,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="12" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="C6" s="13">
         <v>70</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G6" s="4">
         <v>4</v>
@@ -4457,19 +4483,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="12" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="C7" s="13">
         <v>70</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="G7" s="4">
         <v>4</v>
@@ -4477,19 +4503,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="12" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="C8" s="13">
         <v>120</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="G8" s="4">
         <v>3</v>
@@ -4497,19 +4523,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="12" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>421</v>
+        <v>218</v>
       </c>
       <c r="C9" s="13">
         <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="G9" s="4">
         <v>1.5</v>
@@ -4517,19 +4543,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="12" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="C10" s="13">
         <v>140</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
@@ -4537,19 +4563,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="12" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="C11" s="13">
         <v>120</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
@@ -4557,19 +4583,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="12" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>431</v>
+        <v>214</v>
       </c>
       <c r="C12" s="13">
         <v>80</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="G12" s="4">
         <v>1.5</v>
@@ -4577,19 +4603,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="12" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="C13" s="13">
         <v>100</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="G13" s="4">
         <v>4</v>
@@ -4597,19 +4623,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="12" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="C14" s="13">
         <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="G14" s="4">
         <v>20</v>
@@ -4617,19 +4643,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="C15" s="13">
         <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="G15" s="4">
         <v>6</v>
@@ -4637,19 +4663,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="12" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="C16" s="13">
         <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="G16" s="4">
         <v>5</v>
@@ -4657,19 +4683,19 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="12" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="C17" s="13">
         <v>30</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="G17" s="4">
         <v>0.2</v>
@@ -4677,19 +4703,19 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="12" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="C18" s="13">
         <v>30</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="G18" s="4">
         <v>2</v>
@@ -4697,19 +4723,19 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="12" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="C19" s="13">
         <v>30</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
@@ -4717,19 +4743,19 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="12" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="C20" s="13">
         <v>30</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="G20" s="4">
         <v>2</v>
@@ -4737,10 +4763,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="12" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="C21" s="13">
         <v>30</v>
@@ -4748,10 +4774,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="12" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="C22" s="13">
         <v>30</v>
@@ -4759,10 +4785,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="12" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="C23" s="13">
         <v>60</v>
@@ -4770,10 +4796,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="12" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="C24" s="13">
         <v>40</v>
@@ -4781,10 +4807,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="12" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="C25" s="13">
         <v>40</v>
@@ -4792,10 +4818,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="12" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="C26" s="13">
         <v>50</v>
@@ -4803,10 +4829,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="12" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="C27" s="13">
         <v>30</v>
@@ -4814,10 +4840,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="12" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="C28" s="13">
         <v>40</v>
@@ -4825,10 +4851,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="12" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="C29" s="13">
         <v>50</v>
@@ -4836,10 +4862,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="12" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="C30" s="13">
         <v>40</v>
@@ -4847,10 +4873,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="12" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="C31" s="13">
         <v>40</v>
@@ -4858,10 +4884,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="12" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="C32" s="13">
         <v>40</v>
@@ -4869,10 +4895,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="12" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="C33" s="13">
         <v>60</v>
@@ -4880,10 +4906,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="12" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="C34" s="13">
         <v>60</v>
@@ -4891,10 +4917,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="12" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="C35" s="13">
         <v>30</v>
@@ -4902,10 +4928,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="12" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="C36" s="13">
         <v>40</v>
@@ -4913,10 +4939,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="12" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="C37" s="13">
         <v>50</v>
@@ -4924,10 +4950,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="12" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="C38" s="13">
         <v>40</v>
@@ -4935,10 +4961,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="12" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="C39" s="13">
         <v>150</v>
@@ -4946,10 +4972,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="12" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="C40" s="13">
         <v>100</v>
@@ -4957,10 +4983,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="12" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="C41" s="13">
         <v>120</v>
@@ -4968,10 +4994,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="12" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="C42" s="13">
         <v>150</v>
@@ -4979,10 +5005,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="12" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="C43" s="13">
         <v>90</v>
@@ -4990,10 +5016,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="12" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="C44" s="13">
         <v>70</v>
@@ -5001,10 +5027,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="12" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="C45" s="13">
         <v>30</v>
@@ -5012,10 +5038,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="12" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="C46" s="13">
         <v>30</v>
@@ -5023,10 +5049,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="12" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="C47" s="13">
         <v>30</v>
@@ -5034,10 +5060,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="12" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="C48" s="13">
         <v>50</v>
@@ -5045,10 +5071,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="12" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="C49" s="13">
         <v>50</v>
@@ -5056,10 +5082,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="12" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="C50" s="13">
         <v>30</v>
@@ -5067,10 +5093,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="12" t="s">
-        <v>502</v>
+        <v>522</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="C51" s="13">
         <v>40</v>
@@ -5078,10 +5104,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="12" t="s">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="C52" s="13">
         <v>50</v>
@@ -5089,10 +5115,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="12" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="C53" s="13">
         <v>60</v>
@@ -5100,10 +5126,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="12" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="C54" s="13">
         <v>60</v>
@@ -5111,10 +5137,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="12" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="C55" s="13">
         <v>100</v>
@@ -5122,10 +5148,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="12" t="s">
-        <v>512</v>
+        <v>532</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="C56" s="13">
         <v>200</v>
@@ -30876,7 +30902,7 @@
   <dimension ref="A1:BA45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D9" sqref="D9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -31069,7 +31095,6 @@
       <c r="H2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="1"/>
       <c r="J2" s="81"/>
       <c r="K2" s="81"/>
       <c r="L2" s="81"/>
@@ -31501,7 +31526,28 @@
       <c r="AZ8" s="81"/>
       <c r="BA8" s="81"/>
     </row>
-    <row r="9" spans="10:53">
+    <row r="9" spans="1:53">
+      <c r="A9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="J9" s="81"/>
       <c r="K9" s="81"/>
       <c r="L9" s="81"/>
@@ -33182,10 +33228,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -33210,40 +33256,40 @@
   <sheetData>
     <row r="1" s="14" customFormat="1" ht="15" spans="1:20">
       <c r="A1" s="23" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M1" s="23"/>
       <c r="N1" s="76"/>
@@ -33256,16 +33302,16 @@
         <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -33289,24 +33335,23 @@
         <v>99</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H3" s="2"/>
+        <v>140</v>
+      </c>
       <c r="I3" s="10"/>
       <c r="K3" s="10"/>
       <c r="M3" s="10"/>
@@ -33316,31 +33361,31 @@
         <v>96</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K4" s="12"/>
       <c r="M4" s="12"/>
@@ -33350,22 +33395,20 @@
         <v>100</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+        <v>154</v>
+      </c>
       <c r="I5" s="10"/>
       <c r="K5" s="10"/>
       <c r="M5" s="10"/>
@@ -33375,16 +33418,16 @@
         <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -33392,19 +33435,19 @@
         <v>102</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -33412,13 +33455,13 @@
         <v>103</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -33426,16 +33469,16 @@
         <v>106</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -33443,22 +33486,22 @@
         <v>107</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -33466,16 +33509,16 @@
         <v>94</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -33483,22 +33526,22 @@
         <v>95</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -33506,16 +33549,16 @@
         <v>110</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -33523,22 +33566,22 @@
         <v>111</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -33546,13 +33589,13 @@
         <v>114</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -33560,19 +33603,19 @@
         <v>117</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -33580,22 +33623,22 @@
         <v>118</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -33603,16 +33646,16 @@
         <v>121</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -33620,13 +33663,13 @@
         <v>122</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -33634,22 +33677,79 @@
         <v>118</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -33668,10 +33768,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CF72"/>
+  <dimension ref="A1:CF83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="AD69" sqref="AD69:AG72"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="S81" sqref="S81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -33684,9 +33784,10 @@
     <col min="6" max="6" width="8.88495575221239" style="13" hidden="1" customWidth="1"/>
     <col min="7" max="9" width="8.88495575221239" style="12" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="13.6637168141593" style="13" customWidth="1"/>
-    <col min="11" max="12" width="13.1061946902655" style="13" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1061946902655" style="13" customWidth="1"/>
+    <col min="12" max="12" width="13.1061946902655" style="13" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="10.1061946902655" style="12" customWidth="1"/>
-    <col min="14" max="14" width="9.55752212389381" style="12" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.55752212389381" style="12" customWidth="1"/>
     <col min="15" max="15" width="8.88495575221239" style="12" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="10.3362831858407" style="13" customWidth="1"/>
     <col min="17" max="17" width="9.10619469026549" style="13" customWidth="1"/>
@@ -33732,19 +33833,19 @@
         <v>61</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D1" s="80" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="E1" s="77" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="G1" s="34" t="s">
         <v>80</v>
@@ -33756,190 +33857,190 @@
         <v>80</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="N1" s="34" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="R1" s="37" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="S1" s="37" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="T1" s="37" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="U1" s="37" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="V1" s="37" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="W1" s="37" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="X1" s="37" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Y1" s="37" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="Z1" s="34" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="AA1" s="34" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="AB1" s="34" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="AC1" s="34" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="AD1" s="37" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="AE1" s="37" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="AF1" s="37" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="AG1" s="37" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="AH1" s="37" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="AI1" s="37" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="AJ1" s="34" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="AK1" s="34" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="AL1" s="34" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="AM1" s="34" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="AN1" s="34" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="AO1" s="34" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="AP1" s="37" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="AQ1" s="37" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="AR1" s="37" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="AS1" s="37" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="AT1" s="37" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="AU1" s="37" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="AV1" s="34" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="AW1" s="34" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="AX1" s="34" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="AY1" s="34" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="AZ1" s="34" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="BA1" s="34" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="BB1" s="37" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="BC1" s="37" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="BD1" s="37" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="BE1" s="37" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="BF1" s="37" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="BG1" s="37" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="BH1" s="34" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="BI1" s="34" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="BJ1" s="34" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="BK1" s="34" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="BL1" s="34" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="BM1" s="34" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="BN1" s="34" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="BO1" s="34" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="BP1" s="34" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="BQ1" s="34" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="BR1" s="34" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="BS1" s="34" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:84">
@@ -33947,28 +34048,28 @@
         <v>96</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="Q2" s="13">
         <v>5</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="S2" s="13">
         <v>9</v>
@@ -33977,25 +34078,25 @@
         <v>1</v>
       </c>
       <c r="AD2" s="13" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="AE2" s="13">
         <v>90</v>
       </c>
       <c r="AF2" s="13" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="AG2" s="13">
         <v>10</v>
       </c>
       <c r="AP2" s="13" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="AQ2" s="13">
         <v>3</v>
       </c>
       <c r="AR2" s="13" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="AS2" s="13">
         <v>2</v>
@@ -34021,19 +34122,19 @@
       <c r="BL2" s="12"/>
       <c r="BM2" s="12"/>
       <c r="BN2" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="BO2" s="7">
         <v>13</v>
       </c>
       <c r="BP2" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="BQ2" s="7">
         <v>14</v>
       </c>
       <c r="BR2" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="BS2" s="7">
         <v>15</v>
@@ -34057,31 +34158,31 @@
         <v>96</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="Q3" s="13">
         <v>5</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="S3" s="13">
         <v>9</v>
       </c>
       <c r="AD3" s="13" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="AE3" s="13">
         <v>100</v>
@@ -34111,13 +34212,13 @@
       <c r="BL3" s="12"/>
       <c r="BM3" s="12"/>
       <c r="BN3" s="12" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="BO3" s="12">
         <v>13</v>
       </c>
       <c r="BP3" s="12" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="BQ3" s="12">
         <v>14</v>
@@ -34128,55 +34229,55 @@
         <v>96</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="Q4" s="13">
         <v>8</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="S4" s="13">
         <v>9</v>
       </c>
       <c r="AD4" s="13" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="AE4" s="13">
         <v>90</v>
       </c>
       <c r="AF4" s="13" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="AG4" s="13">
         <v>5</v>
       </c>
       <c r="AH4" s="13" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="AI4" s="13">
         <v>5</v>
       </c>
       <c r="AP4" s="13" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="AQ4" s="13">
         <v>3</v>
       </c>
       <c r="AR4" s="13" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="AS4" s="13">
         <v>2</v>
@@ -34207,46 +34308,46 @@
         <v>96</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="13">
         <v>10</v>
       </c>
       <c r="R5" s="13" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="S5" s="13">
         <v>9</v>
       </c>
       <c r="AD5" s="13" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="AE5" s="13">
         <v>90</v>
       </c>
       <c r="AF5" s="13" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="AG5" s="13">
         <v>10</v>
       </c>
       <c r="AP5" s="13" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="AQ5" s="13">
         <v>5</v>
@@ -34279,31 +34380,31 @@
         <v>96</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="Q6" s="13">
         <v>5</v>
       </c>
       <c r="R6" s="13" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="S6" s="13">
         <v>9</v>
       </c>
       <c r="AD6" s="13" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AE6" s="13">
         <v>100</v>
@@ -34338,49 +34439,49 @@
         <v>96</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="13">
         <v>5</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="S7" s="13">
         <v>9</v>
       </c>
       <c r="AD7" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE7" s="13">
         <v>60</v>
       </c>
       <c r="AF7" s="13" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AG7" s="13">
         <v>40</v>
       </c>
       <c r="AP7" s="13" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="AQ7" s="13">
         <v>3</v>
       </c>
       <c r="AR7" s="13" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="AS7" s="13">
         <v>2</v>
@@ -34411,49 +34512,49 @@
         <v>96</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="P8" s="13" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="Q8" s="13">
         <v>5</v>
       </c>
       <c r="R8" s="13" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="S8" s="13">
         <v>9</v>
       </c>
       <c r="AD8" s="13" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AE8" s="13">
         <v>60</v>
       </c>
       <c r="AF8" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AG8" s="13">
         <v>40</v>
       </c>
       <c r="AP8" s="13" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="AQ8" s="13">
         <v>2</v>
       </c>
       <c r="AR8" s="13" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="AS8" s="13">
         <v>2</v>
@@ -34484,22 +34585,22 @@
         <v>96</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="Q9" s="13">
         <v>5</v>
       </c>
       <c r="R9" s="13" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="S9" s="13">
         <v>9</v>
@@ -34534,19 +34635,19 @@
         <v>99</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="Q10" s="13">
         <v>5</v>
       </c>
       <c r="R10" s="13" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="S10" s="13">
         <v>9</v>
@@ -34581,10 +34682,10 @@
         <v>99</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="7"/>
@@ -34599,13 +34700,13 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="8" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="8">
         <v>5</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="S11" s="8">
         <v>5</v>
@@ -34619,13 +34720,13 @@
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="AC11" s="7">
         <v>70</v>
       </c>
       <c r="AD11" s="8" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE11" s="8">
         <v>4900</v>
@@ -34670,49 +34771,49 @@
         <v>99</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="Q12" s="13">
         <v>25</v>
       </c>
       <c r="R12" s="13" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="S12" s="13">
         <v>35</v>
       </c>
       <c r="Z12" s="12" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="AA12" s="12">
         <v>70</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="AC12" s="12">
         <v>30</v>
       </c>
       <c r="AD12" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE12" s="13">
         <v>4000</v>
       </c>
       <c r="AF12" s="13" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AG12" s="13">
         <v>650</v>
       </c>
       <c r="AH12" s="13" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AI12" s="13">
         <v>300</v>
@@ -34747,49 +34848,49 @@
         <v>99</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="Q13" s="13">
         <v>35</v>
       </c>
       <c r="R13" s="13" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="S13" s="13">
         <v>55</v>
       </c>
       <c r="Z13" s="12" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="AA13" s="12">
         <v>90</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="AC13" s="12">
         <v>35</v>
       </c>
       <c r="AD13" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE13" s="13">
         <v>3500</v>
       </c>
       <c r="AF13" s="13" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AG13" s="13">
         <v>1000</v>
       </c>
       <c r="AH13" s="13" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AI13" s="13">
         <v>450</v>
@@ -34824,49 +34925,49 @@
         <v>99</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="13">
         <v>40</v>
       </c>
       <c r="R14" s="13" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="S14" s="13">
         <v>75</v>
       </c>
       <c r="Z14" s="12" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="AA14" s="12">
         <v>110</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="AC14" s="12">
         <v>40</v>
       </c>
       <c r="AD14" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE14" s="13">
         <v>3000</v>
       </c>
       <c r="AF14" s="13" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AG14" s="13">
         <v>1250</v>
       </c>
       <c r="AH14" s="13" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AI14" s="13">
         <v>700</v>
@@ -34901,10 +35002,10 @@
         <v>100</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="AP15" s="13"/>
       <c r="AQ15" s="13"/>
@@ -34936,49 +35037,49 @@
         <v>100</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="Q16" s="13">
         <v>0</v>
       </c>
       <c r="R16" s="13" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="S16" s="13">
         <v>35</v>
       </c>
       <c r="T16" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="U16" s="13">
         <v>20</v>
       </c>
       <c r="Z16" s="12" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="AA16" s="12">
         <v>85</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="AC16" s="12">
         <v>35</v>
       </c>
       <c r="AD16" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE16" s="13">
         <v>750</v>
       </c>
       <c r="AH16" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AI16" s="13">
         <v>250</v>
@@ -35013,49 +35114,49 @@
         <v>100</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="P17" s="13" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="13">
         <v>0</v>
       </c>
       <c r="R17" s="13" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="S17" s="13">
         <v>45</v>
       </c>
       <c r="T17" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="U17" s="13">
         <v>25</v>
       </c>
       <c r="Z17" s="12" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="AA17" s="12">
         <v>105</v>
       </c>
       <c r="AB17" s="12" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="AC17" s="12">
         <v>40</v>
       </c>
       <c r="AD17" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE17" s="13">
         <v>500</v>
       </c>
       <c r="AH17" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AI17" s="13">
         <v>500</v>
@@ -35090,49 +35191,49 @@
         <v>100</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="Q18" s="13">
         <v>0</v>
       </c>
       <c r="R18" s="13" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="S18" s="13">
         <v>55</v>
       </c>
       <c r="T18" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="U18" s="13">
         <v>30</v>
       </c>
       <c r="Z18" s="12" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="AA18" s="12">
         <v>120</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="AC18" s="12">
         <v>45</v>
       </c>
       <c r="AD18" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE18" s="13">
         <v>250</v>
       </c>
       <c r="AH18" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AI18" s="13">
         <v>750</v>
@@ -35167,10 +35268,10 @@
         <v>101</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="AP19" s="13"/>
       <c r="AQ19" s="13"/>
@@ -35202,46 +35303,46 @@
         <v>101</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="Q20" s="13">
         <v>3</v>
       </c>
       <c r="R20" s="13" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="S20" s="13">
         <v>0</v>
       </c>
       <c r="T20" s="13" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="U20" s="13">
         <v>3</v>
       </c>
       <c r="AD20" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE20" s="13">
         <v>-750</v>
       </c>
       <c r="AF20" s="13" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AG20" s="13">
         <v>150</v>
       </c>
       <c r="AH20" s="13" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AI20" s="13">
         <v>50</v>
@@ -35276,46 +35377,46 @@
         <v>101</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="Q21" s="13">
         <v>10</v>
       </c>
       <c r="R21" s="13" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="S21" s="13">
         <v>0</v>
       </c>
       <c r="T21" s="13" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="U21" s="13">
         <v>5</v>
       </c>
       <c r="AD21" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE21" s="13">
         <v>-1250</v>
       </c>
       <c r="AF21" s="13" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AG21" s="13">
         <v>50</v>
       </c>
       <c r="AH21" s="13" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AI21" s="13">
         <v>150</v>
@@ -35350,10 +35451,10 @@
         <v>102</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="AP22" s="13"/>
       <c r="AQ22" s="13"/>
@@ -35385,58 +35486,58 @@
         <v>102</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C23" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="P23" s="13" t="s">
         <v>283</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="N23" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="P23" s="13" t="s">
-        <v>266</v>
       </c>
       <c r="Q23" s="13">
         <v>0</v>
       </c>
       <c r="R23" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="S23" s="13">
         <v>1</v>
       </c>
       <c r="T23" s="13" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="U23" s="13">
         <v>1</v>
       </c>
       <c r="V23" s="13" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="W23" s="13">
         <v>1</v>
       </c>
       <c r="AD23" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE23" s="13">
         <v>-500</v>
       </c>
       <c r="AF23" s="13" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AG23" s="13">
         <v>0</v>
       </c>
       <c r="AH23" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AI23" s="13">
         <v>50</v>
@@ -35471,58 +35572,58 @@
         <v>102</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="Q24" s="13">
         <v>0</v>
       </c>
       <c r="R24" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="S24" s="13">
         <v>2</v>
       </c>
       <c r="T24" s="13" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="U24" s="13">
         <v>1</v>
       </c>
       <c r="V24" s="13" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="W24" s="13">
         <v>2</v>
       </c>
       <c r="AD24" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE24" s="13">
         <v>-1000</v>
       </c>
       <c r="AF24" s="13" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AG24" s="13">
         <v>0</v>
       </c>
       <c r="AH24" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AI24" s="13">
         <v>100</v>
@@ -35557,58 +35658,58 @@
         <v>102</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="Q25" s="13">
         <v>0</v>
       </c>
       <c r="R25" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="S25" s="13">
         <v>3</v>
       </c>
       <c r="T25" s="13" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="U25" s="13">
         <v>1</v>
       </c>
       <c r="V25" s="13" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="W25" s="13">
         <v>3</v>
       </c>
       <c r="AD25" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE25" s="13">
         <v>-2000</v>
       </c>
       <c r="AF25" s="13" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AG25" s="13">
         <v>0</v>
       </c>
       <c r="AH25" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AI25" s="13">
         <v>150</v>
@@ -35643,10 +35744,10 @@
         <v>103</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="AP26" s="13"/>
       <c r="AQ26" s="13"/>
@@ -35678,64 +35779,64 @@
         <v>103</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="P27" s="13" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="Q27" s="13">
         <v>5</v>
       </c>
       <c r="R27" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="S27" s="13">
         <v>1</v>
       </c>
       <c r="T27" s="13" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="U27" s="13">
         <v>3</v>
       </c>
       <c r="V27" s="13" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="W27" s="13">
         <v>1</v>
       </c>
       <c r="X27" s="13" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="Y27" s="13">
         <v>1</v>
       </c>
       <c r="AD27" s="13" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AE27" s="13">
         <v>-1250</v>
       </c>
       <c r="AF27" s="13" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AG27" s="13">
         <v>250</v>
       </c>
       <c r="AH27" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AI27" s="13">
         <v>250</v>
@@ -35770,25 +35871,25 @@
         <v>106</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="P28" s="13" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="Q28" s="13">
         <v>20</v>
       </c>
       <c r="Z28" s="12" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="AA28" s="12">
         <v>80</v>
       </c>
       <c r="AD28" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE28" s="13">
         <v>4900</v>
@@ -35823,49 +35924,49 @@
         <v>106</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="Q29" s="13">
         <v>40</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="S29" s="13">
         <v>10</v>
       </c>
       <c r="T29" s="13" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="U29" s="13">
         <v>5</v>
       </c>
       <c r="Z29" s="12" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="AA29" s="12">
         <v>120</v>
       </c>
       <c r="AD29" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE29" s="13">
         <v>4000</v>
       </c>
       <c r="AF29" s="13" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AG29" s="13">
         <v>650</v>
       </c>
       <c r="AH29" s="13" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AI29" s="13">
         <v>300</v>
@@ -35900,61 +36001,61 @@
         <v>106</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="Q30" s="13">
         <v>50</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="S30" s="13">
         <v>10</v>
       </c>
       <c r="T30" s="13" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="U30" s="13">
         <v>10</v>
       </c>
       <c r="V30" s="13" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="W30" s="13">
         <v>10</v>
       </c>
       <c r="X30" s="13" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="Y30" s="13">
         <v>5</v>
       </c>
       <c r="Z30" s="12" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="AA30" s="12">
         <v>180</v>
       </c>
       <c r="AD30" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE30" s="13">
         <v>3900</v>
       </c>
       <c r="AF30" s="13" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AG30" s="13">
         <v>750</v>
       </c>
       <c r="AH30" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AI30" s="13">
         <v>250</v>
@@ -35989,10 +36090,10 @@
         <v>107</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="AP31" s="13"/>
       <c r="AQ31" s="13"/>
@@ -36024,40 +36125,40 @@
         <v>107</v>
       </c>
       <c r="B32" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="J32" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>163</v>
-      </c>
       <c r="P32" s="13" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="Q32" s="13">
         <v>2</v>
       </c>
       <c r="R32" s="13" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="S32" s="13">
         <v>2</v>
       </c>
       <c r="AD32" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE32" s="13">
         <v>-750</v>
       </c>
       <c r="AF32" s="13" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AG32" s="13">
         <v>250</v>
       </c>
       <c r="AH32" s="13" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AI32" s="13">
         <v>150</v>
@@ -36092,40 +36193,40 @@
         <v>107</v>
       </c>
       <c r="B33" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J33" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>164</v>
-      </c>
       <c r="P33" s="13" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="Q33" s="13">
         <v>5</v>
       </c>
       <c r="R33" s="13" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="S33" s="13">
         <v>5</v>
       </c>
       <c r="AD33" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE33" s="13">
         <v>-1250</v>
       </c>
       <c r="AF33" s="13" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AG33" s="13">
         <v>200</v>
       </c>
       <c r="AH33" s="13" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AI33" s="13">
         <v>200</v>
@@ -36160,46 +36261,46 @@
         <v>107</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="P34" s="13" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="Q34" s="13">
         <v>10</v>
       </c>
       <c r="R34" s="13" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="S34" s="13">
         <v>10</v>
       </c>
       <c r="T34" s="13" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="U34" s="13">
         <v>1</v>
       </c>
       <c r="AD34" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE34" s="13">
         <v>-2000</v>
       </c>
       <c r="AF34" s="13" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AG34" s="13">
         <v>150</v>
       </c>
       <c r="AH34" s="13" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AI34" s="13">
         <v>250</v>
@@ -36234,61 +36335,61 @@
         <v>107</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="P35" s="13" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="Q35" s="13">
         <v>10</v>
       </c>
       <c r="R35" s="13" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="S35" s="13">
         <v>10</v>
       </c>
       <c r="T35" s="13" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="U35" s="13">
         <v>2</v>
       </c>
       <c r="V35" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="W35" s="13">
         <v>2</v>
       </c>
       <c r="X35" s="13" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="Y35" s="13">
         <v>1</v>
       </c>
       <c r="AD35" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE35" s="13">
         <v>-3900</v>
       </c>
       <c r="AF35" s="13" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AG35" s="13">
         <v>500</v>
       </c>
       <c r="AH35" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AI35" s="13">
         <v>500</v>
@@ -36323,52 +36424,52 @@
         <v>94</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="Q36" s="13">
         <v>5</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="S36" s="13">
         <v>5</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="U36" s="13">
         <v>5</v>
       </c>
       <c r="Z36" s="12" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="AA36" s="12">
         <v>40</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AE36" s="13">
         <v>1100</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="AG36" s="13">
         <v>350</v>
       </c>
       <c r="AH36" s="13" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="AI36" s="13">
         <v>50</v>
@@ -36403,52 +36504,52 @@
         <v>94</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="P37" s="13" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="Q37" s="13">
         <v>10</v>
       </c>
       <c r="R37" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="S37" s="13">
         <v>10</v>
       </c>
       <c r="T37" s="13" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="U37" s="13">
         <v>5</v>
       </c>
       <c r="Z37" s="12" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="AA37" s="12">
         <v>50</v>
       </c>
       <c r="AD37" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AE37" s="13">
         <v>1000</v>
       </c>
       <c r="AF37" s="13" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="AG37" s="13">
         <v>450</v>
       </c>
       <c r="AH37" s="13" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="AI37" s="13">
         <v>50</v>
@@ -36459,64 +36560,64 @@
         <v>94</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="P38" s="13" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="Q38" s="13">
         <v>10</v>
       </c>
       <c r="R38" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="S38" s="13">
         <v>10</v>
       </c>
       <c r="T38" s="13" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="U38" s="13">
         <v>10</v>
       </c>
       <c r="V38" s="13" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="W38" s="13">
         <v>5</v>
       </c>
       <c r="X38" s="13" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="Y38" s="13">
         <v>5</v>
       </c>
       <c r="Z38" s="12" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="AA38" s="12">
         <v>70</v>
       </c>
       <c r="AD38" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AE38" s="13">
         <v>800</v>
       </c>
       <c r="AF38" s="13" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="AG38" s="13">
         <v>650</v>
       </c>
       <c r="AH38" s="13" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="AI38" s="13">
         <v>100</v>
@@ -36527,10 +36628,10 @@
         <v>95</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="E39" s="13"/>
       <c r="G39" s="13"/>
@@ -36540,34 +36641,34 @@
         <v>95</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="R40" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="S40" s="13">
         <v>1</v>
       </c>
       <c r="T40" s="13" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="U40" s="13">
         <v>1</v>
       </c>
       <c r="V40" s="13" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="W40" s="13">
         <v>1</v>
       </c>
       <c r="AD40" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AE40" s="13">
         <v>-200</v>
@@ -36578,40 +36679,40 @@
         <v>95</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="R41" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="S41" s="13">
         <v>2</v>
       </c>
       <c r="T41" s="13" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="U41" s="13">
         <v>2</v>
       </c>
       <c r="V41" s="13" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="W41" s="13">
         <v>2</v>
       </c>
       <c r="AD41" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AE41" s="13">
         <v>-300</v>
       </c>
       <c r="AF41" s="13" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="AG41" s="13">
         <v>-50</v>
@@ -36622,40 +36723,40 @@
         <v>95</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="R42" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="S42" s="13">
         <v>3</v>
       </c>
       <c r="T42" s="13" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="U42" s="13">
         <v>3</v>
       </c>
       <c r="V42" s="13" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="W42" s="13">
         <v>3</v>
       </c>
       <c r="AD42" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AE42" s="13">
         <v>-500</v>
       </c>
       <c r="AF42" s="13" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="AG42" s="13">
         <v>-100</v>
@@ -36666,55 +36767,55 @@
         <v>95</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="P43" s="13" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="Q43" s="13">
         <v>1</v>
       </c>
       <c r="R43" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="S43" s="13">
         <v>2</v>
       </c>
       <c r="T43" s="13" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="U43" s="13">
         <v>2</v>
       </c>
       <c r="V43" s="13" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="W43" s="13">
         <v>2</v>
       </c>
       <c r="X43" s="13" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="Y43" s="13">
         <v>5</v>
       </c>
       <c r="AD43" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AE43" s="13">
         <v>-800</v>
       </c>
       <c r="AF43" s="13" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="AG43" s="13">
         <v>-150</v>
@@ -36725,49 +36826,49 @@
         <v>110</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="P44" s="13" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="Q44" s="13">
         <v>5</v>
       </c>
       <c r="R44" s="13" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="S44" s="13">
         <v>15</v>
       </c>
       <c r="T44" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="U44" s="13">
         <v>5</v>
       </c>
       <c r="Z44" s="12" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="AA44" s="12">
         <v>50</v>
       </c>
       <c r="AD44" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AE44" s="13">
         <v>1100</v>
       </c>
       <c r="AF44" s="13" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="AG44" s="13">
         <v>350</v>
       </c>
       <c r="AH44" s="13" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="AI44" s="13">
         <v>50</v>
@@ -36778,49 +36879,49 @@
         <v>110</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="P45" s="13" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="Q45" s="13">
         <v>15</v>
       </c>
       <c r="R45" s="13" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="S45" s="13">
         <v>20</v>
       </c>
       <c r="T45" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="U45" s="13">
         <v>15</v>
       </c>
       <c r="Z45" s="12" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="AA45" s="12">
         <v>100</v>
       </c>
       <c r="AD45" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AE45" s="13">
         <v>1000</v>
       </c>
       <c r="AF45" s="13" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="AG45" s="13">
         <v>450</v>
       </c>
       <c r="AH45" s="13" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="AI45" s="13">
         <v>50</v>
@@ -36831,49 +36932,49 @@
         <v>110</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="P46" s="13" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="Q46" s="13">
         <v>20</v>
       </c>
       <c r="R46" s="13" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="S46" s="13">
         <v>25</v>
       </c>
       <c r="T46" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="U46" s="13">
         <v>20</v>
       </c>
       <c r="Z46" s="12" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="AA46" s="12">
         <v>140</v>
       </c>
       <c r="AD46" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AE46" s="13">
         <v>800</v>
       </c>
       <c r="AF46" s="13" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="AG46" s="13">
         <v>650</v>
       </c>
       <c r="AH46" s="13" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="AI46" s="13">
         <v>100</v>
@@ -36884,10 +36985,10 @@
         <v>111</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -36895,31 +36996,31 @@
         <v>111</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="P48" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="Q48" s="13">
         <v>1</v>
       </c>
       <c r="R48" s="13" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="S48" s="13">
         <v>1</v>
       </c>
       <c r="T48" s="13" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="U48" s="13">
         <v>1</v>
       </c>
       <c r="AD48" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AE48" s="13">
         <v>-200</v>
@@ -36930,37 +37031,37 @@
         <v>111</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="P49" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="Q49" s="13">
         <v>2</v>
       </c>
       <c r="R49" s="13" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="S49" s="13">
         <v>2</v>
       </c>
       <c r="T49" s="13" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="U49" s="13">
         <v>2</v>
       </c>
       <c r="AD49" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AE49" s="13">
         <v>-300</v>
       </c>
       <c r="AF49" s="13" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="AG49" s="13">
         <v>-50</v>
@@ -36971,37 +37072,37 @@
         <v>111</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="P50" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="Q50" s="13">
         <v>3</v>
       </c>
       <c r="R50" s="13" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="S50" s="13">
         <v>3</v>
       </c>
       <c r="T50" s="13" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="U50" s="13">
         <v>3</v>
       </c>
       <c r="AD50" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AE50" s="13">
         <v>-500</v>
       </c>
       <c r="AF50" s="13" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="AG50" s="13">
         <v>-100</v>
@@ -37012,49 +37113,49 @@
         <v>111</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="P51" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="Q51" s="13">
         <v>2</v>
       </c>
       <c r="R51" s="13" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="S51" s="13">
         <v>2</v>
       </c>
       <c r="T51" s="13" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="U51" s="13">
         <v>2</v>
       </c>
       <c r="V51" s="13" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="W51" s="13">
         <v>5</v>
       </c>
       <c r="X51" s="13" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="Y51" s="13">
         <v>5</v>
       </c>
       <c r="AD51" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AE51" s="13">
         <v>-800</v>
       </c>
       <c r="AF51" s="13" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="AG51" s="13">
         <v>-150</v>
@@ -37065,55 +37166,55 @@
         <v>114</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="P52" s="13" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="Q52" s="13">
         <v>30</v>
       </c>
       <c r="Z52" s="12" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="AA52" s="12">
         <v>10</v>
       </c>
       <c r="AD52" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE52" s="13">
         <v>500</v>
       </c>
       <c r="AF52" s="13" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="AG52" s="13">
         <v>3500</v>
       </c>
       <c r="AH52" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AI52" s="13">
         <v>900</v>
       </c>
       <c r="AP52" s="12" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="AQ52" s="12">
         <v>0.5</v>
       </c>
       <c r="AR52" s="12" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="AS52" s="12">
         <v>0.25</v>
       </c>
       <c r="AT52" s="12" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="AU52" s="12">
         <v>0.5</v>
@@ -37124,49 +37225,49 @@
         <v>114</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="P53" s="13" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="Q53" s="13">
         <v>10</v>
       </c>
       <c r="Z53" s="12" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="AA53" s="12">
         <v>40</v>
       </c>
       <c r="AD53" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE53" s="13">
         <v>1000</v>
       </c>
       <c r="AF53" s="13" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="AG53" s="13">
         <v>2500</v>
       </c>
       <c r="AH53" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AI53" s="13">
         <v>900</v>
       </c>
       <c r="AP53" s="12" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="AQ53" s="12">
         <v>1.5</v>
       </c>
       <c r="AR53" s="12" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="AS53" s="12">
         <v>0.25</v>
@@ -37177,37 +37278,37 @@
         <v>117</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="P54" s="13" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="Q54" s="13">
         <v>5</v>
       </c>
       <c r="R54" s="13" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="S54" s="13">
         <v>5</v>
       </c>
       <c r="Z54" s="12" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="AA54" s="12">
         <v>40</v>
       </c>
       <c r="AD54" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE54" s="13">
         <v>4500</v>
       </c>
       <c r="AF54" s="13" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="AG54" s="13">
         <v>400</v>
@@ -37218,37 +37319,37 @@
         <v>117</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="P55" s="13" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="Q55" s="13">
         <v>10</v>
       </c>
       <c r="R55" s="13" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="S55" s="13">
         <v>10</v>
       </c>
       <c r="Z55" s="12" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="AA55" s="12">
         <v>80</v>
       </c>
       <c r="AD55" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE55" s="13">
         <v>4500</v>
       </c>
       <c r="AF55" s="13" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="AG55" s="13">
         <v>400</v>
@@ -37259,43 +37360,43 @@
         <v>117</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="P56" s="13" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="Q56" s="13">
         <v>10</v>
       </c>
       <c r="R56" s="13" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="S56" s="13">
         <v>10</v>
       </c>
       <c r="T56" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="U56" s="13">
         <v>5</v>
       </c>
       <c r="Z56" s="12" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="AA56" s="12">
         <v>120</v>
       </c>
       <c r="AD56" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE56" s="13">
         <v>4500</v>
       </c>
       <c r="AF56" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AG56" s="13">
         <v>400</v>
@@ -37306,49 +37407,49 @@
         <v>117</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="P57" s="13" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="Q57" s="13">
         <v>10</v>
       </c>
       <c r="R57" s="13" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="S57" s="13">
         <v>10</v>
       </c>
       <c r="T57" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="U57" s="13">
         <v>10</v>
       </c>
       <c r="V57" s="13" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="W57" s="13">
         <v>5</v>
       </c>
       <c r="Z57" s="12" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="AA57" s="12">
         <v>160</v>
       </c>
       <c r="AD57" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE57" s="13">
         <v>4000</v>
       </c>
       <c r="AF57" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AG57" s="13">
         <v>900</v>
@@ -37359,10 +37460,10 @@
         <v>118</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="1:33">
@@ -37370,43 +37471,43 @@
         <v>118</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="K59" s="13" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="P59" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="Q59" s="13">
         <v>2</v>
       </c>
       <c r="R59" s="13" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="S59" s="13">
         <v>1</v>
       </c>
       <c r="T59" s="13" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="U59" s="13">
         <v>2</v>
       </c>
       <c r="AD59" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE59" s="13">
         <v>-1000</v>
       </c>
       <c r="AF59" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AG59" s="13">
         <v>100</v>
@@ -37417,43 +37518,43 @@
         <v>118</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="J60" s="13" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="K60" s="13" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="P60" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="Q60" s="13">
         <v>3</v>
       </c>
       <c r="R60" s="13" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="S60" s="13">
         <v>2</v>
       </c>
       <c r="T60" s="13" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="U60" s="13">
         <v>3</v>
       </c>
       <c r="AD60" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE60" s="13">
         <v>-2000</v>
       </c>
       <c r="AF60" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AG60" s="13">
         <v>200</v>
@@ -37464,43 +37565,43 @@
         <v>118</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="K61" s="13" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="P61" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="Q61" s="13">
         <v>4</v>
       </c>
       <c r="R61" s="13" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="S61" s="13">
         <v>3</v>
       </c>
       <c r="T61" s="13" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="U61" s="13">
         <v>4</v>
       </c>
       <c r="AD61" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE61" s="13">
         <v>-3000</v>
       </c>
       <c r="AF61" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AG61" s="13">
         <v>300</v>
@@ -37508,52 +37609,52 @@
     </row>
     <row r="62" spans="2:33">
       <c r="B62" s="13" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="K62" s="13" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="P62" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="Q62" s="13">
         <v>3</v>
       </c>
       <c r="R62" s="13" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="S62" s="13">
         <v>2</v>
       </c>
       <c r="T62" s="13" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="U62" s="13">
         <v>4</v>
       </c>
       <c r="V62" s="13" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="W62" s="13">
         <v>5</v>
       </c>
       <c r="X62" s="13" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="Y62" s="13">
         <v>5</v>
       </c>
       <c r="AD62" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE62" s="13">
         <v>-4000</v>
       </c>
       <c r="AF62" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AG62" s="13">
         <v>400</v>
@@ -37564,31 +37665,31 @@
         <v>121</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="P63" s="13" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="Q63" s="13">
         <v>10</v>
       </c>
       <c r="Z63" s="12" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="AA63" s="12">
         <v>40</v>
       </c>
       <c r="AD63" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE63" s="13">
         <v>4500</v>
       </c>
       <c r="AF63" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AG63" s="13">
         <v>400</v>
@@ -37599,31 +37700,31 @@
         <v>121</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="P64" s="13" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="Q64" s="13">
         <v>15</v>
       </c>
       <c r="Z64" s="12" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="AA64" s="12">
         <v>65</v>
       </c>
       <c r="AD64" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE64" s="13">
         <v>4300</v>
       </c>
       <c r="AF64" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AG64" s="13">
         <v>600</v>
@@ -37634,31 +37735,31 @@
         <v>121</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="P65" s="13" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="Q65" s="13">
         <v>20</v>
       </c>
       <c r="Z65" s="12" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="AA65" s="12">
         <v>90</v>
       </c>
       <c r="AD65" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE65" s="13">
         <v>4000</v>
       </c>
       <c r="AF65" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AG65" s="13">
         <v>900</v>
@@ -37669,10 +37770,10 @@
         <v>122</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67" spans="1:33">
@@ -37680,55 +37781,55 @@
         <v>122</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="P67" s="13" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="Q67" s="13">
         <v>5</v>
       </c>
       <c r="R67" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="S67" s="13">
         <v>5</v>
       </c>
       <c r="T67" s="13" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="U67" s="13">
         <v>5</v>
       </c>
       <c r="V67" s="13" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="W67" s="13">
         <v>5</v>
       </c>
       <c r="X67" s="13" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="Y67" s="13">
         <v>5</v>
       </c>
       <c r="Z67" s="12" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="AA67" s="12">
         <v>40</v>
       </c>
       <c r="AD67" s="13" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="AE67" s="13">
         <v>100</v>
       </c>
       <c r="AF67" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AG67" s="13">
         <v>100</v>
@@ -37739,10 +37840,10 @@
         <v>118</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
     </row>
     <row r="69" spans="1:33">
@@ -37750,37 +37851,37 @@
         <v>118</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="P69" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="Q69" s="13">
         <v>2</v>
       </c>
       <c r="R69" s="13" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="S69" s="13">
         <v>1</v>
       </c>
       <c r="T69" s="13" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="U69" s="13">
         <v>2</v>
       </c>
       <c r="AD69" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE69" s="13">
         <v>-1000</v>
       </c>
       <c r="AF69" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AG69" s="13">
         <v>100</v>
@@ -37791,37 +37892,37 @@
         <v>118</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="P70" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="Q70" s="13">
         <v>3</v>
       </c>
       <c r="R70" s="13" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="S70" s="13">
         <v>2</v>
       </c>
       <c r="T70" s="13" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="U70" s="13">
         <v>3</v>
       </c>
       <c r="AD70" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE70" s="13">
         <v>-2000</v>
       </c>
       <c r="AF70" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AG70" s="13">
         <v>200</v>
@@ -37832,37 +37933,37 @@
         <v>118</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="P71" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="Q71" s="13">
         <v>4</v>
       </c>
       <c r="R71" s="13" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="S71" s="13">
         <v>3</v>
       </c>
       <c r="T71" s="13" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="U71" s="13">
         <v>4</v>
       </c>
       <c r="AD71" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE71" s="13">
         <v>-3000</v>
       </c>
       <c r="AF71" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AG71" s="13">
         <v>300</v>
@@ -37873,52 +37974,191 @@
         <v>118</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="P72" s="13" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="Q72" s="13">
         <v>3</v>
       </c>
       <c r="R72" s="13" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="S72" s="13">
         <v>2</v>
       </c>
       <c r="T72" s="13" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="U72" s="13">
         <v>4</v>
       </c>
       <c r="V72" s="13" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="W72" s="13">
         <v>5</v>
       </c>
       <c r="X72" s="13" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="Y72" s="13">
         <v>5</v>
       </c>
       <c r="AD72" s="13" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AE72" s="13">
         <v>-4000</v>
       </c>
       <c r="AF72" s="13" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AG72" s="13">
         <v>400</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="M83" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="N83" s="12" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -37974,51 +38214,51 @@
   <sheetData>
     <row r="1" s="14" customFormat="1" ht="15" spans="1:10">
       <c r="A1" s="23" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="B1" s="76" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="F1" s="76" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="H1" s="76" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="J1" s="76" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" s="10" customFormat="1" ht="14.25" spans="1:10">
       <c r="A2" s="10" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="D2" s="11">
         <v>30</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="F2" s="11">
         <v>1</v>
@@ -38027,7 +38267,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="I2" s="10">
         <v>1</v>
@@ -38038,19 +38278,19 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="D3" s="2">
         <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
@@ -38059,7 +38299,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
@@ -38104,70 +38344,70 @@
       <c r="B1" s="52"/>
       <c r="C1" s="53"/>
       <c r="D1" s="54" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="E1" s="55" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="F1" s="55" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="G1" s="55" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="H1" s="55" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="I1" s="55" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="J1" s="55" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="K1" s="55" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="L1" s="55" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="M1" s="55" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="N1" s="55" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="O1" s="55" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="P1" s="55" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="Q1" s="55" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="R1" s="55" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="S1" s="55" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="T1" s="55" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="U1" s="55" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="V1" s="55" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="W1" s="55" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="X1" s="55" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="Y1" s="70" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="Z1" s="71"/>
     </row>
@@ -38176,46 +38416,46 @@
       <c r="B2" s="57"/>
       <c r="C2" s="58"/>
       <c r="D2" s="59" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="E2" s="60" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="F2" s="60" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="H2" s="60" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="J2" s="60" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="K2" s="60" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="L2" s="60" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="M2" s="60" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="N2" s="60" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="O2" s="60" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="P2" s="60" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="Q2" s="60" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="R2" s="60"/>
       <c r="S2" s="60"/>
@@ -38232,70 +38472,70 @@
       <c r="B3" s="57"/>
       <c r="C3" s="58"/>
       <c r="D3" s="61" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="G3" s="62" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="H3" s="62" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="I3" s="62" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="K3" s="62" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="L3" s="62" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="M3" s="62" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="N3" s="62" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="O3" s="62" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="P3" s="62" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="Q3" s="62" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="R3" s="62" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="S3" s="62" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="T3" s="62" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="U3" s="62" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="V3" s="62" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="W3" s="62" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="X3" s="62" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="Y3" s="74" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="Z3" s="71"/>
     </row>
@@ -38304,46 +38544,46 @@
       <c r="B4" s="57"/>
       <c r="C4" s="58"/>
       <c r="D4" s="59" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="G4" s="60" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="H4" s="60" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="I4" s="60" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="J4" s="60" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="K4" s="60" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="M4" s="60" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="N4" s="60" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="O4" s="60" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="P4" s="60" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="Q4" s="60" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="R4" s="60"/>
       <c r="S4" s="60"/>
@@ -38360,70 +38600,70 @@
       <c r="B5" s="57"/>
       <c r="C5" s="58"/>
       <c r="D5" s="61" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="F5" s="62" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="G5" s="62" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="H5" s="62" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="I5" s="62" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="K5" s="62" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="L5" s="62" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="M5" s="62" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="N5" s="62" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="O5" s="62" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="P5" s="62" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="Q5" s="62" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="R5" s="62" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="S5" s="62" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="T5" s="62" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="U5" s="62" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="V5" s="62" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="W5" s="62" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="X5" s="62" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="Y5" s="74" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="Z5" s="71"/>
     </row>
@@ -38485,79 +38725,79 @@
     </row>
     <row r="7" s="43" customFormat="1" ht="14.25" spans="1:26">
       <c r="A7" s="43" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="D7" s="67" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="E7" s="68" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="F7" s="68" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="G7" s="68" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="H7" s="68" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="I7" s="68" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="J7" s="68" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="K7" s="68" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="L7" s="68" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="M7" s="68" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="N7" s="68" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="O7" s="68" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="P7" s="68" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="Q7" s="68" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="R7" s="68" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="S7" s="68" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="T7" s="68" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="U7" s="68" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="V7" s="68" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="W7" s="68" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="X7" s="68" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="Y7" s="75" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="Z7" s="71"/>
     </row>
@@ -42466,111 +42706,111 @@
   <sheetData>
     <row r="1" s="14" customFormat="1" ht="15" spans="1:31">
       <c r="A1" s="23" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="O1" s="38" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="P1" s="28" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="Q1" s="34" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="R1" s="34" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="T1" s="36" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="U1" s="37" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="V1" s="37" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="W1" s="38" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="X1" s="28" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="Y1" s="34" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="Z1" s="34" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="AA1" s="35" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="AB1" s="36" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="AC1" s="37" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="AD1" s="37" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="AE1" s="38" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" s="10" customFormat="1" ht="14.25" spans="1:31">
       <c r="A2" s="10" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="E2" s="31">
         <v>1</v>
@@ -42582,7 +42822,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="I2" s="10">
         <v>2</v>
@@ -42612,16 +42852,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="E3" s="17">
         <v>1.5</v>

--- a/数值设定/工具表v0.32.xlsx
+++ b/数值设定/工具表v0.32.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21420" windowHeight="12390" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="21630" windowHeight="12390" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="使用说明" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="647">
   <si>
     <t>工具表版本</t>
   </si>
@@ -736,6 +736,27 @@
     <t>pmg_automation_building_liquor_factory</t>
   </si>
   <si>
+    <t>building_textile_mills</t>
+  </si>
+  <si>
+    <t>纺织厂</t>
+  </si>
+  <si>
+    <t>pmg_base_building_textile_mills</t>
+  </si>
+  <si>
+    <t>pmg_luxury_building_textile_mills</t>
+  </si>
+  <si>
+    <t>pmg_automation_building_textile_mills</t>
+  </si>
+  <si>
+    <t>pmg_magical_automation_building</t>
+  </si>
+  <si>
+    <t>pmg_magiscientia_automation</t>
+  </si>
+  <si>
     <t>生产方式组代码名</t>
   </si>
   <si>
@@ -1190,6 +1211,18 @@
   </si>
   <si>
     <t>pm_doll_based_automated_distillery</t>
+  </si>
+  <si>
+    <t>pm_handsewn_clothes</t>
+  </si>
+  <si>
+    <t>pm_dye_workshops</t>
+  </si>
+  <si>
+    <t>pm_sewing_machines</t>
+  </si>
+  <si>
+    <t>奢侈衣物</t>
   </si>
   <si>
     <t>生产方式代码名</t>
@@ -2202,8 +2235,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2237,6 +2270,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -2248,6 +2304,14 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2273,21 +2337,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2297,15 +2346,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2336,16 +2384,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2369,13 +2409,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2486,19 +2519,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2516,19 +2561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2540,7 +2573,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2552,19 +2591,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2576,31 +2633,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3077,6 +3110,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3126,30 +3183,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3181,10 +3214,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3193,133 +3226,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4671,40 +4704,40 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="C2" s="8">
         <v>20</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="10" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="G2" s="4">
         <v>3</v>
@@ -4712,19 +4745,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="12" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="C3" s="13">
         <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G3" s="4">
         <v>12</v>
@@ -4732,19 +4765,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="C4" s="13">
         <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="G4" s="4">
         <v>4</v>
@@ -4752,19 +4785,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="12" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="C5" s="13">
         <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="G5" s="4">
         <v>18</v>
@@ -4772,19 +4805,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="C6" s="2">
         <v>70</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G6" s="4">
         <v>4</v>
@@ -4792,19 +4825,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="12" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="C7" s="13">
         <v>70</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="G7" s="4">
         <v>4</v>
@@ -4812,19 +4845,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="12" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="C8" s="13">
         <v>80</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="G8" s="4">
         <v>3</v>
@@ -4832,19 +4865,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="12" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="C9" s="13">
         <v>140</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="G9" s="4">
         <v>1.5</v>
@@ -4852,19 +4885,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="12" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="C10" s="13">
         <v>120</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
@@ -4872,19 +4905,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="12" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C11" s="13">
         <v>80</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
@@ -4892,19 +4925,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="12" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C12" s="13">
         <v>100</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="G12" s="4">
         <v>1.5</v>
@@ -4912,19 +4945,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="12" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="C13" s="13">
         <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="G13" s="4">
         <v>4</v>
@@ -4932,19 +4965,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="12" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="C14" s="13">
         <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="G14" s="4">
         <v>20</v>
@@ -4952,19 +4985,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="C15" s="13">
         <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="G15" s="4">
         <v>6</v>
@@ -4972,19 +5005,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="12" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="C16" s="13">
         <v>30</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="G16" s="4">
         <v>5</v>
@@ -4992,19 +5025,19 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="12" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="C17" s="13">
         <v>30</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="G17" s="4">
         <v>0.2</v>
@@ -5012,19 +5045,19 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="12" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="C18" s="13">
         <v>30</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="G18" s="4">
         <v>2</v>
@@ -5032,19 +5065,19 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="12" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="C19" s="13">
         <v>30</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
@@ -5052,19 +5085,19 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="12" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="C20" s="13">
         <v>30</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="G20" s="4">
         <v>2</v>
@@ -5072,10 +5105,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="12" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="C21" s="13">
         <v>30</v>
@@ -5083,10 +5116,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="12" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="C22" s="13">
         <v>60</v>
@@ -5094,10 +5127,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="12" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="C23" s="13">
         <v>40</v>
@@ -5105,10 +5138,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="12" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="C24" s="13">
         <v>40</v>
@@ -5116,10 +5149,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="12" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="C25" s="13">
         <v>50</v>
@@ -5127,10 +5160,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="12" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="C26" s="13">
         <v>30</v>
@@ -5138,10 +5171,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="12" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="C27" s="13">
         <v>40</v>
@@ -5149,10 +5182,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="12" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="C28" s="13">
         <v>50</v>
@@ -5160,10 +5193,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="12" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="C29" s="13">
         <v>40</v>
@@ -5171,10 +5204,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="12" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="C30" s="13">
         <v>40</v>
@@ -5182,10 +5215,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="12" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C31" s="13">
         <v>40</v>
@@ -5193,10 +5226,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="12" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="C32" s="13">
         <v>60</v>
@@ -5204,10 +5237,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="C33" s="2">
         <v>40</v>
@@ -5215,10 +5248,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="12" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="C34" s="13">
         <v>60</v>
@@ -5226,10 +5259,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="12" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="C35" s="13">
         <v>30</v>
@@ -5237,10 +5270,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="12" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="C36" s="13">
         <v>40</v>
@@ -5248,10 +5281,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="12" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="C37" s="13">
         <v>50</v>
@@ -5259,10 +5292,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="12" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="C38" s="13">
         <v>40</v>
@@ -5270,10 +5303,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="12" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="C39" s="13">
         <v>150</v>
@@ -5281,10 +5314,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="12" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="C40" s="13">
         <v>100</v>
@@ -5292,10 +5325,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="12" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="C41" s="13">
         <v>120</v>
@@ -5303,10 +5336,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="12" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="C42" s="13">
         <v>150</v>
@@ -5314,10 +5347,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="12" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="C43" s="13">
         <v>90</v>
@@ -5325,10 +5358,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="12" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="C44" s="13">
         <v>70</v>
@@ -5336,10 +5369,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="12" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="C45" s="13">
         <v>30</v>
@@ -5347,10 +5380,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="12" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="C46" s="13">
         <v>30</v>
@@ -5358,10 +5391,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="12" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="C47" s="13">
         <v>40</v>
@@ -5369,10 +5402,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="12" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="C48" s="13">
         <v>60</v>
@@ -5380,10 +5413,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="12" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="C49" s="13">
         <v>50</v>
@@ -5391,10 +5424,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="12" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="C50" s="13">
         <v>30</v>
@@ -5402,10 +5435,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="12" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="C51" s="13">
         <v>40</v>
@@ -5413,10 +5446,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="12" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="C52" s="13">
         <v>50</v>
@@ -5424,10 +5457,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="12" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="C53" s="13">
         <v>60</v>
@@ -5435,10 +5468,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="12" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="C54" s="13">
         <v>60</v>
@@ -5446,10 +5479,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="12" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="C55" s="13">
         <v>100</v>
@@ -5457,10 +5490,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="12" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="C56" s="13">
         <v>200</v>
@@ -31210,8 +31243,8 @@
   <sheetPr/>
   <dimension ref="A1:BA45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -32162,7 +32195,34 @@
       <c r="AZ13" s="82"/>
       <c r="BA13" s="82"/>
     </row>
-    <row r="14" spans="10:53">
+    <row r="14" spans="1:53">
+      <c r="A14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="J14" s="82"/>
       <c r="K14" s="82"/>
       <c r="L14" s="82"/>
@@ -33618,10 +33678,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U36"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:D35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -33644,40 +33704,40 @@
   <sheetData>
     <row r="1" s="14" customFormat="1" ht="15" spans="1:20">
       <c r="A1" s="23" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="M1" s="23"/>
       <c r="N1" s="76"/>
@@ -33690,16 +33750,16 @@
         <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -33723,22 +33783,22 @@
         <v>99</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K3" s="10"/>
       <c r="M3" s="10"/>
@@ -33748,31 +33808,31 @@
         <v>96</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K4" s="12"/>
       <c r="M4" s="12"/>
@@ -33782,19 +33842,19 @@
         <v>100</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="K5" s="10"/>
       <c r="M5" s="10"/>
@@ -33804,16 +33864,16 @@
         <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -33821,19 +33881,19 @@
         <v>102</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -33841,13 +33901,13 @@
         <v>103</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -33855,16 +33915,16 @@
         <v>106</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -33872,22 +33932,22 @@
         <v>107</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -33895,16 +33955,16 @@
         <v>94</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -33912,22 +33972,22 @@
         <v>95</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -33935,16 +33995,16 @@
         <v>110</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -33952,22 +34012,22 @@
         <v>111</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -33975,13 +34035,13 @@
         <v>114</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -33989,19 +34049,19 @@
         <v>117</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -34009,22 +34069,22 @@
         <v>118</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -34032,16 +34092,16 @@
         <v>121</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -34049,13 +34109,13 @@
         <v>122</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -34063,22 +34123,22 @@
         <v>118</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -34086,16 +34146,16 @@
         <v>125</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -34103,16 +34163,16 @@
         <v>126</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -34120,22 +34180,22 @@
         <v>127</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -34143,16 +34203,16 @@
         <v>130</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -34160,16 +34220,16 @@
         <v>131</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -34177,22 +34237,22 @@
         <v>132</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -34200,19 +34260,19 @@
         <v>135</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -34220,42 +34280,42 @@
         <v>136</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -34263,31 +34323,31 @@
         <v>143</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -34295,16 +34355,16 @@
         <v>140</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -34312,16 +34372,16 @@
         <v>141</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -34329,19 +34389,19 @@
         <v>142</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -34349,16 +34409,16 @@
         <v>146</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -34366,13 +34426,13 @@
         <v>147</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -34380,19 +34440,68 @@
         <v>148</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -34413,8 +34522,8 @@
   <sheetPr/>
   <dimension ref="A1:CF133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="M94" workbookViewId="0">
-      <selection activeCell="U133" sqref="U133"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="M114" sqref="M114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -34476,19 +34585,19 @@
         <v>61</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="D1" s="80" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="E1" s="77" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="G1" s="34" t="s">
         <v>80</v>
@@ -34500,190 +34609,190 @@
         <v>80</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="N1" s="34" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="R1" s="37" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="S1" s="37" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="T1" s="37" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="U1" s="37" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="V1" s="37" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="W1" s="37" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="X1" s="37" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="Y1" s="37" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="Z1" s="34" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="AA1" s="34" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="AB1" s="34" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="AC1" s="34" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="AD1" s="37" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="AE1" s="37" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="AF1" s="37" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="AG1" s="37" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="AH1" s="37" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="AI1" s="37" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="AJ1" s="34" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="AK1" s="34" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="AL1" s="34" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="AM1" s="34" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="AN1" s="34" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="AO1" s="34" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="AP1" s="37" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="AQ1" s="37" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="AR1" s="37" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="AS1" s="37" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="AT1" s="37" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="AU1" s="37" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="AV1" s="34" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="AW1" s="34" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="AX1" s="34" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="AY1" s="34" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="AZ1" s="34" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="BA1" s="34" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="BB1" s="37" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="BC1" s="37" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="BD1" s="37" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="BE1" s="37" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="BF1" s="37" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="BG1" s="37" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="BH1" s="34" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="BI1" s="34" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="BJ1" s="34" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="BK1" s="34" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="BL1" s="34" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="BM1" s="34" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="BN1" s="34" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="BO1" s="34" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="BP1" s="34" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="BQ1" s="34" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="BR1" s="34" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="BS1" s="34" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:84">
@@ -34691,28 +34800,28 @@
         <v>96</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="Q2" s="13">
         <v>5</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="S2" s="13">
         <v>9</v>
@@ -34721,25 +34830,25 @@
         <v>1</v>
       </c>
       <c r="AD2" s="13" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="AE2" s="13">
         <v>90</v>
       </c>
       <c r="AF2" s="13" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="AG2" s="13">
         <v>10</v>
       </c>
       <c r="AP2" s="13" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="AQ2" s="13">
         <v>3</v>
       </c>
       <c r="AR2" s="13" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="AS2" s="13">
         <v>2</v>
@@ -34765,19 +34874,19 @@
       <c r="BL2" s="12"/>
       <c r="BM2" s="12"/>
       <c r="BN2" s="7" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="BO2" s="7">
         <v>13</v>
       </c>
       <c r="BP2" s="7" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="BQ2" s="7">
         <v>14</v>
       </c>
       <c r="BR2" s="7" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="BS2" s="7">
         <v>15</v>
@@ -34801,31 +34910,31 @@
         <v>96</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="M3" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>322</v>
-      </c>
       <c r="P3" s="13" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="Q3" s="13">
         <v>5</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="S3" s="13">
         <v>9</v>
       </c>
       <c r="AD3" s="13" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="AE3" s="13">
         <v>100</v>
@@ -34855,13 +34964,13 @@
       <c r="BL3" s="12"/>
       <c r="BM3" s="12"/>
       <c r="BN3" s="12" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="BO3" s="12">
         <v>13</v>
       </c>
       <c r="BP3" s="12" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="BQ3" s="12">
         <v>14</v>
@@ -34872,55 +34981,55 @@
         <v>96</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="Q4" s="13">
         <v>8</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="S4" s="13">
         <v>9</v>
       </c>
       <c r="AD4" s="13" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="AE4" s="13">
         <v>90</v>
       </c>
       <c r="AF4" s="13" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="AG4" s="13">
         <v>8</v>
       </c>
       <c r="AH4" s="13" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="AI4" s="13">
         <v>2</v>
       </c>
       <c r="AP4" s="13" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="AQ4" s="13">
         <v>4</v>
       </c>
       <c r="AR4" s="13" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="AS4" s="13">
         <v>1</v>
@@ -34951,46 +35060,46 @@
         <v>96</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="Q5" s="13">
         <v>8</v>
       </c>
       <c r="R5" s="13" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="S5" s="13">
         <v>9</v>
       </c>
       <c r="AD5" s="13" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="AE5" s="13">
         <v>90</v>
       </c>
       <c r="AF5" s="13" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="AG5" s="13">
         <v>10</v>
       </c>
       <c r="AP5" s="13" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="AQ5" s="13">
         <v>5</v>
@@ -35023,31 +35132,31 @@
         <v>96</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="Q6" s="13">
         <v>5</v>
       </c>
       <c r="R6" s="13" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="S6" s="13">
         <v>9</v>
       </c>
       <c r="AD6" s="13" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="AE6" s="13">
         <v>100</v>
@@ -35082,49 +35191,49 @@
         <v>96</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="Q7" s="13">
         <v>5</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="S7" s="13">
         <v>9</v>
       </c>
       <c r="AD7" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE7" s="13">
         <v>60</v>
       </c>
       <c r="AF7" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AG7" s="13">
         <v>40</v>
       </c>
       <c r="AP7" s="13" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="AQ7" s="13">
         <v>3</v>
       </c>
       <c r="AR7" s="13" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="AS7" s="13">
         <v>2</v>
@@ -35155,49 +35264,49 @@
         <v>96</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="P8" s="13" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="Q8" s="13">
         <v>5</v>
       </c>
       <c r="R8" s="13" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="S8" s="13">
         <v>9</v>
       </c>
       <c r="AD8" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AE8" s="13">
         <v>60</v>
       </c>
       <c r="AF8" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AG8" s="13">
         <v>40</v>
       </c>
       <c r="AP8" s="13" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="AQ8" s="13">
         <v>2</v>
       </c>
       <c r="AR8" s="13" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="AS8" s="13">
         <v>2</v>
@@ -35228,22 +35337,22 @@
         <v>96</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="Q9" s="13">
         <v>5</v>
       </c>
       <c r="R9" s="13" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="S9" s="13">
         <v>9</v>
@@ -35278,19 +35387,19 @@
         <v>99</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="Q10" s="13">
         <v>5</v>
       </c>
       <c r="R10" s="13" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="S10" s="13">
         <v>9</v>
@@ -35325,10 +35434,10 @@
         <v>99</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="7"/>
@@ -35343,13 +35452,13 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="8" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="Q11" s="8">
         <v>3</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="S11" s="8">
         <v>3</v>
@@ -35363,13 +35472,13 @@
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="AC11" s="7">
         <v>50</v>
       </c>
       <c r="AD11" s="8" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE11" s="8">
         <v>4900</v>
@@ -35414,49 +35523,49 @@
         <v>99</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="Q12" s="13">
         <v>25</v>
       </c>
       <c r="R12" s="13" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="S12" s="13">
         <v>35</v>
       </c>
       <c r="Z12" s="12" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="AA12" s="12">
         <v>70</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="AC12" s="12">
         <v>40</v>
       </c>
       <c r="AD12" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE12" s="13">
         <v>4000</v>
       </c>
       <c r="AF12" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AG12" s="13">
         <v>650</v>
       </c>
       <c r="AH12" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AI12" s="13">
         <v>300</v>
@@ -35491,49 +35600,49 @@
         <v>99</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="Q13" s="13">
         <v>35</v>
       </c>
       <c r="R13" s="13" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="S13" s="13">
         <v>55</v>
       </c>
       <c r="Z13" s="12" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="AA13" s="12">
         <v>90</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="AC13" s="12">
         <v>45</v>
       </c>
       <c r="AD13" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE13" s="13">
         <v>3500</v>
       </c>
       <c r="AF13" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AG13" s="13">
         <v>1000</v>
       </c>
       <c r="AH13" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AI13" s="13">
         <v>450</v>
@@ -35568,49 +35677,49 @@
         <v>99</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="Q14" s="13">
         <v>40</v>
       </c>
       <c r="R14" s="13" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="S14" s="13">
         <v>75</v>
       </c>
       <c r="Z14" s="12" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="AA14" s="12">
         <v>110</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="AC14" s="12">
         <v>50</v>
       </c>
       <c r="AD14" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE14" s="13">
         <v>3000</v>
       </c>
       <c r="AF14" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AG14" s="13">
         <v>1250</v>
       </c>
       <c r="AH14" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AI14" s="13">
         <v>700</v>
@@ -35645,10 +35754,10 @@
         <v>100</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="AP15" s="13"/>
       <c r="AQ15" s="13"/>
@@ -35680,49 +35789,49 @@
         <v>100</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="Q16" s="13">
         <v>0</v>
       </c>
       <c r="R16" s="13" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="S16" s="13">
         <v>35</v>
       </c>
       <c r="T16" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="U16" s="13">
         <v>20</v>
       </c>
       <c r="Z16" s="12" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="AA16" s="12">
         <v>85</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="AC16" s="12">
         <v>45</v>
       </c>
       <c r="AD16" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE16" s="13">
         <v>750</v>
       </c>
       <c r="AH16" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AI16" s="13">
         <v>250</v>
@@ -35757,49 +35866,49 @@
         <v>100</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="P17" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="Q17" s="13">
         <v>0</v>
       </c>
       <c r="R17" s="13" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="S17" s="13">
         <v>45</v>
       </c>
       <c r="T17" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="U17" s="13">
         <v>25</v>
       </c>
       <c r="Z17" s="12" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="AA17" s="12">
         <v>105</v>
       </c>
       <c r="AB17" s="12" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="AC17" s="12">
         <v>50</v>
       </c>
       <c r="AD17" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE17" s="13">
         <v>500</v>
       </c>
       <c r="AH17" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AI17" s="13">
         <v>500</v>
@@ -35834,49 +35943,49 @@
         <v>100</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C18" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="P18" s="13" t="s">
         <v>369</v>
-      </c>
-      <c r="P18" s="13" t="s">
-        <v>358</v>
       </c>
       <c r="Q18" s="13">
         <v>0</v>
       </c>
       <c r="R18" s="13" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="S18" s="13">
         <v>55</v>
       </c>
       <c r="T18" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="U18" s="13">
         <v>30</v>
       </c>
       <c r="Z18" s="12" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="AA18" s="12">
         <v>120</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="AC18" s="12">
         <v>55</v>
       </c>
       <c r="AD18" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE18" s="13">
         <v>250</v>
       </c>
       <c r="AH18" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AI18" s="13">
         <v>750</v>
@@ -35911,10 +36020,10 @@
         <v>101</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="AP19" s="13"/>
       <c r="AQ19" s="13"/>
@@ -35946,46 +36055,46 @@
         <v>101</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="Q20" s="13">
         <v>3</v>
       </c>
       <c r="R20" s="13" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="S20" s="13">
         <v>0</v>
       </c>
       <c r="T20" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="U20" s="13">
         <v>3</v>
       </c>
       <c r="AD20" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE20" s="13">
         <v>-750</v>
       </c>
       <c r="AF20" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AG20" s="13">
         <v>150</v>
       </c>
       <c r="AH20" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AI20" s="13">
         <v>50</v>
@@ -36020,46 +36129,46 @@
         <v>101</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="Q21" s="13">
         <v>10</v>
       </c>
       <c r="R21" s="13" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="S21" s="13">
         <v>0</v>
       </c>
       <c r="T21" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="U21" s="13">
         <v>5</v>
       </c>
       <c r="AD21" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE21" s="13">
         <v>-1250</v>
       </c>
       <c r="AF21" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AG21" s="13">
         <v>50</v>
       </c>
       <c r="AH21" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AI21" s="13">
         <v>150</v>
@@ -36094,10 +36203,10 @@
         <v>102</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="AP22" s="13"/>
       <c r="AQ22" s="13"/>
@@ -36129,58 +36238,58 @@
         <v>102</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="Q23" s="13">
         <v>0</v>
       </c>
       <c r="R23" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="S23" s="13">
         <v>1</v>
       </c>
       <c r="T23" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="U23" s="13">
         <v>1</v>
       </c>
       <c r="V23" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="W23" s="13">
         <v>1</v>
       </c>
       <c r="AD23" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE23" s="13">
         <v>-500</v>
       </c>
       <c r="AF23" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AG23" s="13">
         <v>0</v>
       </c>
       <c r="AH23" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AI23" s="13">
         <v>50</v>
@@ -36215,58 +36324,58 @@
         <v>102</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="Q24" s="13">
         <v>0</v>
       </c>
       <c r="R24" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="S24" s="13">
         <v>2</v>
       </c>
       <c r="T24" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="U24" s="13">
         <v>1</v>
       </c>
       <c r="V24" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="W24" s="13">
         <v>2</v>
       </c>
       <c r="AD24" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE24" s="13">
         <v>-1000</v>
       </c>
       <c r="AF24" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AG24" s="13">
         <v>0</v>
       </c>
       <c r="AH24" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AI24" s="13">
         <v>100</v>
@@ -36301,58 +36410,58 @@
         <v>102</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="Q25" s="13">
         <v>0</v>
       </c>
       <c r="R25" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="S25" s="13">
         <v>3</v>
       </c>
       <c r="T25" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="U25" s="13">
         <v>1</v>
       </c>
       <c r="V25" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="W25" s="13">
         <v>3</v>
       </c>
       <c r="AD25" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE25" s="13">
         <v>-2000</v>
       </c>
       <c r="AF25" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AG25" s="13">
         <v>0</v>
       </c>
       <c r="AH25" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AI25" s="13">
         <v>150</v>
@@ -36387,10 +36496,10 @@
         <v>103</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="AP26" s="13"/>
       <c r="AQ26" s="13"/>
@@ -36422,64 +36531,64 @@
         <v>103</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="P27" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="Q27" s="13">
         <v>5</v>
       </c>
       <c r="R27" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="S27" s="13">
         <v>1</v>
       </c>
       <c r="T27" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="U27" s="13">
         <v>3</v>
       </c>
       <c r="V27" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="W27" s="13">
         <v>1</v>
       </c>
       <c r="X27" s="13" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="Y27" s="13">
         <v>1</v>
       </c>
       <c r="AD27" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AE27" s="13">
         <v>-1250</v>
       </c>
       <c r="AF27" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AG27" s="13">
         <v>250</v>
       </c>
       <c r="AH27" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AI27" s="13">
         <v>250</v>
@@ -36514,25 +36623,25 @@
         <v>106</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="P28" s="13" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="Q28" s="13">
         <v>20</v>
       </c>
       <c r="Z28" s="12" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="AA28" s="12">
         <v>80</v>
       </c>
       <c r="AD28" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE28" s="13">
         <v>4900</v>
@@ -36567,49 +36676,49 @@
         <v>106</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C29" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="P29" s="13" t="s">
         <v>373</v>
-      </c>
-      <c r="P29" s="13" t="s">
-        <v>362</v>
       </c>
       <c r="Q29" s="13">
         <v>40</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="S29" s="13">
         <v>10</v>
       </c>
       <c r="T29" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="U29" s="13">
         <v>5</v>
       </c>
       <c r="Z29" s="12" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="AA29" s="12">
         <v>120</v>
       </c>
       <c r="AD29" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE29" s="13">
         <v>4000</v>
       </c>
       <c r="AF29" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AG29" s="13">
         <v>650</v>
       </c>
       <c r="AH29" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AI29" s="13">
         <v>300</v>
@@ -36644,61 +36753,61 @@
         <v>106</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="Q30" s="13">
         <v>50</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="S30" s="13">
         <v>10</v>
       </c>
       <c r="T30" s="13" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="U30" s="13">
         <v>10</v>
       </c>
       <c r="V30" s="13" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="W30" s="13">
         <v>10</v>
       </c>
       <c r="X30" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="Y30" s="13">
         <v>5</v>
       </c>
       <c r="Z30" s="12" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="AA30" s="12">
         <v>180</v>
       </c>
       <c r="AD30" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE30" s="13">
         <v>3900</v>
       </c>
       <c r="AF30" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AG30" s="13">
         <v>750</v>
       </c>
       <c r="AH30" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AI30" s="13">
         <v>250</v>
@@ -36733,10 +36842,10 @@
         <v>107</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="AP31" s="13"/>
       <c r="AQ31" s="13"/>
@@ -36768,40 +36877,40 @@
         <v>107</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="Q32" s="13">
         <v>2</v>
       </c>
       <c r="R32" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="S32" s="13">
         <v>2</v>
       </c>
       <c r="AD32" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE32" s="13">
         <v>-750</v>
       </c>
       <c r="AF32" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AG32" s="13">
         <v>250</v>
       </c>
       <c r="AH32" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AI32" s="13">
         <v>150</v>
@@ -36836,40 +36945,40 @@
         <v>107</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="P33" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="Q33" s="13">
         <v>5</v>
       </c>
       <c r="R33" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="S33" s="13">
         <v>5</v>
       </c>
       <c r="AD33" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE33" s="13">
         <v>-1250</v>
       </c>
       <c r="AF33" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AG33" s="13">
         <v>200</v>
       </c>
       <c r="AH33" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AI33" s="13">
         <v>200</v>
@@ -36904,46 +37013,46 @@
         <v>107</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="P34" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="Q34" s="13">
         <v>10</v>
       </c>
       <c r="R34" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="S34" s="13">
         <v>10</v>
       </c>
       <c r="T34" s="13" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="U34" s="13">
         <v>1</v>
       </c>
       <c r="AD34" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE34" s="13">
         <v>-2000</v>
       </c>
       <c r="AF34" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AG34" s="13">
         <v>150</v>
       </c>
       <c r="AH34" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AI34" s="13">
         <v>250</v>
@@ -36978,61 +37087,61 @@
         <v>107</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="P35" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="Q35" s="13">
         <v>10</v>
       </c>
       <c r="R35" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="S35" s="13">
         <v>10</v>
       </c>
       <c r="T35" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="U35" s="13">
         <v>2</v>
       </c>
       <c r="V35" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="W35" s="13">
         <v>2</v>
       </c>
       <c r="X35" s="13" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="Y35" s="13">
         <v>1</v>
       </c>
       <c r="AD35" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE35" s="13">
         <v>-3900</v>
       </c>
       <c r="AF35" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AG35" s="13">
         <v>500</v>
       </c>
       <c r="AH35" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AI35" s="13">
         <v>500</v>
@@ -37067,52 +37176,52 @@
         <v>94</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="Q36" s="13">
         <v>5</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="S36" s="13">
         <v>5</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="U36" s="13">
         <v>5</v>
       </c>
       <c r="Z36" s="12" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="AA36" s="12">
         <v>40</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AE36" s="13">
         <v>1100</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="AG36" s="13">
         <v>350</v>
       </c>
       <c r="AH36" s="13" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="AI36" s="13">
         <v>50</v>
@@ -37147,52 +37256,52 @@
         <v>94</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="P37" s="13" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="Q37" s="13">
         <v>10</v>
       </c>
       <c r="R37" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="S37" s="13">
         <v>10</v>
       </c>
       <c r="T37" s="13" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="U37" s="13">
         <v>5</v>
       </c>
       <c r="Z37" s="12" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="AA37" s="12">
         <v>50</v>
       </c>
       <c r="AD37" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AE37" s="13">
         <v>1000</v>
       </c>
       <c r="AF37" s="13" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="AG37" s="13">
         <v>450</v>
       </c>
       <c r="AH37" s="13" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="AI37" s="13">
         <v>50</v>
@@ -37203,64 +37312,64 @@
         <v>94</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="P38" s="13" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="Q38" s="13">
         <v>10</v>
       </c>
       <c r="R38" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="S38" s="13">
         <v>10</v>
       </c>
       <c r="T38" s="13" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="U38" s="13">
         <v>10</v>
       </c>
       <c r="V38" s="13" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="W38" s="13">
         <v>5</v>
       </c>
       <c r="X38" s="13" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="Y38" s="13">
         <v>5</v>
       </c>
       <c r="Z38" s="12" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="AA38" s="12">
         <v>70</v>
       </c>
       <c r="AD38" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AE38" s="13">
         <v>800</v>
       </c>
       <c r="AF38" s="13" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="AG38" s="13">
         <v>650</v>
       </c>
       <c r="AH38" s="13" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="AI38" s="13">
         <v>100</v>
@@ -37271,10 +37380,10 @@
         <v>95</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="E39" s="13"/>
       <c r="G39" s="13"/>
@@ -37284,34 +37393,34 @@
         <v>95</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="R40" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="S40" s="13">
         <v>1</v>
       </c>
       <c r="T40" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="U40" s="13">
         <v>1</v>
       </c>
       <c r="V40" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="W40" s="13">
         <v>1</v>
       </c>
       <c r="AD40" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AE40" s="13">
         <v>-200</v>
@@ -37322,40 +37431,40 @@
         <v>95</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="R41" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="S41" s="13">
         <v>2</v>
       </c>
       <c r="T41" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="U41" s="13">
         <v>2</v>
       </c>
       <c r="V41" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="W41" s="13">
         <v>2</v>
       </c>
       <c r="AD41" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AE41" s="13">
         <v>-300</v>
       </c>
       <c r="AF41" s="13" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="AG41" s="13">
         <v>-50</v>
@@ -37366,40 +37475,40 @@
         <v>95</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="R42" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="S42" s="13">
         <v>3</v>
       </c>
       <c r="T42" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="U42" s="13">
         <v>3</v>
       </c>
       <c r="V42" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="W42" s="13">
         <v>3</v>
       </c>
       <c r="AD42" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AE42" s="13">
         <v>-500</v>
       </c>
       <c r="AF42" s="13" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="AG42" s="13">
         <v>-100</v>
@@ -37410,55 +37519,55 @@
         <v>95</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="P43" s="13" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="Q43" s="13">
         <v>1</v>
       </c>
       <c r="R43" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="S43" s="13">
         <v>2</v>
       </c>
       <c r="T43" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="U43" s="13">
         <v>2</v>
       </c>
       <c r="V43" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="W43" s="13">
         <v>2</v>
       </c>
       <c r="X43" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="Y43" s="13">
         <v>5</v>
       </c>
       <c r="AD43" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AE43" s="13">
         <v>-800</v>
       </c>
       <c r="AF43" s="13" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="AG43" s="13">
         <v>-150</v>
@@ -37469,49 +37578,49 @@
         <v>110</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="P44" s="13" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="Q44" s="13">
         <v>5</v>
       </c>
       <c r="R44" s="13" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="S44" s="13">
         <v>15</v>
       </c>
       <c r="T44" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="U44" s="13">
         <v>5</v>
       </c>
       <c r="Z44" s="12" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="AA44" s="12">
         <v>50</v>
       </c>
       <c r="AD44" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AE44" s="13">
         <v>1100</v>
       </c>
       <c r="AF44" s="13" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="AG44" s="13">
         <v>350</v>
       </c>
       <c r="AH44" s="13" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="AI44" s="13">
         <v>50</v>
@@ -37522,49 +37631,49 @@
         <v>110</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C45" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="P45" s="13" t="s">
         <v>400</v>
-      </c>
-      <c r="P45" s="13" t="s">
-        <v>389</v>
       </c>
       <c r="Q45" s="13">
         <v>15</v>
       </c>
       <c r="R45" s="13" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="S45" s="13">
         <v>20</v>
       </c>
       <c r="T45" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="U45" s="13">
         <v>15</v>
       </c>
       <c r="Z45" s="12" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="AA45" s="12">
         <v>100</v>
       </c>
       <c r="AD45" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AE45" s="13">
         <v>1000</v>
       </c>
       <c r="AF45" s="13" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="AG45" s="13">
         <v>450</v>
       </c>
       <c r="AH45" s="13" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="AI45" s="13">
         <v>50</v>
@@ -37575,49 +37684,49 @@
         <v>110</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="P46" s="13" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="Q46" s="13">
         <v>20</v>
       </c>
       <c r="R46" s="13" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="S46" s="13">
         <v>25</v>
       </c>
       <c r="T46" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="U46" s="13">
         <v>20</v>
       </c>
       <c r="Z46" s="12" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="AA46" s="12">
         <v>140</v>
       </c>
       <c r="AD46" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AE46" s="13">
         <v>800</v>
       </c>
       <c r="AF46" s="13" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="AG46" s="13">
         <v>650</v>
       </c>
       <c r="AH46" s="13" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="AI46" s="13">
         <v>100</v>
@@ -37628,10 +37737,10 @@
         <v>111</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -37639,31 +37748,31 @@
         <v>111</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="P48" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="Q48" s="13">
         <v>1</v>
       </c>
       <c r="R48" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="S48" s="13">
         <v>1</v>
       </c>
       <c r="T48" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="U48" s="13">
         <v>1</v>
       </c>
       <c r="AD48" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AE48" s="13">
         <v>-200</v>
@@ -37674,37 +37783,37 @@
         <v>111</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="P49" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="Q49" s="13">
         <v>2</v>
       </c>
       <c r="R49" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="S49" s="13">
         <v>2</v>
       </c>
       <c r="T49" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="U49" s="13">
         <v>2</v>
       </c>
       <c r="AD49" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AE49" s="13">
         <v>-300</v>
       </c>
       <c r="AF49" s="13" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="AG49" s="13">
         <v>-50</v>
@@ -37715,37 +37824,37 @@
         <v>111</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="P50" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="Q50" s="13">
         <v>3</v>
       </c>
       <c r="R50" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="S50" s="13">
         <v>3</v>
       </c>
       <c r="T50" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="U50" s="13">
         <v>3</v>
       </c>
       <c r="AD50" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AE50" s="13">
         <v>-500</v>
       </c>
       <c r="AF50" s="13" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="AG50" s="13">
         <v>-100</v>
@@ -37756,49 +37865,49 @@
         <v>111</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="P51" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="Q51" s="13">
         <v>2</v>
       </c>
       <c r="R51" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="S51" s="13">
         <v>2</v>
       </c>
       <c r="T51" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="U51" s="13">
         <v>2</v>
       </c>
       <c r="V51" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="W51" s="13">
         <v>5</v>
       </c>
       <c r="X51" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="Y51" s="13">
         <v>5</v>
       </c>
       <c r="AD51" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AE51" s="13">
         <v>-800</v>
       </c>
       <c r="AF51" s="13" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="AG51" s="13">
         <v>-150</v>
@@ -37809,55 +37918,55 @@
         <v>114</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="P52" s="13" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="Q52" s="13">
         <v>30</v>
       </c>
       <c r="Z52" s="12" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="AA52" s="12">
         <v>10</v>
       </c>
       <c r="AD52" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE52" s="13">
         <v>500</v>
       </c>
       <c r="AF52" s="13" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="AG52" s="13">
         <v>3500</v>
       </c>
       <c r="AH52" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AI52" s="13">
         <v>900</v>
       </c>
       <c r="AP52" s="12" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="AQ52" s="12">
         <v>0.5</v>
       </c>
       <c r="AR52" s="12" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="AS52" s="12">
         <v>0.25</v>
       </c>
       <c r="AT52" s="12" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="AU52" s="12">
         <v>0.5</v>
@@ -37868,49 +37977,49 @@
         <v>114</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="P53" s="13" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="Q53" s="13">
         <v>10</v>
       </c>
       <c r="Z53" s="12" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="AA53" s="12">
         <v>40</v>
       </c>
       <c r="AD53" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE53" s="13">
         <v>1000</v>
       </c>
       <c r="AF53" s="13" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="AG53" s="13">
         <v>2500</v>
       </c>
       <c r="AH53" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AI53" s="13">
         <v>900</v>
       </c>
       <c r="AP53" s="12" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="AQ53" s="12">
         <v>1.5</v>
       </c>
       <c r="AR53" s="12" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="AS53" s="12">
         <v>0.25</v>
@@ -37921,37 +38030,37 @@
         <v>117</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="P54" s="13" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="Q54" s="13">
         <v>5</v>
       </c>
       <c r="R54" s="13" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="S54" s="13">
         <v>5</v>
       </c>
       <c r="Z54" s="12" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="AA54" s="12">
         <v>40</v>
       </c>
       <c r="AD54" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE54" s="13">
         <v>4500</v>
       </c>
       <c r="AF54" s="13" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="AG54" s="13">
         <v>400</v>
@@ -37962,37 +38071,37 @@
         <v>117</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="P55" s="13" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="Q55" s="13">
         <v>10</v>
       </c>
       <c r="R55" s="13" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="S55" s="13">
         <v>10</v>
       </c>
       <c r="Z55" s="12" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="AA55" s="12">
         <v>80</v>
       </c>
       <c r="AD55" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE55" s="13">
         <v>4500</v>
       </c>
       <c r="AF55" s="13" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="AG55" s="13">
         <v>400</v>
@@ -38003,43 +38112,43 @@
         <v>117</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="P56" s="13" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="Q56" s="13">
         <v>10</v>
       </c>
       <c r="R56" s="13" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="S56" s="13">
         <v>10</v>
       </c>
       <c r="T56" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="U56" s="13">
         <v>5</v>
       </c>
       <c r="Z56" s="12" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="AA56" s="12">
         <v>120</v>
       </c>
       <c r="AD56" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE56" s="13">
         <v>4500</v>
       </c>
       <c r="AF56" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AG56" s="13">
         <v>400</v>
@@ -38050,49 +38159,49 @@
         <v>117</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="P57" s="13" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="Q57" s="13">
         <v>10</v>
       </c>
       <c r="R57" s="13" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="S57" s="13">
         <v>10</v>
       </c>
       <c r="T57" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="U57" s="13">
         <v>10</v>
       </c>
       <c r="V57" s="13" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="W57" s="13">
         <v>5</v>
       </c>
       <c r="Z57" s="12" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="AA57" s="12">
         <v>160</v>
       </c>
       <c r="AD57" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE57" s="13">
         <v>4000</v>
       </c>
       <c r="AF57" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AG57" s="13">
         <v>900</v>
@@ -38103,10 +38212,10 @@
         <v>118</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
     </row>
     <row r="59" spans="1:33">
@@ -38114,43 +38223,43 @@
         <v>118</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="K59" s="13" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="P59" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="Q59" s="13">
         <v>2</v>
       </c>
       <c r="R59" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="S59" s="13">
         <v>1</v>
       </c>
       <c r="T59" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="U59" s="13">
         <v>2</v>
       </c>
       <c r="AD59" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE59" s="13">
         <v>-1000</v>
       </c>
       <c r="AF59" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AG59" s="13">
         <v>100</v>
@@ -38161,43 +38270,43 @@
         <v>118</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="J60" s="13" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="K60" s="13" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="P60" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="Q60" s="13">
         <v>3</v>
       </c>
       <c r="R60" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="S60" s="13">
         <v>2</v>
       </c>
       <c r="T60" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="U60" s="13">
         <v>3</v>
       </c>
       <c r="AD60" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE60" s="13">
         <v>-2000</v>
       </c>
       <c r="AF60" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AG60" s="13">
         <v>200</v>
@@ -38208,43 +38317,43 @@
         <v>118</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="K61" s="13" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="P61" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="Q61" s="13">
         <v>4</v>
       </c>
       <c r="R61" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="S61" s="13">
         <v>3</v>
       </c>
       <c r="T61" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="U61" s="13">
         <v>4</v>
       </c>
       <c r="AD61" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE61" s="13">
         <v>-3000</v>
       </c>
       <c r="AF61" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AG61" s="13">
         <v>300</v>
@@ -38252,52 +38361,52 @@
     </row>
     <row r="62" spans="2:33">
       <c r="B62" s="13" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="K62" s="13" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="P62" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="Q62" s="13">
         <v>3</v>
       </c>
       <c r="R62" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="S62" s="13">
         <v>2</v>
       </c>
       <c r="T62" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="U62" s="13">
         <v>4</v>
       </c>
       <c r="V62" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="W62" s="13">
         <v>5</v>
       </c>
       <c r="X62" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="Y62" s="13">
         <v>5</v>
       </c>
       <c r="AD62" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE62" s="13">
         <v>-4000</v>
       </c>
       <c r="AF62" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AG62" s="13">
         <v>400</v>
@@ -38308,31 +38417,31 @@
         <v>121</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="P63" s="13" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="Q63" s="13">
         <v>10</v>
       </c>
       <c r="Z63" s="12" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="AA63" s="12">
         <v>40</v>
       </c>
       <c r="AD63" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE63" s="13">
         <v>4500</v>
       </c>
       <c r="AF63" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AG63" s="13">
         <v>400</v>
@@ -38343,31 +38452,31 @@
         <v>121</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="P64" s="13" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="Q64" s="13">
         <v>15</v>
       </c>
       <c r="Z64" s="12" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="AA64" s="12">
         <v>65</v>
       </c>
       <c r="AD64" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE64" s="13">
         <v>4300</v>
       </c>
       <c r="AF64" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AG64" s="13">
         <v>600</v>
@@ -38378,31 +38487,31 @@
         <v>121</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="P65" s="13" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="Q65" s="13">
         <v>20</v>
       </c>
       <c r="Z65" s="12" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="AA65" s="12">
         <v>90</v>
       </c>
       <c r="AD65" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE65" s="13">
         <v>4000</v>
       </c>
       <c r="AF65" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AG65" s="13">
         <v>900</v>
@@ -38413,10 +38522,10 @@
         <v>122</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
     </row>
     <row r="67" spans="1:33">
@@ -38424,55 +38533,55 @@
         <v>122</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="P67" s="13" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="Q67" s="13">
         <v>5</v>
       </c>
       <c r="R67" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="S67" s="13">
         <v>5</v>
       </c>
       <c r="T67" s="13" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="U67" s="13">
         <v>5</v>
       </c>
       <c r="V67" s="13" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="W67" s="13">
         <v>5</v>
       </c>
       <c r="X67" s="13" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="Y67" s="13">
         <v>5</v>
       </c>
       <c r="Z67" s="12" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="AA67" s="12">
         <v>40</v>
       </c>
       <c r="AD67" s="13" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="AE67" s="13">
         <v>100</v>
       </c>
       <c r="AF67" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AG67" s="13">
         <v>100</v>
@@ -38483,10 +38592,10 @@
         <v>118</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
     </row>
     <row r="69" spans="1:33">
@@ -38494,37 +38603,37 @@
         <v>118</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="P69" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="Q69" s="13">
         <v>2</v>
       </c>
       <c r="R69" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="S69" s="13">
         <v>1</v>
       </c>
       <c r="T69" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="U69" s="13">
         <v>2</v>
       </c>
       <c r="AD69" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE69" s="13">
         <v>-1000</v>
       </c>
       <c r="AF69" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AG69" s="13">
         <v>100</v>
@@ -38535,37 +38644,37 @@
         <v>118</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="P70" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="Q70" s="13">
         <v>3</v>
       </c>
       <c r="R70" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="S70" s="13">
         <v>2</v>
       </c>
       <c r="T70" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="U70" s="13">
         <v>3</v>
       </c>
       <c r="AD70" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE70" s="13">
         <v>-2000</v>
       </c>
       <c r="AF70" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AG70" s="13">
         <v>200</v>
@@ -38576,37 +38685,37 @@
         <v>118</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="P71" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="Q71" s="13">
         <v>4</v>
       </c>
       <c r="R71" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="S71" s="13">
         <v>3</v>
       </c>
       <c r="T71" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="U71" s="13">
         <v>4</v>
       </c>
       <c r="AD71" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE71" s="13">
         <v>-3000</v>
       </c>
       <c r="AF71" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AG71" s="13">
         <v>300</v>
@@ -38617,49 +38726,49 @@
         <v>118</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="P72" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="Q72" s="13">
         <v>3</v>
       </c>
       <c r="R72" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="S72" s="13">
         <v>2</v>
       </c>
       <c r="T72" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="U72" s="13">
         <v>4</v>
       </c>
       <c r="V72" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="W72" s="13">
         <v>5</v>
       </c>
       <c r="X72" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="Y72" s="13">
         <v>5</v>
       </c>
       <c r="AD72" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE72" s="13">
         <v>-4000</v>
       </c>
       <c r="AF72" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AG72" s="13">
         <v>400</v>
@@ -38670,10 +38779,10 @@
         <v>125</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
     </row>
     <row r="74" spans="1:35">
@@ -38681,43 +38790,43 @@
         <v>125</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="Q74" s="13">
         <v>10</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="S74" s="13">
         <v>10</v>
       </c>
       <c r="Z74" s="12" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="AA74" s="12">
         <v>40</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE74" s="13">
         <v>2000</v>
       </c>
       <c r="AF74" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AG74" s="13">
         <v>350</v>
       </c>
       <c r="AH74" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AI74" s="13">
         <v>100</v>
@@ -38728,49 +38837,49 @@
         <v>125</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="P75" s="13" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="Q75" s="13">
         <v>10</v>
       </c>
       <c r="R75" s="13" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="S75" s="13">
         <v>10</v>
       </c>
       <c r="V75" s="13" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="W75" s="13">
         <v>10</v>
       </c>
       <c r="Z75" s="12" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="AA75" s="12">
         <v>80</v>
       </c>
       <c r="AD75" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE75" s="13">
         <v>2000</v>
       </c>
       <c r="AF75" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AG75" s="13">
         <v>250</v>
       </c>
       <c r="AH75" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AI75" s="13">
         <v>250</v>
@@ -38781,10 +38890,10 @@
         <v>126</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
     </row>
     <row r="77" spans="1:35">
@@ -38792,43 +38901,43 @@
         <v>126</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="P77" s="13" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="Q77" s="13">
         <v>10</v>
       </c>
       <c r="R77" s="13" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="S77" s="13">
         <v>5</v>
       </c>
       <c r="Z77" s="12" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="AA77" s="12">
         <v>30</v>
       </c>
       <c r="AD77" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE77" s="13">
         <v>2000</v>
       </c>
       <c r="AF77" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AG77" s="13">
         <v>350</v>
       </c>
       <c r="AH77" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AI77" s="13">
         <v>100</v>
@@ -38839,55 +38948,55 @@
         <v>126</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="P78" s="13" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="Q78" s="13">
         <v>10</v>
       </c>
       <c r="R78" s="13" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="S78" s="13">
         <v>5</v>
       </c>
       <c r="T78" s="13" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="U78" s="13">
         <v>5</v>
       </c>
       <c r="V78" s="13" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="W78" s="13">
         <v>5</v>
       </c>
       <c r="Z78" s="12" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="AA78" s="12">
         <v>50</v>
       </c>
       <c r="AD78" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AE78" s="13">
         <v>1000</v>
       </c>
       <c r="AF78" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AG78" s="13">
         <v>250</v>
       </c>
       <c r="AH78" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AI78" s="13">
         <v>250</v>
@@ -38898,10 +39007,10 @@
         <v>127</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
     </row>
     <row r="80" spans="1:35">
@@ -38909,37 +39018,37 @@
         <v>127</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="P80" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="Q80" s="13">
         <v>2</v>
       </c>
       <c r="R80" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="S80" s="13">
         <v>2</v>
       </c>
       <c r="AD80" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE80" s="13">
         <v>-1000</v>
       </c>
       <c r="AF80" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AG80" s="13">
         <v>350</v>
       </c>
       <c r="AH80" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AI80" s="13">
         <v>150</v>
@@ -38950,37 +39059,37 @@
         <v>127</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="P81" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="Q81" s="13">
         <v>4</v>
       </c>
       <c r="R81" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="S81" s="13">
         <v>4</v>
       </c>
       <c r="AD81" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE81" s="13">
         <v>-2000</v>
       </c>
       <c r="AF81" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AG81" s="13">
         <v>250</v>
       </c>
       <c r="AH81" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AI81" s="13">
         <v>250</v>
@@ -38991,49 +39100,49 @@
         <v>127</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="P82" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="Q82" s="13">
         <v>8</v>
       </c>
       <c r="R82" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="S82" s="13">
         <v>8</v>
       </c>
       <c r="T82" s="13" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="U82" s="13">
         <v>1</v>
       </c>
       <c r="AD82" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE82" s="13">
         <v>-2000</v>
       </c>
       <c r="AF82" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AG82" s="13">
         <v>150</v>
       </c>
       <c r="AH82" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AI82" s="13">
         <v>350</v>
@@ -39044,67 +39153,67 @@
         <v>127</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="M83" s="12" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="N83" s="12" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="P83" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="Q83" s="13">
         <v>8</v>
       </c>
       <c r="R83" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="S83" s="13">
         <v>8</v>
       </c>
       <c r="T83" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="U83" s="13">
         <v>1</v>
       </c>
       <c r="V83" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="W83" s="13">
         <v>2</v>
       </c>
       <c r="X83" s="13" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="Y83" s="13">
         <v>1</v>
       </c>
       <c r="AD83" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE83" s="13">
         <v>-2000</v>
       </c>
       <c r="AF83" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AG83" s="13">
         <v>-500</v>
       </c>
       <c r="AH83" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AI83" s="13">
         <v>250</v>
@@ -39115,10 +39224,10 @@
         <v>130</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
     </row>
     <row r="85" spans="1:33">
@@ -39126,43 +39235,43 @@
         <v>130</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="P85" s="13" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="Q85" s="13">
         <v>10</v>
       </c>
       <c r="R85" s="13" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="S85" s="13">
         <v>10</v>
       </c>
       <c r="T85" s="13" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="U85" s="13">
         <v>5</v>
       </c>
       <c r="Z85" s="12" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AA85" s="12">
         <v>40</v>
       </c>
       <c r="AD85" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE85" s="13">
         <v>2000</v>
       </c>
       <c r="AF85" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AG85" s="13">
         <v>450</v>
@@ -39173,43 +39282,43 @@
         <v>130</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="P86" s="13" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="Q86" s="13">
         <v>20</v>
       </c>
       <c r="R86" s="13" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="S86" s="13">
         <v>20</v>
       </c>
       <c r="T86" s="13" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="U86" s="13">
         <v>10</v>
       </c>
       <c r="Z86" s="12" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AA86" s="12">
         <v>80</v>
       </c>
       <c r="AD86" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE86" s="13">
         <v>2000</v>
       </c>
       <c r="AF86" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AG86" s="13">
         <v>450</v>
@@ -39220,10 +39329,10 @@
         <v>131</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
     </row>
     <row r="88" spans="1:33">
@@ -39231,43 +39340,43 @@
         <v>131</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="P88" s="13" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="Q88" s="13">
         <v>10</v>
       </c>
       <c r="R88" s="13" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="S88" s="13">
         <v>5</v>
       </c>
       <c r="T88" s="13" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="U88" s="13">
         <v>5</v>
       </c>
       <c r="Z88" s="12" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="AA88" s="12">
         <v>30</v>
       </c>
       <c r="AD88" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE88" s="13">
         <v>2000</v>
       </c>
       <c r="AF88" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AG88" s="13">
         <v>450</v>
@@ -39278,55 +39387,55 @@
         <v>131</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="P89" s="13" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="Q89" s="13">
         <v>10</v>
       </c>
       <c r="R89" s="13" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="S89" s="13">
         <v>5</v>
       </c>
       <c r="T89" s="13" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="U89" s="13">
         <v>5</v>
       </c>
       <c r="V89" s="13" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="W89" s="13">
         <v>5</v>
       </c>
       <c r="Z89" s="12" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="AA89" s="12">
         <v>50</v>
       </c>
       <c r="AD89" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AE89" s="13">
         <v>1000</v>
       </c>
       <c r="AF89" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AG89" s="13">
         <v>250</v>
       </c>
       <c r="AH89" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AI89" s="13">
         <v>250</v>
@@ -39337,10 +39446,10 @@
         <v>132</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
     </row>
     <row r="91" spans="1:35">
@@ -39348,37 +39457,37 @@
         <v>132</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="P91" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="Q91" s="13">
         <v>1</v>
       </c>
       <c r="R91" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="S91" s="13">
         <v>1</v>
       </c>
       <c r="T91" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="U91" s="13">
         <v>2</v>
       </c>
       <c r="AD91" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE91" s="13">
         <v>-500</v>
       </c>
       <c r="AH91" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AI91" s="13">
         <v>50</v>
@@ -39389,37 +39498,37 @@
         <v>132</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="P92" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="Q92" s="13">
         <v>2</v>
       </c>
       <c r="R92" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="S92" s="13">
         <v>2</v>
       </c>
       <c r="T92" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="U92" s="13">
         <v>3</v>
       </c>
       <c r="AD92" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE92" s="13">
         <v>-1000</v>
       </c>
       <c r="AH92" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AI92" s="13">
         <v>100</v>
@@ -39430,37 +39539,37 @@
         <v>132</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="P93" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="Q93" s="13">
         <v>3</v>
       </c>
       <c r="R93" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="S93" s="13">
         <v>3</v>
       </c>
       <c r="T93" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="U93" s="13">
         <v>4</v>
       </c>
       <c r="AD93" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE93" s="13">
         <v>-1500</v>
       </c>
       <c r="AH93" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AI93" s="13">
         <v>150</v>
@@ -39471,61 +39580,61 @@
         <v>132</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="J94" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K94" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="K94" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="P94" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="Q94" s="13">
         <v>3</v>
       </c>
       <c r="R94" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="S94" s="13">
         <v>2</v>
       </c>
       <c r="T94" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="U94" s="13">
         <v>4</v>
       </c>
       <c r="V94" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="W94" s="13">
         <v>5</v>
       </c>
       <c r="X94" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="Y94" s="13">
         <v>5</v>
       </c>
       <c r="AD94" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE94" s="13">
         <v>-2000</v>
       </c>
       <c r="AF94" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AG94" s="13">
         <v>-1000</v>
       </c>
       <c r="AH94" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AI94" s="13">
         <v>250</v>
@@ -39536,49 +39645,49 @@
         <v>135</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="P95" s="13" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="Q95" s="13">
         <v>10</v>
       </c>
       <c r="R95" s="13" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="S95" s="13">
         <v>8</v>
       </c>
       <c r="T95" s="13" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="U95" s="13">
         <v>5</v>
       </c>
       <c r="Z95" s="12" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="AA95" s="12">
         <v>40</v>
       </c>
       <c r="AD95" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE95" s="13">
         <v>3500</v>
       </c>
       <c r="AF95" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AG95" s="13">
         <v>350</v>
       </c>
       <c r="AH95" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AI95" s="13">
         <v>150</v>
@@ -39589,61 +39698,61 @@
         <v>135</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="P96" s="13" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="Q96" s="13">
         <v>10</v>
       </c>
       <c r="R96" s="13" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="S96" s="13">
         <v>8</v>
       </c>
       <c r="T96" s="13" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="U96" s="13">
         <v>10</v>
       </c>
       <c r="V96" s="13" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="W96" s="13">
         <v>5</v>
       </c>
       <c r="X96" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="Y96" s="13">
         <v>5</v>
       </c>
       <c r="Z96" s="12" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="AA96" s="12">
         <v>70</v>
       </c>
       <c r="AD96" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE96" s="13">
         <v>3000</v>
       </c>
       <c r="AF96" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AG96" s="13">
         <v>250</v>
       </c>
       <c r="AH96" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AI96" s="13">
         <v>250</v>
@@ -39654,61 +39763,61 @@
         <v>135</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="P97" s="13" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="Q97" s="13">
         <v>12</v>
       </c>
       <c r="R97" s="13" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="S97" s="13">
         <v>8</v>
       </c>
       <c r="T97" s="13" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="U97" s="13">
         <v>12</v>
       </c>
       <c r="V97" s="13" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="W97" s="13">
         <v>7</v>
       </c>
       <c r="X97" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="Y97" s="13">
         <v>7</v>
       </c>
       <c r="Z97" s="12" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="AA97" s="12">
         <v>90</v>
       </c>
       <c r="AD97" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE97" s="13">
         <v>2500</v>
       </c>
       <c r="AF97" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AG97" s="13">
         <v>150</v>
       </c>
       <c r="AH97" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AI97" s="13">
         <v>350</v>
@@ -39719,55 +39828,55 @@
         <v>135</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="P98" s="13" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="Q98" s="13">
         <v>15</v>
       </c>
       <c r="R98" s="13" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="S98" s="13">
         <v>8</v>
       </c>
       <c r="T98" s="13" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="U98" s="13">
         <v>15</v>
       </c>
       <c r="V98" s="13" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="W98" s="13">
         <v>10</v>
       </c>
       <c r="X98" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="Y98" s="13">
         <v>10</v>
       </c>
       <c r="Z98" s="12" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="AA98" s="12">
         <v>120</v>
       </c>
       <c r="AD98" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AE98" s="13">
         <v>1500</v>
       </c>
       <c r="AF98" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AG98" s="13">
         <v>500</v>
@@ -39778,10 +39887,10 @@
         <v>136</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
     </row>
     <row r="100" spans="1:35">
@@ -39789,43 +39898,43 @@
         <v>136</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="P100" s="13" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="Q100" s="13">
         <v>5</v>
       </c>
       <c r="R100" s="13" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="S100" s="13">
         <v>5</v>
       </c>
       <c r="Z100" s="12" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="AA100" s="12">
         <v>10</v>
       </c>
       <c r="AD100" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE100" s="13">
         <v>1000</v>
       </c>
       <c r="AF100" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AG100" s="13">
         <v>250</v>
       </c>
       <c r="AH100" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AI100" s="13">
         <v>150</v>
@@ -39836,43 +39945,43 @@
         <v>136</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="P101" s="13" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="Q101" s="13">
         <v>10</v>
       </c>
       <c r="R101" s="13" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="S101" s="13">
         <v>10</v>
       </c>
       <c r="Z101" s="12" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="AA101" s="12">
         <v>20</v>
       </c>
       <c r="AD101" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE101" s="13">
         <v>1000</v>
       </c>
       <c r="AF101" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AG101" s="13">
         <v>150</v>
       </c>
       <c r="AH101" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AI101" s="13">
         <v>250</v>
@@ -39883,37 +39992,37 @@
         <v>136</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="P102" s="13" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="Q102" s="13">
         <v>15</v>
       </c>
       <c r="R102" s="13" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="S102" s="13">
         <v>15</v>
       </c>
       <c r="Z102" s="12" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="AA102" s="12">
         <v>30</v>
       </c>
       <c r="AD102" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AE102" s="13">
         <v>500</v>
       </c>
       <c r="AF102" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AG102" s="13">
         <v>500</v>
@@ -39921,127 +40030,127 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
     </row>
     <row r="104" spans="1:34">
       <c r="A104" s="1" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="P104" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="Q104" s="13">
         <v>2</v>
       </c>
       <c r="R104" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="S104" s="13">
         <v>2</v>
       </c>
       <c r="AD104" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE104" s="13">
         <v>-1000</v>
       </c>
       <c r="AF104" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AH104" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
     </row>
     <row r="105" spans="1:34">
       <c r="A105" s="1" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="P105" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="Q105" s="13">
         <v>5</v>
       </c>
       <c r="R105" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="S105" s="13">
         <v>5</v>
       </c>
       <c r="AD105" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE105" s="13">
         <v>-2000</v>
       </c>
       <c r="AF105" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AH105" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
     </row>
     <row r="106" spans="1:35">
       <c r="A106" s="1" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="P106" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="Q106" s="13">
         <v>10</v>
       </c>
       <c r="R106" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="S106" s="13">
         <v>10</v>
       </c>
       <c r="T106" s="13" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="U106" s="13">
         <v>1</v>
       </c>
       <c r="AD106" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE106" s="13">
         <v>-3500</v>
       </c>
       <c r="AF106" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AG106" s="13">
         <v>500</v>
       </c>
       <c r="AH106" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AI106" s="13">
         <v>250</v>
@@ -40049,64 +40158,64 @@
     </row>
     <row r="107" spans="1:35">
       <c r="A107" s="1" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="P107" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="Q107" s="13">
         <v>8</v>
       </c>
       <c r="R107" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="S107" s="13">
         <v>8</v>
       </c>
       <c r="T107" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="U107" s="13">
         <v>1</v>
       </c>
       <c r="V107" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="W107" s="13">
         <v>1</v>
       </c>
       <c r="X107" s="13" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="Y107" s="13">
         <v>1</v>
       </c>
       <c r="AD107" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AE107" s="13">
         <v>-2000</v>
       </c>
       <c r="AF107" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AG107" s="13">
         <v>250</v>
       </c>
       <c r="AH107" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AI107" s="13">
         <v>250</v>
@@ -40117,52 +40226,52 @@
         <v>143</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="M108" s="12" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="N108" s="12" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="O108" s="12" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="P108" s="13" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="Q108" s="13">
         <v>3</v>
       </c>
       <c r="R108" s="13" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="S108" s="13">
         <v>6</v>
       </c>
       <c r="AD108" s="13" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="AE108" s="13">
         <v>90</v>
       </c>
       <c r="AF108" s="13" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="AG108" s="13">
         <v>10</v>
       </c>
       <c r="AP108" s="81" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="AQ108" s="81">
         <v>3</v>
       </c>
       <c r="AR108" s="81" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="AS108" s="81">
         <v>2</v>
@@ -40173,31 +40282,31 @@
         <v>143</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C109" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="M109" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="N109" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="M109" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="N109" s="12" t="s">
-        <v>322</v>
-      </c>
       <c r="P109" s="13" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="Q109" s="13">
         <v>3</v>
       </c>
       <c r="R109" s="13" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="S109" s="13">
         <v>6</v>
       </c>
       <c r="AD109" s="13" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="AE109" s="13">
         <v>100</v>
@@ -40212,55 +40321,55 @@
         <v>143</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="N110" s="12" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="O110" s="12" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="P110" s="13" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="Q110" s="13">
         <v>6</v>
       </c>
       <c r="R110" s="13" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="S110" s="13">
         <v>6</v>
       </c>
       <c r="AD110" s="13" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="AE110" s="13">
         <v>90</v>
       </c>
       <c r="AF110" s="13" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="AG110" s="13">
         <v>8</v>
       </c>
       <c r="AH110" s="13" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="AI110" s="13">
         <v>2</v>
       </c>
       <c r="AP110" s="81" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="AQ110" s="81">
         <v>4</v>
       </c>
       <c r="AR110" s="81" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="AS110" s="81">
         <v>1</v>
@@ -40271,46 +40380,46 @@
         <v>143</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="M111" s="12" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="N111" s="12" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="O111" s="12" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="P111" s="13" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="Q111" s="13">
         <v>7</v>
       </c>
       <c r="R111" s="13" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="S111" s="13">
         <v>6</v>
       </c>
       <c r="AD111" s="13" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="AE111" s="13">
         <v>90</v>
       </c>
       <c r="AF111" s="13" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="AG111" s="13">
         <v>10</v>
       </c>
       <c r="AP111" s="81" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="AQ111" s="81">
         <v>5</v>
@@ -40323,31 +40432,31 @@
         <v>143</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="N112" s="12" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="O112" s="12" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="P112" s="13" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="Q112" s="13">
         <v>3</v>
       </c>
       <c r="R112" s="13" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="S112" s="13">
         <v>6</v>
       </c>
       <c r="AD112" s="13" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="AE112" s="13">
         <v>100</v>
@@ -40362,49 +40471,49 @@
         <v>143</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="N113" s="12" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="O113" s="12" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="P113" s="13" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="Q113" s="13">
         <v>3</v>
       </c>
       <c r="R113" s="13" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="S113" s="13">
         <v>6</v>
       </c>
       <c r="AD113" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE113" s="13">
         <v>60</v>
       </c>
       <c r="AF113" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AG113" s="13">
         <v>40</v>
       </c>
       <c r="AP113" s="81" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="AQ113" s="81">
         <v>3</v>
       </c>
       <c r="AR113" s="81" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="AS113" s="81">
         <v>2</v>
@@ -40415,49 +40524,49 @@
         <v>143</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="N114" s="12" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="O114" s="12" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="P114" s="13" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="Q114" s="13">
         <v>3</v>
       </c>
       <c r="R114" s="13" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="S114" s="13">
         <v>6</v>
       </c>
       <c r="AD114" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AE114" s="13">
         <v>60</v>
       </c>
       <c r="AF114" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AG114" s="13">
         <v>40</v>
       </c>
       <c r="AP114" s="81" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="AQ114" s="81">
         <v>2</v>
       </c>
       <c r="AR114" s="81" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="AS114" s="81">
         <v>2</v>
@@ -40468,22 +40577,22 @@
         <v>143</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="O115" s="12" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="P115" s="13" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="Q115" s="13">
         <v>3</v>
       </c>
       <c r="R115" s="13" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="S115" s="13">
         <v>6</v>
@@ -40494,25 +40603,25 @@
         <v>140</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="P116" s="13" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="Q116" s="13">
         <v>80</v>
       </c>
       <c r="Z116" s="12" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="AA116" s="12">
         <v>140</v>
       </c>
       <c r="AD116" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE116" s="13">
         <v>4900</v>
@@ -40523,43 +40632,43 @@
         <v>140</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="P117" s="13" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="Q117" s="13">
         <v>80</v>
       </c>
       <c r="R117" s="13" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="S117" s="13">
         <v>20</v>
       </c>
       <c r="Z117" s="12" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="AA117" s="12">
         <v>160</v>
       </c>
       <c r="AD117" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE117" s="13">
         <v>3000</v>
       </c>
       <c r="AF117" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AG117" s="13">
         <v>700</v>
       </c>
       <c r="AH117" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AI117" s="13">
         <v>200</v>
@@ -40570,43 +40679,43 @@
         <v>140</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="P118" s="13" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="Q118" s="13">
         <v>100</v>
       </c>
       <c r="R118" s="13" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="S118" s="13">
         <v>40</v>
       </c>
       <c r="Z118" s="12" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="AA118" s="12">
         <v>200</v>
       </c>
       <c r="AD118" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE118" s="13">
         <v>2000</v>
       </c>
       <c r="AF118" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AG118" s="13">
         <v>1000</v>
       </c>
       <c r="AH118" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AI118" s="13">
         <v>300</v>
@@ -40617,13 +40726,13 @@
         <v>141</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="120" spans="1:35">
@@ -40631,34 +40740,34 @@
         <v>141</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="P120" s="13" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="Q120" s="13">
         <v>5</v>
       </c>
       <c r="AD120" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE120" s="13">
         <v>-1000</v>
       </c>
       <c r="AF120" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AG120" s="13">
         <v>200</v>
       </c>
       <c r="AH120" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AI120" s="13">
         <v>100</v>
@@ -40669,46 +40778,46 @@
         <v>141</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="P121" s="13" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="Q121" s="13">
         <v>10</v>
       </c>
       <c r="R121" s="13" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="S121" s="13">
         <v>1</v>
       </c>
       <c r="T121" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="U121" s="13">
         <v>1</v>
       </c>
       <c r="AD121" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE121" s="13">
         <v>-2000</v>
       </c>
       <c r="AF121" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AG121" s="13">
         <v>400</v>
       </c>
       <c r="AH121" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AI121" s="13">
         <v>200</v>
@@ -40719,10 +40828,10 @@
         <v>142</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
     </row>
     <row r="123" spans="1:33">
@@ -40730,41 +40839,41 @@
         <v>142</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="K123" s="2"/>
       <c r="P123" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="Q123" s="13">
         <v>3</v>
       </c>
       <c r="R123" s="13" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="S123" s="13">
         <v>1</v>
       </c>
       <c r="T123" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="U123" s="13">
         <v>3</v>
       </c>
       <c r="AD123" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AE123" s="13">
         <v>-800</v>
       </c>
       <c r="AF123" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AG123" s="13">
         <v>100</v>
@@ -40775,37 +40884,37 @@
         <v>142</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="P124" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="Q124" s="13">
         <v>1</v>
       </c>
       <c r="R124" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="S124" s="13">
         <v>2</v>
       </c>
       <c r="T124" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="U124" s="13">
         <v>1</v>
       </c>
       <c r="AD124" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AE124" s="13">
         <v>-1000</v>
       </c>
       <c r="AF124" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AG124" s="13">
         <v>50</v>
@@ -40816,61 +40925,61 @@
         <v>142</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="P125" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="Q125" s="13">
         <v>1</v>
       </c>
       <c r="R125" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="S125" s="13">
         <v>1</v>
       </c>
       <c r="T125" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="U125" s="13">
         <v>3</v>
       </c>
       <c r="V125" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="W125" s="13">
         <v>2</v>
       </c>
       <c r="X125" s="13" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="Y125" s="13">
         <v>2</v>
       </c>
       <c r="AD125" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AE125" s="13">
         <v>-1400</v>
       </c>
       <c r="AF125" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AG125" s="13">
         <v>50</v>
       </c>
       <c r="AH125" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AI125" s="13">
         <v>25</v>
@@ -40881,25 +40990,25 @@
         <v>146</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="P126" s="13" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="Q126" s="13">
         <v>120</v>
       </c>
       <c r="Z126" s="12" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="AA126" s="12">
         <v>135</v>
       </c>
       <c r="AD126" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE126" s="13">
         <v>4900</v>
@@ -40910,37 +41019,37 @@
         <v>146</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="P127" s="13" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="Q127" s="13">
         <v>120</v>
       </c>
       <c r="Z127" s="12" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="AA127" s="12">
         <v>145</v>
       </c>
       <c r="AD127" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE127" s="13">
         <v>3900</v>
       </c>
       <c r="AF127" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AG127" s="13">
         <v>300</v>
       </c>
       <c r="AH127" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AI127" s="13">
         <v>200</v>
@@ -40951,19 +41060,19 @@
         <v>147</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="P128" s="13" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="Q128" s="13">
         <v>5</v>
       </c>
       <c r="Z128" s="12" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="AA128" s="12">
         <v>-5</v>
@@ -40974,31 +41083,31 @@
         <v>147</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="P129" s="13" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="Q129" s="13">
         <v>5</v>
       </c>
       <c r="AD129" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE129" s="13">
         <v>-1500</v>
       </c>
       <c r="AF129" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AG129" s="13">
         <v>50</v>
       </c>
       <c r="AH129" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AI129" s="13">
         <v>150</v>
@@ -41009,10 +41118,10 @@
         <v>148</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
     </row>
     <row r="131" spans="1:35">
@@ -41020,43 +41129,43 @@
         <v>148</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="P131" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="Q131" s="13">
         <v>5</v>
       </c>
       <c r="R131" s="13" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="S131" s="13">
         <v>1</v>
       </c>
       <c r="T131" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="U131" s="13">
         <v>5</v>
       </c>
       <c r="AD131" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE131" s="13">
         <v>-1200</v>
       </c>
       <c r="AF131" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AG131" s="13">
         <v>150</v>
       </c>
       <c r="AH131" s="13" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AI131" s="13">
         <v>250</v>
@@ -41067,37 +41176,37 @@
         <v>148</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="P132" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="Q132" s="13">
         <v>5</v>
       </c>
       <c r="R132" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="S132" s="13">
         <v>3</v>
       </c>
       <c r="T132" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="U132" s="13">
         <v>2</v>
       </c>
       <c r="AD132" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE132" s="13">
         <v>-1800</v>
       </c>
       <c r="AF132" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AG132" s="13">
         <v>150</v>
@@ -41108,58 +41217,58 @@
         <v>148</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="J133" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C133" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="J133" s="2" t="s">
-        <v>293</v>
-      </c>
       <c r="P133" s="13" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="Q133" s="13">
         <v>5</v>
       </c>
       <c r="R133" s="13" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="S133" s="13">
         <v>2</v>
       </c>
       <c r="T133" s="13" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="U133" s="13">
         <v>2</v>
       </c>
       <c r="V133" s="13" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="W133" s="13">
         <v>1</v>
       </c>
       <c r="X133" s="13" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="Y133" s="13">
         <v>5</v>
       </c>
       <c r="AD133" s="13" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AE133" s="13">
         <v>-2400</v>
       </c>
       <c r="AF133" s="13" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AG133" s="13">
         <v>250</v>
       </c>
       <c r="AH133" s="13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AI133" s="13">
         <v>150</v>
@@ -41218,51 +41327,51 @@
   <sheetData>
     <row r="1" s="14" customFormat="1" ht="15" spans="1:10">
       <c r="A1" s="23" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="B1" s="76" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="F1" s="76" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="H1" s="76" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="J1" s="76" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" s="10" customFormat="1" ht="14.25" spans="1:10">
       <c r="A2" s="10" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="D2" s="11">
         <v>30</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="F2" s="11">
         <v>1</v>
@@ -41271,7 +41380,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="I2" s="10">
         <v>1</v>
@@ -41282,19 +41391,19 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="D3" s="2">
         <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
@@ -41303,7 +41412,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
@@ -41348,70 +41457,70 @@
       <c r="B1" s="52"/>
       <c r="C1" s="53"/>
       <c r="D1" s="54" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="E1" s="55" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="F1" s="55" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="G1" s="55" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="H1" s="55" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="I1" s="55" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="J1" s="55" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="K1" s="55" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="L1" s="55" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="M1" s="55" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="N1" s="55" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="O1" s="55" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="P1" s="55" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="Q1" s="55" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="R1" s="55" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="S1" s="55" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="T1" s="55" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="U1" s="55" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="V1" s="55" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="W1" s="55" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="X1" s="55" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="Y1" s="70" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="Z1" s="71"/>
     </row>
@@ -41420,46 +41529,46 @@
       <c r="B2" s="57"/>
       <c r="C2" s="58"/>
       <c r="D2" s="59" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="E2" s="60" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="F2" s="60" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="H2" s="60" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="J2" s="60" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="K2" s="60" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="L2" s="60" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="M2" s="60" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="N2" s="60" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="O2" s="60" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="P2" s="60" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="Q2" s="60" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="R2" s="60"/>
       <c r="S2" s="60"/>
@@ -41476,70 +41585,70 @@
       <c r="B3" s="57"/>
       <c r="C3" s="58"/>
       <c r="D3" s="61" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="G3" s="62" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="H3" s="62" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="I3" s="62" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="K3" s="62" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="L3" s="62" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="M3" s="62" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="N3" s="62" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="O3" s="62" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="P3" s="62" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="Q3" s="62" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="R3" s="62" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="S3" s="62" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="T3" s="62" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="U3" s="62" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="V3" s="62" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="W3" s="62" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="X3" s="62" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="Y3" s="74" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="Z3" s="71"/>
     </row>
@@ -41548,46 +41657,46 @@
       <c r="B4" s="57"/>
       <c r="C4" s="58"/>
       <c r="D4" s="59" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="G4" s="60" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="H4" s="60" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="I4" s="60" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="J4" s="60" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="K4" s="60" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="M4" s="60" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="N4" s="60" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="O4" s="60" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="P4" s="60" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="Q4" s="60" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="R4" s="60"/>
       <c r="S4" s="60"/>
@@ -41604,70 +41713,70 @@
       <c r="B5" s="57"/>
       <c r="C5" s="58"/>
       <c r="D5" s="61" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="F5" s="62" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="G5" s="62" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="H5" s="62" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="I5" s="62" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="K5" s="62" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="L5" s="62" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="M5" s="62" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="N5" s="62" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="O5" s="62" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="P5" s="62" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="Q5" s="62" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="R5" s="62" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="S5" s="62" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="T5" s="62" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="U5" s="62" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="V5" s="62" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="W5" s="62" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="X5" s="62" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="Y5" s="74" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="Z5" s="71"/>
     </row>
@@ -41729,79 +41838,79 @@
     </row>
     <row r="7" s="43" customFormat="1" ht="14.25" spans="1:26">
       <c r="A7" s="43" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="D7" s="67" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="E7" s="68" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="F7" s="68" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="G7" s="68" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="H7" s="68" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="I7" s="68" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="J7" s="68" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="K7" s="68" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="L7" s="68" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="M7" s="68" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="N7" s="68" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="O7" s="68" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="P7" s="68" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="Q7" s="68" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="R7" s="68" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="S7" s="68" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="T7" s="68" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="U7" s="68" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="V7" s="68" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="W7" s="68" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="X7" s="68" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="Y7" s="75" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="Z7" s="71"/>
     </row>
@@ -45710,111 +45819,111 @@
   <sheetData>
     <row r="1" s="14" customFormat="1" ht="15" spans="1:31">
       <c r="A1" s="23" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="O1" s="38" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="P1" s="28" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="Q1" s="34" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="R1" s="34" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="T1" s="36" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="U1" s="37" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="V1" s="37" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="W1" s="38" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="X1" s="28" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="Y1" s="34" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="Z1" s="34" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="AA1" s="35" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="AB1" s="36" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="AC1" s="37" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="AD1" s="37" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="AE1" s="38" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2" s="10" customFormat="1" ht="14.25" spans="1:31">
       <c r="A2" s="10" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="E2" s="31">
         <v>1</v>
@@ -45826,7 +45935,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="I2" s="10">
         <v>2</v>
@@ -45856,16 +45965,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="E3" s="17">
         <v>1.5</v>

--- a/数值设定/工具表v0.32.xlsx
+++ b/数值设定/工具表v0.32.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21630" windowHeight="12390" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="21525" windowHeight="12390" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="使用说明" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="657">
   <si>
     <t>工具表版本</t>
   </si>
@@ -1219,10 +1219,40 @@
     <t>pm_dye_workshops</t>
   </si>
   <si>
+    <t>奢侈衣物</t>
+  </si>
+  <si>
+    <t>pm_no_luxury_clothes</t>
+  </si>
+  <si>
+    <t>pm_craftsman_sewing</t>
+  </si>
+  <si>
+    <t>pm_elastics</t>
+  </si>
+  <si>
+    <t>pm_traditional_looms</t>
+  </si>
+  <si>
     <t>pm_sewing_machines</t>
   </si>
   <si>
-    <t>奢侈衣物</t>
+    <t>pm_automatic_power_sewing_machines</t>
+  </si>
+  <si>
+    <t>pmg_magical_automation_building_textile_mills</t>
+  </si>
+  <si>
+    <t>pm_base_doll_building_textile_mills</t>
+  </si>
+  <si>
+    <t>pm_intellectual_dolll_building_textile_mills</t>
+  </si>
+  <si>
+    <t>pmg_magiscientia_automation_building_textile_mills</t>
+  </si>
+  <si>
+    <t>pm_doll_based_assemble_line_building_textile_mills</t>
   </si>
   <si>
     <t>生产方式代码名</t>
@@ -2270,24 +2300,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2308,29 +2323,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2346,7 +2339,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2360,7 +2367,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2376,14 +2391,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2392,10 +2399,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2407,8 +2414,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2519,7 +2549,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2531,7 +2579,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2543,19 +2633,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2567,73 +2657,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3110,30 +3140,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3144,15 +3150,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3183,6 +3180,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3193,6 +3199,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3214,10 +3244,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3226,133 +3256,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4704,40 +4734,40 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="C2" s="8">
         <v>20</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="10" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="G2" s="4">
         <v>3</v>
@@ -4745,19 +4775,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="12" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="C3" s="13">
         <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="G3" s="4">
         <v>12</v>
@@ -4765,19 +4795,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="C4" s="13">
         <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="G4" s="4">
         <v>4</v>
@@ -4785,19 +4815,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="12" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C5" s="13">
         <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="G5" s="4">
         <v>18</v>
@@ -4805,19 +4835,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="C6" s="2">
         <v>70</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="G6" s="4">
         <v>4</v>
@@ -4825,19 +4855,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="12" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="C7" s="13">
         <v>70</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="G7" s="4">
         <v>4</v>
@@ -4845,19 +4875,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="12" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="C8" s="13">
         <v>80</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="G8" s="4">
         <v>3</v>
@@ -4865,19 +4895,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="12" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="C9" s="13">
         <v>140</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="G9" s="4">
         <v>1.5</v>
@@ -4885,19 +4915,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="12" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="C10" s="13">
         <v>120</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
@@ -4905,7 +4935,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="12" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>242</v>
@@ -4914,10 +4944,10 @@
         <v>80</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
@@ -4925,7 +4955,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="12" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>254</v>
@@ -4934,10 +4964,10 @@
         <v>100</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="G12" s="4">
         <v>1.5</v>
@@ -4945,19 +4975,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="12" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C13" s="13">
         <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="G13" s="4">
         <v>4</v>
@@ -4965,19 +4995,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="12" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="C14" s="13">
         <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="G14" s="4">
         <v>20</v>
@@ -4985,19 +5015,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="C15" s="13">
         <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="G15" s="4">
         <v>6</v>
@@ -5005,19 +5035,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="12" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="C16" s="13">
         <v>30</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="G16" s="4">
         <v>5</v>
@@ -5025,19 +5055,19 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="12" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="C17" s="13">
         <v>30</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="G17" s="4">
         <v>0.2</v>
@@ -5045,19 +5075,19 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="12" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="C18" s="13">
         <v>30</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="G18" s="4">
         <v>2</v>
@@ -5065,19 +5095,19 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="12" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="C19" s="13">
         <v>30</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
@@ -5085,19 +5115,19 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="12" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="C20" s="13">
         <v>30</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="G20" s="4">
         <v>2</v>
@@ -5105,10 +5135,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="12" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="C21" s="13">
         <v>30</v>
@@ -5116,10 +5146,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="12" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="C22" s="13">
         <v>60</v>
@@ -5127,10 +5157,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="12" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="C23" s="13">
         <v>40</v>
@@ -5138,10 +5168,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="12" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="C24" s="13">
         <v>40</v>
@@ -5149,10 +5179,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="12" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="C25" s="13">
         <v>50</v>
@@ -5160,10 +5190,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="12" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="C26" s="13">
         <v>30</v>
@@ -5171,10 +5201,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="12" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="C27" s="13">
         <v>40</v>
@@ -5182,10 +5212,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="12" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="C28" s="13">
         <v>50</v>
@@ -5193,10 +5223,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="12" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="C29" s="13">
         <v>40</v>
@@ -5204,10 +5234,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="12" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="C30" s="13">
         <v>40</v>
@@ -5215,10 +5245,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="12" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="C31" s="13">
         <v>40</v>
@@ -5226,10 +5256,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="12" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="C32" s="13">
         <v>60</v>
@@ -5237,10 +5267,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="C33" s="2">
         <v>40</v>
@@ -5248,10 +5278,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="12" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="C34" s="13">
         <v>60</v>
@@ -5259,10 +5289,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="12" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="C35" s="13">
         <v>30</v>
@@ -5270,10 +5300,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="12" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C36" s="13">
         <v>40</v>
@@ -5281,10 +5311,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="12" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="C37" s="13">
         <v>50</v>
@@ -5292,10 +5322,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="12" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="C38" s="13">
         <v>40</v>
@@ -5303,10 +5333,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="12" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="C39" s="13">
         <v>150</v>
@@ -5314,10 +5344,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="12" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C40" s="13">
         <v>100</v>
@@ -5325,10 +5355,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="12" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C41" s="13">
         <v>120</v>
@@ -5336,10 +5366,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="12" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="C42" s="13">
         <v>150</v>
@@ -5347,10 +5377,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="12" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="C43" s="13">
         <v>90</v>
@@ -5358,10 +5388,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="12" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="C44" s="13">
         <v>70</v>
@@ -5369,10 +5399,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="12" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="C45" s="13">
         <v>30</v>
@@ -5380,10 +5410,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="12" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="C46" s="13">
         <v>30</v>
@@ -5391,10 +5421,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="12" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="C47" s="13">
         <v>40</v>
@@ -5402,10 +5432,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="12" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="C48" s="13">
         <v>60</v>
@@ -5413,10 +5443,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="12" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="C49" s="13">
         <v>50</v>
@@ -5424,10 +5454,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="12" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="C50" s="13">
         <v>30</v>
@@ -5435,10 +5465,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="12" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="C51" s="13">
         <v>40</v>
@@ -5446,10 +5476,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="12" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="C52" s="13">
         <v>50</v>
@@ -5457,10 +5487,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="12" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="C53" s="13">
         <v>60</v>
@@ -5468,10 +5498,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="12" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="C54" s="13">
         <v>60</v>
@@ -5479,10 +5509,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="12" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="C55" s="13">
         <v>100</v>
@@ -5490,10 +5520,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="12" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="C56" s="13">
         <v>200</v>
@@ -31243,8 +31273,8 @@
   <sheetPr/>
   <dimension ref="A1:BA45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -33680,8 +33710,8 @@
   <sheetPr/>
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -34455,7 +34485,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
         <v>151</v>
       </c>
@@ -34468,40 +34498,70 @@
       <c r="D37" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="D38" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>154</v>
+        <v>317</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>155</v>
+        <v>320</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>192</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -34520,10 +34580,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CF133"/>
+  <dimension ref="A1:CF138"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="M114" sqref="M114"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -34585,19 +34645,19 @@
         <v>61</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="D1" s="80" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="E1" s="77" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="G1" s="34" t="s">
         <v>80</v>
@@ -34609,190 +34669,190 @@
         <v>80</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="N1" s="34" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="R1" s="37" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="S1" s="37" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="T1" s="37" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="U1" s="37" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="V1" s="37" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="W1" s="37" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="X1" s="37" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="Y1" s="37" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="Z1" s="34" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="AA1" s="34" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="AB1" s="34" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="AC1" s="34" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="AD1" s="37" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="AE1" s="37" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="AF1" s="37" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="AG1" s="37" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="AH1" s="37" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="AI1" s="37" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="AJ1" s="34" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="AK1" s="34" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="AL1" s="34" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="AM1" s="34" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="AN1" s="34" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="AO1" s="34" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="AP1" s="37" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="AQ1" s="37" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="AR1" s="37" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="AS1" s="37" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="AT1" s="37" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="AU1" s="37" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="AV1" s="34" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="AW1" s="34" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="AX1" s="34" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="AY1" s="34" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="AZ1" s="34" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="BA1" s="34" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="BB1" s="37" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="BC1" s="37" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="BD1" s="37" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="BE1" s="37" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="BF1" s="37" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="BG1" s="37" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="BH1" s="34" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="BI1" s="34" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="BJ1" s="34" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="BK1" s="34" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="BL1" s="34" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="BM1" s="34" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="BN1" s="34" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="BO1" s="34" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="BP1" s="34" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="BQ1" s="34" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="BR1" s="34" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="BS1" s="34" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:84">
@@ -34803,25 +34863,25 @@
         <v>170</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="Q2" s="13">
         <v>5</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="S2" s="13">
         <v>9</v>
@@ -34830,25 +34890,25 @@
         <v>1</v>
       </c>
       <c r="AD2" s="13" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="AE2" s="13">
         <v>90</v>
       </c>
       <c r="AF2" s="13" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="AG2" s="13">
         <v>10</v>
       </c>
       <c r="AP2" s="13" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="AQ2" s="13">
         <v>3</v>
       </c>
       <c r="AR2" s="13" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AS2" s="13">
         <v>2</v>
@@ -34874,19 +34934,19 @@
       <c r="BL2" s="12"/>
       <c r="BM2" s="12"/>
       <c r="BN2" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="BO2" s="7">
         <v>13</v>
       </c>
       <c r="BP2" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="BQ2" s="7">
         <v>14</v>
       </c>
       <c r="BR2" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="BS2" s="7">
         <v>15</v>
@@ -34913,28 +34973,28 @@
         <v>171</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="M3" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="P3" s="13" t="s">
         <v>345</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>335</v>
       </c>
       <c r="Q3" s="13">
         <v>5</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="S3" s="13">
         <v>9</v>
       </c>
       <c r="AD3" s="13" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="AE3" s="13">
         <v>100</v>
@@ -34964,13 +35024,13 @@
       <c r="BL3" s="12"/>
       <c r="BM3" s="12"/>
       <c r="BN3" s="12" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="BO3" s="12">
         <v>13</v>
       </c>
       <c r="BP3" s="12" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="BQ3" s="12">
         <v>14</v>
@@ -34984,52 +35044,52 @@
         <v>172</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="Q4" s="13">
         <v>8</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="S4" s="13">
         <v>9</v>
       </c>
       <c r="AD4" s="13" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AE4" s="13">
         <v>90</v>
       </c>
       <c r="AF4" s="13" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="AG4" s="13">
         <v>8</v>
       </c>
       <c r="AH4" s="13" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="AI4" s="13">
         <v>2</v>
       </c>
       <c r="AP4" s="13" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="AQ4" s="13">
         <v>4</v>
       </c>
       <c r="AR4" s="13" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AS4" s="13">
         <v>1</v>
@@ -35063,43 +35123,43 @@
         <v>173</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="Q5" s="13">
         <v>8</v>
       </c>
       <c r="R5" s="13" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="S5" s="13">
         <v>9</v>
       </c>
       <c r="AD5" s="13" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AE5" s="13">
         <v>90</v>
       </c>
       <c r="AF5" s="13" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="AG5" s="13">
         <v>10</v>
       </c>
       <c r="AP5" s="13" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="AQ5" s="13">
         <v>5</v>
@@ -35135,28 +35195,28 @@
         <v>174</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="Q6" s="13">
         <v>5</v>
       </c>
       <c r="R6" s="13" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="S6" s="13">
         <v>9</v>
       </c>
       <c r="AD6" s="13" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="AE6" s="13">
         <v>100</v>
@@ -35194,46 +35254,46 @@
         <v>175</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="Q7" s="13">
         <v>5</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="S7" s="13">
         <v>9</v>
       </c>
       <c r="AD7" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE7" s="13">
         <v>60</v>
       </c>
       <c r="AF7" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG7" s="13">
         <v>40</v>
       </c>
       <c r="AP7" s="13" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="AQ7" s="13">
         <v>3</v>
       </c>
       <c r="AR7" s="13" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AS7" s="13">
         <v>2</v>
@@ -35267,46 +35327,46 @@
         <v>176</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="P8" s="13" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="Q8" s="13">
         <v>5</v>
       </c>
       <c r="R8" s="13" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="S8" s="13">
         <v>9</v>
       </c>
       <c r="AD8" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AE8" s="13">
         <v>60</v>
       </c>
       <c r="AF8" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AG8" s="13">
         <v>40</v>
       </c>
       <c r="AP8" s="13" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="AQ8" s="13">
         <v>2</v>
       </c>
       <c r="AR8" s="13" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="AS8" s="13">
         <v>2</v>
@@ -35340,19 +35400,19 @@
         <v>177</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="Q9" s="13">
         <v>5</v>
       </c>
       <c r="R9" s="13" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="S9" s="13">
         <v>9</v>
@@ -35390,16 +35450,16 @@
         <v>164</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="Q10" s="13">
         <v>5</v>
       </c>
       <c r="R10" s="13" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="S10" s="13">
         <v>9</v>
@@ -35437,7 +35497,7 @@
         <v>165</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="7"/>
@@ -35452,13 +35512,13 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="8" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Q11" s="8">
         <v>3</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="S11" s="8">
         <v>3</v>
@@ -35472,13 +35532,13 @@
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AC11" s="7">
         <v>50</v>
       </c>
       <c r="AD11" s="8" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE11" s="8">
         <v>4900</v>
@@ -35526,46 +35586,46 @@
         <v>166</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Q12" s="13">
         <v>25</v>
       </c>
       <c r="R12" s="13" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="S12" s="13">
         <v>35</v>
       </c>
       <c r="Z12" s="12" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="AA12" s="12">
         <v>70</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AC12" s="12">
         <v>40</v>
       </c>
       <c r="AD12" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE12" s="13">
         <v>4000</v>
       </c>
       <c r="AF12" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG12" s="13">
         <v>650</v>
       </c>
       <c r="AH12" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AI12" s="13">
         <v>300</v>
@@ -35603,46 +35663,46 @@
         <v>167</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Q13" s="13">
         <v>35</v>
       </c>
       <c r="R13" s="13" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="S13" s="13">
         <v>55</v>
       </c>
       <c r="Z13" s="12" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="AA13" s="12">
         <v>90</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AC13" s="12">
         <v>45</v>
       </c>
       <c r="AD13" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE13" s="13">
         <v>3500</v>
       </c>
       <c r="AF13" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG13" s="13">
         <v>1000</v>
       </c>
       <c r="AH13" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AI13" s="13">
         <v>450</v>
@@ -35680,46 +35740,46 @@
         <v>168</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Q14" s="13">
         <v>40</v>
       </c>
       <c r="R14" s="13" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="S14" s="13">
         <v>75</v>
       </c>
       <c r="Z14" s="12" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="AA14" s="12">
         <v>110</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AC14" s="12">
         <v>50</v>
       </c>
       <c r="AD14" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE14" s="13">
         <v>3000</v>
       </c>
       <c r="AF14" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG14" s="13">
         <v>1250</v>
       </c>
       <c r="AH14" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AI14" s="13">
         <v>700</v>
@@ -35757,7 +35817,7 @@
         <v>179</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="AP15" s="13"/>
       <c r="AQ15" s="13"/>
@@ -35792,46 +35852,46 @@
         <v>180</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Q16" s="13">
         <v>0</v>
       </c>
       <c r="R16" s="13" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="S16" s="13">
         <v>35</v>
       </c>
       <c r="T16" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="U16" s="13">
         <v>20</v>
       </c>
       <c r="Z16" s="12" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="AA16" s="12">
         <v>85</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AC16" s="12">
         <v>45</v>
       </c>
       <c r="AD16" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE16" s="13">
         <v>750</v>
       </c>
       <c r="AH16" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AI16" s="13">
         <v>250</v>
@@ -35869,46 +35929,46 @@
         <v>181</v>
       </c>
       <c r="C17" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="P17" s="13" t="s">
         <v>379</v>
-      </c>
-      <c r="P17" s="13" t="s">
-        <v>369</v>
       </c>
       <c r="Q17" s="13">
         <v>0</v>
       </c>
       <c r="R17" s="13" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="S17" s="13">
         <v>45</v>
       </c>
       <c r="T17" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="U17" s="13">
         <v>25</v>
       </c>
       <c r="Z17" s="12" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="AA17" s="12">
         <v>105</v>
       </c>
       <c r="AB17" s="12" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AC17" s="12">
         <v>50</v>
       </c>
       <c r="AD17" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE17" s="13">
         <v>500</v>
       </c>
       <c r="AH17" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AI17" s="13">
         <v>500</v>
@@ -35946,46 +36006,46 @@
         <v>182</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Q18" s="13">
         <v>0</v>
       </c>
       <c r="R18" s="13" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="S18" s="13">
         <v>55</v>
       </c>
       <c r="T18" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="U18" s="13">
         <v>30</v>
       </c>
       <c r="Z18" s="12" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="AA18" s="12">
         <v>120</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AC18" s="12">
         <v>55</v>
       </c>
       <c r="AD18" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE18" s="13">
         <v>250</v>
       </c>
       <c r="AH18" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AI18" s="13">
         <v>750</v>
@@ -36023,7 +36083,7 @@
         <v>184</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="AP19" s="13"/>
       <c r="AQ19" s="13"/>
@@ -36058,43 +36118,43 @@
         <v>185</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="J20" s="13" t="s">
         <v>166</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Q20" s="13">
         <v>3</v>
       </c>
       <c r="R20" s="13" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="S20" s="13">
         <v>0</v>
       </c>
       <c r="T20" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="U20" s="13">
         <v>3</v>
       </c>
       <c r="AD20" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE20" s="13">
         <v>-750</v>
       </c>
       <c r="AF20" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG20" s="13">
         <v>150</v>
       </c>
       <c r="AH20" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AI20" s="13">
         <v>50</v>
@@ -36132,43 +36192,43 @@
         <v>186</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="J21" s="13" t="s">
         <v>167</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Q21" s="13">
         <v>10</v>
       </c>
       <c r="R21" s="13" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="S21" s="13">
         <v>0</v>
       </c>
       <c r="T21" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="U21" s="13">
         <v>5</v>
       </c>
       <c r="AD21" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE21" s="13">
         <v>-1250</v>
       </c>
       <c r="AF21" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG21" s="13">
         <v>50</v>
       </c>
       <c r="AH21" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AI21" s="13">
         <v>150</v>
@@ -36206,7 +36266,7 @@
         <v>188</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="AP22" s="13"/>
       <c r="AQ22" s="13"/>
@@ -36241,55 +36301,55 @@
         <v>189</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="J23" s="13" t="s">
         <v>180</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Q23" s="13">
         <v>0</v>
       </c>
       <c r="R23" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="S23" s="13">
         <v>1</v>
       </c>
       <c r="T23" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="U23" s="13">
         <v>1</v>
       </c>
       <c r="V23" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="W23" s="13">
         <v>1</v>
       </c>
       <c r="AD23" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE23" s="13">
         <v>-500</v>
       </c>
       <c r="AF23" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AG23" s="13">
         <v>0</v>
       </c>
       <c r="AH23" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AI23" s="13">
         <v>50</v>
@@ -36324,58 +36384,58 @@
         <v>102</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="J24" s="13" t="s">
         <v>181</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Q24" s="13">
         <v>0</v>
       </c>
       <c r="R24" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="S24" s="13">
         <v>2</v>
       </c>
       <c r="T24" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="U24" s="13">
         <v>1</v>
       </c>
       <c r="V24" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="W24" s="13">
         <v>2</v>
       </c>
       <c r="AD24" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE24" s="13">
         <v>-1000</v>
       </c>
       <c r="AF24" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AG24" s="13">
         <v>0</v>
       </c>
       <c r="AH24" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AI24" s="13">
         <v>100</v>
@@ -36413,55 +36473,55 @@
         <v>191</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="J25" s="13" t="s">
         <v>182</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Q25" s="13">
         <v>0</v>
       </c>
       <c r="R25" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="S25" s="13">
         <v>3</v>
       </c>
       <c r="T25" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="U25" s="13">
         <v>1</v>
       </c>
       <c r="V25" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="W25" s="13">
         <v>3</v>
       </c>
       <c r="AD25" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE25" s="13">
         <v>-2000</v>
       </c>
       <c r="AF25" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AG25" s="13">
         <v>0</v>
       </c>
       <c r="AH25" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AI25" s="13">
         <v>150</v>
@@ -36499,7 +36559,7 @@
         <v>193</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="AP26" s="13"/>
       <c r="AQ26" s="13"/>
@@ -36534,7 +36594,7 @@
         <v>194</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="J27" s="13" t="s">
         <v>186</v>
@@ -36543,52 +36603,52 @@
         <v>191</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="P27" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Q27" s="13">
         <v>5</v>
       </c>
       <c r="R27" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="S27" s="13">
         <v>1</v>
       </c>
       <c r="T27" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="U27" s="13">
         <v>3</v>
       </c>
       <c r="V27" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="W27" s="13">
         <v>1</v>
       </c>
       <c r="X27" s="13" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="Y27" s="13">
         <v>1</v>
       </c>
       <c r="AD27" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AE27" s="13">
         <v>-1250</v>
       </c>
       <c r="AF27" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AG27" s="13">
         <v>250</v>
       </c>
       <c r="AH27" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AI27" s="13">
         <v>250</v>
@@ -36626,22 +36686,22 @@
         <v>196</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="P28" s="13" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="Q28" s="13">
         <v>20</v>
       </c>
       <c r="Z28" s="12" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="AA28" s="12">
         <v>80</v>
       </c>
       <c r="AD28" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE28" s="13">
         <v>4900</v>
@@ -36679,46 +36739,46 @@
         <v>197</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="Q29" s="13">
         <v>40</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="S29" s="13">
         <v>10</v>
       </c>
       <c r="T29" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="U29" s="13">
         <v>5</v>
       </c>
       <c r="Z29" s="12" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="AA29" s="12">
         <v>120</v>
       </c>
       <c r="AD29" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE29" s="13">
         <v>4000</v>
       </c>
       <c r="AF29" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG29" s="13">
         <v>650</v>
       </c>
       <c r="AH29" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AI29" s="13">
         <v>300</v>
@@ -36756,58 +36816,58 @@
         <v>198</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="Q30" s="13">
         <v>50</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="S30" s="13">
         <v>10</v>
       </c>
       <c r="T30" s="13" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="U30" s="13">
         <v>10</v>
       </c>
       <c r="V30" s="13" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="W30" s="13">
         <v>10</v>
       </c>
       <c r="X30" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Y30" s="13">
         <v>5</v>
       </c>
       <c r="Z30" s="12" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="AA30" s="12">
         <v>180</v>
       </c>
       <c r="AD30" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE30" s="13">
         <v>3900</v>
       </c>
       <c r="AF30" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AG30" s="13">
         <v>750</v>
       </c>
       <c r="AH30" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AI30" s="13">
         <v>250</v>
@@ -36845,7 +36905,7 @@
         <v>206</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="AP31" s="13"/>
       <c r="AQ31" s="13"/>
@@ -36880,37 +36940,37 @@
         <v>201</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="J32" s="13" t="s">
         <v>196</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Q32" s="13">
         <v>2</v>
       </c>
       <c r="R32" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="S32" s="13">
         <v>2</v>
       </c>
       <c r="AD32" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE32" s="13">
         <v>-750</v>
       </c>
       <c r="AF32" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG32" s="13">
         <v>250</v>
       </c>
       <c r="AH32" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AI32" s="13">
         <v>150</v>
@@ -36948,37 +37008,37 @@
         <v>202</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="J33" s="13" t="s">
         <v>197</v>
       </c>
       <c r="P33" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Q33" s="13">
         <v>5</v>
       </c>
       <c r="R33" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="S33" s="13">
         <v>5</v>
       </c>
       <c r="AD33" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE33" s="13">
         <v>-1250</v>
       </c>
       <c r="AF33" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG33" s="13">
         <v>200</v>
       </c>
       <c r="AH33" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AI33" s="13">
         <v>200</v>
@@ -37016,43 +37076,43 @@
         <v>203</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="J34" s="13" t="s">
         <v>197</v>
       </c>
       <c r="P34" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Q34" s="13">
         <v>10</v>
       </c>
       <c r="R34" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="S34" s="13">
         <v>10</v>
       </c>
       <c r="T34" s="13" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="U34" s="13">
         <v>1</v>
       </c>
       <c r="AD34" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE34" s="13">
         <v>-2000</v>
       </c>
       <c r="AF34" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG34" s="13">
         <v>150</v>
       </c>
       <c r="AH34" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AI34" s="13">
         <v>250</v>
@@ -37090,58 +37150,58 @@
         <v>204</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="J35" s="13" t="s">
         <v>198</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="P35" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Q35" s="13">
         <v>10</v>
       </c>
       <c r="R35" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="S35" s="13">
         <v>10</v>
       </c>
       <c r="T35" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="U35" s="13">
         <v>2</v>
       </c>
       <c r="V35" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="W35" s="13">
         <v>2</v>
       </c>
       <c r="X35" s="13" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="Y35" s="13">
         <v>1</v>
       </c>
       <c r="AD35" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE35" s="13">
         <v>-3900</v>
       </c>
       <c r="AF35" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AG35" s="13">
         <v>500</v>
       </c>
       <c r="AH35" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AI35" s="13">
         <v>500</v>
@@ -37179,49 +37239,49 @@
         <v>160</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="Q36" s="13">
         <v>5</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="S36" s="13">
         <v>5</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="U36" s="13">
         <v>5</v>
       </c>
       <c r="Z36" s="12" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="AA36" s="12">
         <v>40</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AE36" s="13">
         <v>1100</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="AG36" s="13">
         <v>350</v>
       </c>
       <c r="AH36" s="13" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="AI36" s="13">
         <v>50</v>
@@ -37259,49 +37319,49 @@
         <v>205</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="P37" s="13" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="Q37" s="13">
         <v>10</v>
       </c>
       <c r="R37" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="S37" s="13">
         <v>10</v>
       </c>
       <c r="T37" s="13" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="U37" s="13">
         <v>5</v>
       </c>
       <c r="Z37" s="12" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="AA37" s="12">
         <v>50</v>
       </c>
       <c r="AD37" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AE37" s="13">
         <v>1000</v>
       </c>
       <c r="AF37" s="13" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="AG37" s="13">
         <v>450</v>
       </c>
       <c r="AH37" s="13" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="AI37" s="13">
         <v>50</v>
@@ -37315,61 +37375,61 @@
         <v>162</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="P38" s="13" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="Q38" s="13">
         <v>10</v>
       </c>
       <c r="R38" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="S38" s="13">
         <v>10</v>
       </c>
       <c r="T38" s="13" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="U38" s="13">
         <v>10</v>
       </c>
       <c r="V38" s="13" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="W38" s="13">
         <v>5</v>
       </c>
       <c r="X38" s="13" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="Y38" s="13">
         <v>5</v>
       </c>
       <c r="Z38" s="12" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="AA38" s="12">
         <v>70</v>
       </c>
       <c r="AD38" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AE38" s="13">
         <v>800</v>
       </c>
       <c r="AF38" s="13" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="AG38" s="13">
         <v>650</v>
       </c>
       <c r="AH38" s="13" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="AI38" s="13">
         <v>100</v>
@@ -37383,7 +37443,7 @@
         <v>206</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="E39" s="13"/>
       <c r="G39" s="13"/>
@@ -37396,31 +37456,31 @@
         <v>207</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="R40" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="S40" s="13">
         <v>1</v>
       </c>
       <c r="T40" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="U40" s="13">
         <v>1</v>
       </c>
       <c r="V40" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="W40" s="13">
         <v>1</v>
       </c>
       <c r="AD40" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AE40" s="13">
         <v>-200</v>
@@ -37434,37 +37494,37 @@
         <v>208</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="R41" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="S41" s="13">
         <v>2</v>
       </c>
       <c r="T41" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="U41" s="13">
         <v>2</v>
       </c>
       <c r="V41" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="W41" s="13">
         <v>2</v>
       </c>
       <c r="AD41" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AE41" s="13">
         <v>-300</v>
       </c>
       <c r="AF41" s="13" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="AG41" s="13">
         <v>-50</v>
@@ -37478,37 +37538,37 @@
         <v>209</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="R42" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="S42" s="13">
         <v>3</v>
       </c>
       <c r="T42" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="U42" s="13">
         <v>3</v>
       </c>
       <c r="V42" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="W42" s="13">
         <v>3</v>
       </c>
       <c r="AD42" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AE42" s="13">
         <v>-500</v>
       </c>
       <c r="AF42" s="13" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="AG42" s="13">
         <v>-100</v>
@@ -37522,52 +37582,52 @@
         <v>210</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="J43" s="13" t="s">
         <v>162</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="P43" s="13" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="Q43" s="13">
         <v>1</v>
       </c>
       <c r="R43" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="S43" s="13">
         <v>2</v>
       </c>
       <c r="T43" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="U43" s="13">
         <v>2</v>
       </c>
       <c r="V43" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="W43" s="13">
         <v>2</v>
       </c>
       <c r="X43" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Y43" s="13">
         <v>5</v>
       </c>
       <c r="AD43" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AE43" s="13">
         <v>-800</v>
       </c>
       <c r="AF43" s="13" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="AG43" s="13">
         <v>-150</v>
@@ -37581,46 +37641,46 @@
         <v>212</v>
       </c>
       <c r="C44" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="P44" s="13" t="s">
         <v>410</v>
-      </c>
-      <c r="P44" s="13" t="s">
-        <v>400</v>
       </c>
       <c r="Q44" s="13">
         <v>5</v>
       </c>
       <c r="R44" s="13" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="S44" s="13">
         <v>15</v>
       </c>
       <c r="T44" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="U44" s="13">
         <v>5</v>
       </c>
       <c r="Z44" s="12" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AA44" s="12">
         <v>50</v>
       </c>
       <c r="AD44" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AE44" s="13">
         <v>1100</v>
       </c>
       <c r="AF44" s="13" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="AG44" s="13">
         <v>350</v>
       </c>
       <c r="AH44" s="13" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="AI44" s="13">
         <v>50</v>
@@ -37634,46 +37694,46 @@
         <v>213</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="P45" s="13" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="Q45" s="13">
         <v>15</v>
       </c>
       <c r="R45" s="13" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="S45" s="13">
         <v>20</v>
       </c>
       <c r="T45" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="U45" s="13">
         <v>15</v>
       </c>
       <c r="Z45" s="12" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AA45" s="12">
         <v>100</v>
       </c>
       <c r="AD45" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AE45" s="13">
         <v>1000</v>
       </c>
       <c r="AF45" s="13" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="AG45" s="13">
         <v>450</v>
       </c>
       <c r="AH45" s="13" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="AI45" s="13">
         <v>50</v>
@@ -37687,46 +37747,46 @@
         <v>214</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="P46" s="13" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="Q46" s="13">
         <v>20</v>
       </c>
       <c r="R46" s="13" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="S46" s="13">
         <v>25</v>
       </c>
       <c r="T46" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="U46" s="13">
         <v>20</v>
       </c>
       <c r="Z46" s="12" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AA46" s="12">
         <v>140</v>
       </c>
       <c r="AD46" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AE46" s="13">
         <v>800</v>
       </c>
       <c r="AF46" s="13" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="AG46" s="13">
         <v>650</v>
       </c>
       <c r="AH46" s="13" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="AI46" s="13">
         <v>100</v>
@@ -37740,7 +37800,7 @@
         <v>206</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -37751,28 +37811,28 @@
         <v>215</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="P48" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="Q48" s="13">
         <v>1</v>
       </c>
       <c r="R48" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="S48" s="13">
         <v>1</v>
       </c>
       <c r="T48" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="U48" s="13">
         <v>1</v>
       </c>
       <c r="AD48" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AE48" s="13">
         <v>-200</v>
@@ -37786,34 +37846,34 @@
         <v>216</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="P49" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="Q49" s="13">
         <v>2</v>
       </c>
       <c r="R49" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="S49" s="13">
         <v>2</v>
       </c>
       <c r="T49" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="U49" s="13">
         <v>2</v>
       </c>
       <c r="AD49" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AE49" s="13">
         <v>-300</v>
       </c>
       <c r="AF49" s="13" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="AG49" s="13">
         <v>-50</v>
@@ -37827,34 +37887,34 @@
         <v>217</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="P50" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="Q50" s="13">
         <v>3</v>
       </c>
       <c r="R50" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="S50" s="13">
         <v>3</v>
       </c>
       <c r="T50" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="U50" s="13">
         <v>3</v>
       </c>
       <c r="AD50" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AE50" s="13">
         <v>-500</v>
       </c>
       <c r="AF50" s="13" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="AG50" s="13">
         <v>-100</v>
@@ -37868,46 +37928,46 @@
         <v>218</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="P51" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="Q51" s="13">
         <v>2</v>
       </c>
       <c r="R51" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="S51" s="13">
         <v>2</v>
       </c>
       <c r="T51" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="U51" s="13">
         <v>2</v>
       </c>
       <c r="V51" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="W51" s="13">
         <v>5</v>
       </c>
       <c r="X51" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="Y51" s="13">
         <v>5</v>
       </c>
       <c r="AD51" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AE51" s="13">
         <v>-800</v>
       </c>
       <c r="AF51" s="13" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="AG51" s="13">
         <v>-150</v>
@@ -37918,55 +37978,55 @@
         <v>114</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="P52" s="13" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="Q52" s="13">
         <v>30</v>
       </c>
       <c r="Z52" s="12" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="AA52" s="12">
         <v>10</v>
       </c>
       <c r="AD52" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE52" s="13">
         <v>500</v>
       </c>
       <c r="AF52" s="13" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="AG52" s="13">
         <v>3500</v>
       </c>
       <c r="AH52" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AI52" s="13">
         <v>900</v>
       </c>
       <c r="AP52" s="12" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="AQ52" s="12">
         <v>0.5</v>
       </c>
       <c r="AR52" s="12" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="AS52" s="12">
         <v>0.25</v>
       </c>
       <c r="AT52" s="12" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="AU52" s="12">
         <v>0.5</v>
@@ -37980,46 +38040,46 @@
         <v>221</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="P53" s="13" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="Q53" s="13">
         <v>10</v>
       </c>
       <c r="Z53" s="12" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="AA53" s="12">
         <v>40</v>
       </c>
       <c r="AD53" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE53" s="13">
         <v>1000</v>
       </c>
       <c r="AF53" s="13" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="AG53" s="13">
         <v>2500</v>
       </c>
       <c r="AH53" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AI53" s="13">
         <v>900</v>
       </c>
       <c r="AP53" s="12" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="AQ53" s="12">
         <v>1.5</v>
       </c>
       <c r="AR53" s="12" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="AS53" s="12">
         <v>0.25</v>
@@ -38033,34 +38093,34 @@
         <v>223</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="P54" s="13" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="Q54" s="13">
         <v>5</v>
       </c>
       <c r="R54" s="13" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="S54" s="13">
         <v>5</v>
       </c>
       <c r="Z54" s="12" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="AA54" s="12">
         <v>40</v>
       </c>
       <c r="AD54" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE54" s="13">
         <v>4500</v>
       </c>
       <c r="AF54" s="13" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="AG54" s="13">
         <v>400</v>
@@ -38074,34 +38134,34 @@
         <v>224</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="P55" s="13" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="Q55" s="13">
         <v>10</v>
       </c>
       <c r="R55" s="13" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="S55" s="13">
         <v>10</v>
       </c>
       <c r="Z55" s="12" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="AA55" s="12">
         <v>80</v>
       </c>
       <c r="AD55" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE55" s="13">
         <v>4500</v>
       </c>
       <c r="AF55" s="13" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="AG55" s="13">
         <v>400</v>
@@ -38115,40 +38175,40 @@
         <v>225</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="P56" s="13" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="Q56" s="13">
         <v>10</v>
       </c>
       <c r="R56" s="13" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="S56" s="13">
         <v>10</v>
       </c>
       <c r="T56" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="U56" s="13">
         <v>5</v>
       </c>
       <c r="Z56" s="12" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="AA56" s="12">
         <v>120</v>
       </c>
       <c r="AD56" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE56" s="13">
         <v>4500</v>
       </c>
       <c r="AF56" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AG56" s="13">
         <v>400</v>
@@ -38162,46 +38222,46 @@
         <v>226</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="P57" s="13" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="Q57" s="13">
         <v>10</v>
       </c>
       <c r="R57" s="13" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="S57" s="13">
         <v>10</v>
       </c>
       <c r="T57" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="U57" s="13">
         <v>10</v>
       </c>
       <c r="V57" s="13" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="W57" s="13">
         <v>5</v>
       </c>
       <c r="Z57" s="12" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="AA57" s="12">
         <v>160</v>
       </c>
       <c r="AD57" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE57" s="13">
         <v>4000</v>
       </c>
       <c r="AF57" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AG57" s="13">
         <v>900</v>
@@ -38215,7 +38275,7 @@
         <v>206</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="59" spans="1:33">
@@ -38226,7 +38286,7 @@
         <v>227</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="J59" s="13" t="s">
         <v>225</v>
@@ -38235,31 +38295,31 @@
         <v>226</v>
       </c>
       <c r="P59" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="Q59" s="13">
         <v>2</v>
       </c>
       <c r="R59" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="S59" s="13">
         <v>1</v>
       </c>
       <c r="T59" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="U59" s="13">
         <v>2</v>
       </c>
       <c r="AD59" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE59" s="13">
         <v>-1000</v>
       </c>
       <c r="AF59" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AG59" s="13">
         <v>100</v>
@@ -38273,7 +38333,7 @@
         <v>228</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="J60" s="13" t="s">
         <v>225</v>
@@ -38282,31 +38342,31 @@
         <v>226</v>
       </c>
       <c r="P60" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="Q60" s="13">
         <v>3</v>
       </c>
       <c r="R60" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="S60" s="13">
         <v>2</v>
       </c>
       <c r="T60" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="U60" s="13">
         <v>3</v>
       </c>
       <c r="AD60" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE60" s="13">
         <v>-2000</v>
       </c>
       <c r="AF60" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AG60" s="13">
         <v>200</v>
@@ -38320,7 +38380,7 @@
         <v>229</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="J61" s="13" t="s">
         <v>225</v>
@@ -38329,31 +38389,31 @@
         <v>226</v>
       </c>
       <c r="P61" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="Q61" s="13">
         <v>4</v>
       </c>
       <c r="R61" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="S61" s="13">
         <v>3</v>
       </c>
       <c r="T61" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="U61" s="13">
         <v>4</v>
       </c>
       <c r="AD61" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE61" s="13">
         <v>-3000</v>
       </c>
       <c r="AF61" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AG61" s="13">
         <v>300</v>
@@ -38364,49 +38424,49 @@
         <v>230</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K62" s="13" t="s">
         <v>226</v>
       </c>
       <c r="P62" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="Q62" s="13">
         <v>3</v>
       </c>
       <c r="R62" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="S62" s="13">
         <v>2</v>
       </c>
       <c r="T62" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="U62" s="13">
         <v>4</v>
       </c>
       <c r="V62" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="W62" s="13">
         <v>5</v>
       </c>
       <c r="X62" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="Y62" s="13">
         <v>5</v>
       </c>
       <c r="AD62" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE62" s="13">
         <v>-4000</v>
       </c>
       <c r="AF62" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AG62" s="13">
         <v>400</v>
@@ -38420,28 +38480,28 @@
         <v>232</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="P63" s="13" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="Q63" s="13">
         <v>10</v>
       </c>
       <c r="Z63" s="12" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="AA63" s="12">
         <v>40</v>
       </c>
       <c r="AD63" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE63" s="13">
         <v>4500</v>
       </c>
       <c r="AF63" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AG63" s="13">
         <v>400</v>
@@ -38455,28 +38515,28 @@
         <v>233</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="P64" s="13" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="Q64" s="13">
         <v>15</v>
       </c>
       <c r="Z64" s="12" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="AA64" s="12">
         <v>65</v>
       </c>
       <c r="AD64" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE64" s="13">
         <v>4300</v>
       </c>
       <c r="AF64" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AG64" s="13">
         <v>600</v>
@@ -38490,28 +38550,28 @@
         <v>234</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P65" s="13" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="Q65" s="13">
         <v>20</v>
       </c>
       <c r="Z65" s="12" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="AA65" s="12">
         <v>90</v>
       </c>
       <c r="AD65" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE65" s="13">
         <v>4000</v>
       </c>
       <c r="AF65" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AG65" s="13">
         <v>900</v>
@@ -38525,7 +38585,7 @@
         <v>236</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="67" spans="1:33">
@@ -38539,49 +38599,49 @@
         <v>235</v>
       </c>
       <c r="P67" s="13" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="Q67" s="13">
         <v>5</v>
       </c>
       <c r="R67" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="S67" s="13">
         <v>5</v>
       </c>
       <c r="T67" s="13" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="U67" s="13">
         <v>5</v>
       </c>
       <c r="V67" s="13" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="W67" s="13">
         <v>5</v>
       </c>
       <c r="X67" s="13" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="Y67" s="13">
         <v>5</v>
       </c>
       <c r="Z67" s="12" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="AA67" s="12">
         <v>40</v>
       </c>
       <c r="AD67" s="13" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="AE67" s="13">
         <v>100</v>
       </c>
       <c r="AF67" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AG67" s="13">
         <v>100</v>
@@ -38595,7 +38655,7 @@
         <v>206</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="69" spans="1:33">
@@ -38606,34 +38666,34 @@
         <v>238</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="P69" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="Q69" s="13">
         <v>2</v>
       </c>
       <c r="R69" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="S69" s="13">
         <v>1</v>
       </c>
       <c r="T69" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="U69" s="13">
         <v>2</v>
       </c>
       <c r="AD69" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE69" s="13">
         <v>-1000</v>
       </c>
       <c r="AF69" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AG69" s="13">
         <v>100</v>
@@ -38647,34 +38707,34 @@
         <v>239</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="P70" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="Q70" s="13">
         <v>3</v>
       </c>
       <c r="R70" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="S70" s="13">
         <v>2</v>
       </c>
       <c r="T70" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="U70" s="13">
         <v>3</v>
       </c>
       <c r="AD70" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE70" s="13">
         <v>-2000</v>
       </c>
       <c r="AF70" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AG70" s="13">
         <v>200</v>
@@ -38688,34 +38748,34 @@
         <v>240</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="P71" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="Q71" s="13">
         <v>4</v>
       </c>
       <c r="R71" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="S71" s="13">
         <v>3</v>
       </c>
       <c r="T71" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="U71" s="13">
         <v>4</v>
       </c>
       <c r="AD71" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE71" s="13">
         <v>-3000</v>
       </c>
       <c r="AF71" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AG71" s="13">
         <v>300</v>
@@ -38729,46 +38789,46 @@
         <v>241</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="P72" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="Q72" s="13">
         <v>3</v>
       </c>
       <c r="R72" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="S72" s="13">
         <v>2</v>
       </c>
       <c r="T72" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="U72" s="13">
         <v>4</v>
       </c>
       <c r="V72" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="W72" s="13">
         <v>5</v>
       </c>
       <c r="X72" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="Y72" s="13">
         <v>5</v>
       </c>
       <c r="AD72" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE72" s="13">
         <v>-4000</v>
       </c>
       <c r="AF72" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AG72" s="13">
         <v>400</v>
@@ -38782,7 +38842,7 @@
         <v>243</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74" spans="1:35">
@@ -38793,16 +38853,16 @@
         <v>244</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="Q74" s="13">
         <v>10</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="S74" s="13">
         <v>10</v>
@@ -38814,19 +38874,19 @@
         <v>40</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE74" s="13">
         <v>2000</v>
       </c>
       <c r="AF74" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG74" s="13">
         <v>350</v>
       </c>
       <c r="AH74" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AI74" s="13">
         <v>100</v>
@@ -38840,22 +38900,22 @@
         <v>245</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="P75" s="13" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="Q75" s="13">
         <v>10</v>
       </c>
       <c r="R75" s="13" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="S75" s="13">
         <v>10</v>
       </c>
       <c r="V75" s="13" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="W75" s="13">
         <v>10</v>
@@ -38867,19 +38927,19 @@
         <v>80</v>
       </c>
       <c r="AD75" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE75" s="13">
         <v>2000</v>
       </c>
       <c r="AF75" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AG75" s="13">
         <v>250</v>
       </c>
       <c r="AH75" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AI75" s="13">
         <v>250</v>
@@ -38893,7 +38953,7 @@
         <v>247</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
     </row>
     <row r="77" spans="1:35">
@@ -38904,40 +38964,40 @@
         <v>248</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="P77" s="13" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="Q77" s="13">
         <v>10</v>
       </c>
       <c r="R77" s="13" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="S77" s="13">
         <v>5</v>
       </c>
       <c r="Z77" s="12" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="AA77" s="12">
         <v>30</v>
       </c>
       <c r="AD77" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE77" s="13">
         <v>2000</v>
       </c>
       <c r="AF77" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG77" s="13">
         <v>350</v>
       </c>
       <c r="AH77" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AI77" s="13">
         <v>100</v>
@@ -38951,52 +39011,52 @@
         <v>249</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="P78" s="13" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="Q78" s="13">
         <v>10</v>
       </c>
       <c r="R78" s="13" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="S78" s="13">
         <v>5</v>
       </c>
       <c r="T78" s="13" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="U78" s="13">
         <v>5</v>
       </c>
       <c r="V78" s="13" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="W78" s="13">
         <v>5</v>
       </c>
       <c r="Z78" s="12" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="AA78" s="12">
         <v>50</v>
       </c>
       <c r="AD78" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AE78" s="13">
         <v>1000</v>
       </c>
       <c r="AF78" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AG78" s="13">
         <v>250</v>
       </c>
       <c r="AH78" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AI78" s="13">
         <v>250</v>
@@ -39010,7 +39070,7 @@
         <v>206</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="80" spans="1:35">
@@ -39021,34 +39081,34 @@
         <v>250</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="P80" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Q80" s="13">
         <v>2</v>
       </c>
       <c r="R80" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="S80" s="13">
         <v>2</v>
       </c>
       <c r="AD80" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE80" s="13">
         <v>-1000</v>
       </c>
       <c r="AF80" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG80" s="13">
         <v>350</v>
       </c>
       <c r="AH80" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AI80" s="13">
         <v>150</v>
@@ -39062,34 +39122,34 @@
         <v>251</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="P81" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Q81" s="13">
         <v>4</v>
       </c>
       <c r="R81" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="S81" s="13">
         <v>4</v>
       </c>
       <c r="AD81" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE81" s="13">
         <v>-2000</v>
       </c>
       <c r="AF81" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG81" s="13">
         <v>250</v>
       </c>
       <c r="AH81" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AI81" s="13">
         <v>250</v>
@@ -39103,7 +39163,7 @@
         <v>252</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>244</v>
@@ -39112,37 +39172,37 @@
         <v>248</v>
       </c>
       <c r="P82" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Q82" s="13">
         <v>8</v>
       </c>
       <c r="R82" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="S82" s="13">
         <v>8</v>
       </c>
       <c r="T82" s="13" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="U82" s="13">
         <v>1</v>
       </c>
       <c r="AD82" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE82" s="13">
         <v>-2000</v>
       </c>
       <c r="AF82" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG82" s="13">
         <v>150</v>
       </c>
       <c r="AH82" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AI82" s="13">
         <v>350</v>
@@ -39156,7 +39216,7 @@
         <v>253</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>249</v>
@@ -39165,55 +39225,55 @@
         <v>245</v>
       </c>
       <c r="M83" s="12" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="N83" s="12" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="P83" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Q83" s="13">
         <v>8</v>
       </c>
       <c r="R83" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="S83" s="13">
         <v>8</v>
       </c>
       <c r="T83" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="U83" s="13">
         <v>1</v>
       </c>
       <c r="V83" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="W83" s="13">
         <v>2</v>
       </c>
       <c r="X83" s="13" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="Y83" s="13">
         <v>1</v>
       </c>
       <c r="AD83" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE83" s="13">
         <v>-2000</v>
       </c>
       <c r="AF83" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG83" s="13">
         <v>-500</v>
       </c>
       <c r="AH83" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AI83" s="13">
         <v>250</v>
@@ -39227,7 +39287,7 @@
         <v>243</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="85" spans="1:33">
@@ -39238,22 +39298,22 @@
         <v>255</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="P85" s="13" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="Q85" s="13">
         <v>10</v>
       </c>
       <c r="R85" s="13" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="S85" s="13">
         <v>10</v>
       </c>
       <c r="T85" s="13" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="U85" s="13">
         <v>5</v>
@@ -39265,13 +39325,13 @@
         <v>40</v>
       </c>
       <c r="AD85" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE85" s="13">
         <v>2000</v>
       </c>
       <c r="AF85" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AG85" s="13">
         <v>450</v>
@@ -39285,22 +39345,22 @@
         <v>256</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="P86" s="13" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="Q86" s="13">
         <v>20</v>
       </c>
       <c r="R86" s="13" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="S86" s="13">
         <v>20</v>
       </c>
       <c r="T86" s="13" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="U86" s="13">
         <v>10</v>
@@ -39312,13 +39372,13 @@
         <v>80</v>
       </c>
       <c r="AD86" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE86" s="13">
         <v>2000</v>
       </c>
       <c r="AF86" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AG86" s="13">
         <v>450</v>
@@ -39332,7 +39392,7 @@
         <v>247</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
     </row>
     <row r="88" spans="1:33">
@@ -39343,40 +39403,40 @@
         <v>257</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="P88" s="13" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="Q88" s="13">
         <v>10</v>
       </c>
       <c r="R88" s="13" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="S88" s="13">
         <v>5</v>
       </c>
       <c r="T88" s="13" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="U88" s="13">
         <v>5</v>
       </c>
       <c r="Z88" s="12" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="AA88" s="12">
         <v>30</v>
       </c>
       <c r="AD88" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE88" s="13">
         <v>2000</v>
       </c>
       <c r="AF88" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AG88" s="13">
         <v>450</v>
@@ -39390,52 +39450,52 @@
         <v>249</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="P89" s="13" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="Q89" s="13">
         <v>10</v>
       </c>
       <c r="R89" s="13" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="S89" s="13">
         <v>5</v>
       </c>
       <c r="T89" s="13" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="U89" s="13">
         <v>5</v>
       </c>
       <c r="V89" s="13" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="W89" s="13">
         <v>5</v>
       </c>
       <c r="Z89" s="12" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="AA89" s="12">
         <v>50</v>
       </c>
       <c r="AD89" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AE89" s="13">
         <v>1000</v>
       </c>
       <c r="AF89" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AG89" s="13">
         <v>250</v>
       </c>
       <c r="AH89" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AI89" s="13">
         <v>250</v>
@@ -39449,7 +39509,7 @@
         <v>206</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="91" spans="1:35">
@@ -39460,34 +39520,34 @@
         <v>258</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="P91" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="Q91" s="13">
         <v>1</v>
       </c>
       <c r="R91" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="S91" s="13">
         <v>1</v>
       </c>
       <c r="T91" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="U91" s="13">
         <v>2</v>
       </c>
       <c r="AD91" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE91" s="13">
         <v>-500</v>
       </c>
       <c r="AH91" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AI91" s="13">
         <v>50</v>
@@ -39501,34 +39561,34 @@
         <v>259</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="P92" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="Q92" s="13">
         <v>2</v>
       </c>
       <c r="R92" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="S92" s="13">
         <v>2</v>
       </c>
       <c r="T92" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="U92" s="13">
         <v>3</v>
       </c>
       <c r="AD92" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE92" s="13">
         <v>-1000</v>
       </c>
       <c r="AH92" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AI92" s="13">
         <v>100</v>
@@ -39542,34 +39602,34 @@
         <v>260</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="P93" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="Q93" s="13">
         <v>3</v>
       </c>
       <c r="R93" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="S93" s="13">
         <v>3</v>
       </c>
       <c r="T93" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="U93" s="13">
         <v>4</v>
       </c>
       <c r="AD93" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE93" s="13">
         <v>-1500</v>
       </c>
       <c r="AH93" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AI93" s="13">
         <v>150</v>
@@ -39583,7 +39643,7 @@
         <v>261</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>256</v>
@@ -39592,49 +39652,49 @@
         <v>249</v>
       </c>
       <c r="P94" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="Q94" s="13">
         <v>3</v>
       </c>
       <c r="R94" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="S94" s="13">
         <v>2</v>
       </c>
       <c r="T94" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="U94" s="13">
         <v>4</v>
       </c>
       <c r="V94" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="W94" s="13">
         <v>5</v>
       </c>
       <c r="X94" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="Y94" s="13">
         <v>5</v>
       </c>
       <c r="AD94" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE94" s="13">
         <v>-2000</v>
       </c>
       <c r="AF94" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG94" s="13">
         <v>-1000</v>
       </c>
       <c r="AH94" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AI94" s="13">
         <v>250</v>
@@ -39648,46 +39708,46 @@
         <v>263</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="P95" s="13" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="Q95" s="13">
         <v>10</v>
       </c>
       <c r="R95" s="13" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="S95" s="13">
         <v>8</v>
       </c>
       <c r="T95" s="13" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="U95" s="13">
         <v>5</v>
       </c>
       <c r="Z95" s="12" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="AA95" s="12">
         <v>40</v>
       </c>
       <c r="AD95" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE95" s="13">
         <v>3500</v>
       </c>
       <c r="AF95" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG95" s="13">
         <v>350</v>
       </c>
       <c r="AH95" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AI95" s="13">
         <v>150</v>
@@ -39701,58 +39761,58 @@
         <v>264</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="P96" s="13" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="Q96" s="13">
         <v>10</v>
       </c>
       <c r="R96" s="13" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="S96" s="13">
         <v>8</v>
       </c>
       <c r="T96" s="13" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="U96" s="13">
         <v>10</v>
       </c>
       <c r="V96" s="13" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="W96" s="13">
         <v>5</v>
       </c>
       <c r="X96" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="Y96" s="13">
         <v>5</v>
       </c>
       <c r="Z96" s="12" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="AA96" s="12">
         <v>70</v>
       </c>
       <c r="AD96" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE96" s="13">
         <v>3000</v>
       </c>
       <c r="AF96" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG96" s="13">
         <v>250</v>
       </c>
       <c r="AH96" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AI96" s="13">
         <v>250</v>
@@ -39766,58 +39826,58 @@
         <v>265</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="P97" s="13" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="Q97" s="13">
         <v>12</v>
       </c>
       <c r="R97" s="13" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="S97" s="13">
         <v>8</v>
       </c>
       <c r="T97" s="13" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="U97" s="13">
         <v>12</v>
       </c>
       <c r="V97" s="13" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="W97" s="13">
         <v>7</v>
       </c>
       <c r="X97" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="Y97" s="13">
         <v>7</v>
       </c>
       <c r="Z97" s="12" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="AA97" s="12">
         <v>90</v>
       </c>
       <c r="AD97" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE97" s="13">
         <v>2500</v>
       </c>
       <c r="AF97" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG97" s="13">
         <v>150</v>
       </c>
       <c r="AH97" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AI97" s="13">
         <v>350</v>
@@ -39831,52 +39891,52 @@
         <v>266</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="P98" s="13" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="Q98" s="13">
         <v>15</v>
       </c>
       <c r="R98" s="13" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="S98" s="13">
         <v>8</v>
       </c>
       <c r="T98" s="13" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="U98" s="13">
         <v>15</v>
       </c>
       <c r="V98" s="13" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="W98" s="13">
         <v>10</v>
       </c>
       <c r="X98" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="Y98" s="13">
         <v>10</v>
       </c>
       <c r="Z98" s="12" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="AA98" s="12">
         <v>120</v>
       </c>
       <c r="AD98" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AE98" s="13">
         <v>1500</v>
       </c>
       <c r="AF98" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AG98" s="13">
         <v>500</v>
@@ -39890,7 +39950,7 @@
         <v>268</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
     </row>
     <row r="100" spans="1:35">
@@ -39901,40 +39961,40 @@
         <v>269</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="P100" s="13" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="Q100" s="13">
         <v>5</v>
       </c>
       <c r="R100" s="13" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="S100" s="13">
         <v>5</v>
       </c>
       <c r="Z100" s="12" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="AA100" s="12">
         <v>10</v>
       </c>
       <c r="AD100" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE100" s="13">
         <v>1000</v>
       </c>
       <c r="AF100" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG100" s="13">
         <v>250</v>
       </c>
       <c r="AH100" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AI100" s="13">
         <v>150</v>
@@ -39948,40 +40008,40 @@
         <v>270</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="P101" s="13" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="Q101" s="13">
         <v>10</v>
       </c>
       <c r="R101" s="13" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="S101" s="13">
         <v>10</v>
       </c>
       <c r="Z101" s="12" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="AA101" s="12">
         <v>20</v>
       </c>
       <c r="AD101" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE101" s="13">
         <v>1000</v>
       </c>
       <c r="AF101" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG101" s="13">
         <v>150</v>
       </c>
       <c r="AH101" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AI101" s="13">
         <v>250</v>
@@ -39995,34 +40055,34 @@
         <v>271</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="P102" s="13" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="Q102" s="13">
         <v>15</v>
       </c>
       <c r="R102" s="13" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="S102" s="13">
         <v>15</v>
       </c>
       <c r="Z102" s="12" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="AA102" s="12">
         <v>30</v>
       </c>
       <c r="AD102" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AE102" s="13">
         <v>500</v>
       </c>
       <c r="AF102" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AG102" s="13">
         <v>500</v>
@@ -40036,7 +40096,7 @@
         <v>200</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="104" spans="1:34">
@@ -40047,31 +40107,31 @@
         <v>273</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="P104" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Q104" s="13">
         <v>2</v>
       </c>
       <c r="R104" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="S104" s="13">
         <v>2</v>
       </c>
       <c r="AD104" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE104" s="13">
         <v>-1000</v>
       </c>
       <c r="AF104" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AH104" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="105" spans="1:34">
@@ -40082,31 +40142,31 @@
         <v>274</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="P105" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Q105" s="13">
         <v>5</v>
       </c>
       <c r="R105" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="S105" s="13">
         <v>5</v>
       </c>
       <c r="AD105" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE105" s="13">
         <v>-2000</v>
       </c>
       <c r="AF105" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AH105" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="106" spans="1:35">
@@ -40117,40 +40177,40 @@
         <v>275</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="P106" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Q106" s="13">
         <v>10</v>
       </c>
       <c r="R106" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="S106" s="13">
         <v>10</v>
       </c>
       <c r="T106" s="13" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="U106" s="13">
         <v>1</v>
       </c>
       <c r="AD106" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE106" s="13">
         <v>-3500</v>
       </c>
       <c r="AF106" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG106" s="13">
         <v>500</v>
       </c>
       <c r="AH106" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AI106" s="13">
         <v>250</v>
@@ -40164,7 +40224,7 @@
         <v>276</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>271</v>
@@ -40173,49 +40233,49 @@
         <v>266</v>
       </c>
       <c r="P107" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Q107" s="13">
         <v>8</v>
       </c>
       <c r="R107" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="S107" s="13">
         <v>8</v>
       </c>
       <c r="T107" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="U107" s="13">
         <v>1</v>
       </c>
       <c r="V107" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="W107" s="13">
         <v>1</v>
       </c>
       <c r="X107" s="13" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="Y107" s="13">
         <v>1</v>
       </c>
       <c r="AD107" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AE107" s="13">
         <v>-2000</v>
       </c>
       <c r="AF107" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AG107" s="13">
         <v>250</v>
       </c>
       <c r="AH107" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AI107" s="13">
         <v>250</v>
@@ -40229,49 +40289,49 @@
         <v>278</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="M108" s="12" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="N108" s="12" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="O108" s="12" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="P108" s="13" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="Q108" s="13">
         <v>3</v>
       </c>
       <c r="R108" s="13" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="S108" s="13">
         <v>6</v>
       </c>
       <c r="AD108" s="13" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="AE108" s="13">
         <v>90</v>
       </c>
       <c r="AF108" s="13" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="AG108" s="13">
         <v>10</v>
       </c>
       <c r="AP108" s="81" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="AQ108" s="81">
         <v>3</v>
       </c>
       <c r="AR108" s="81" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AS108" s="81">
         <v>2</v>
@@ -40285,28 +40345,28 @@
         <v>279</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="M109" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="N109" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="P109" s="13" t="s">
         <v>345</v>
-      </c>
-      <c r="N109" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="P109" s="13" t="s">
-        <v>335</v>
       </c>
       <c r="Q109" s="13">
         <v>3</v>
       </c>
       <c r="R109" s="13" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="S109" s="13">
         <v>6</v>
       </c>
       <c r="AD109" s="13" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="AE109" s="13">
         <v>100</v>
@@ -40324,52 +40384,52 @@
         <v>280</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="N110" s="12" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="O110" s="12" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="P110" s="13" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="Q110" s="13">
         <v>6</v>
       </c>
       <c r="R110" s="13" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="S110" s="13">
         <v>6</v>
       </c>
       <c r="AD110" s="13" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AE110" s="13">
         <v>90</v>
       </c>
       <c r="AF110" s="13" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="AG110" s="13">
         <v>8</v>
       </c>
       <c r="AH110" s="13" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="AI110" s="13">
         <v>2</v>
       </c>
       <c r="AP110" s="81" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="AQ110" s="81">
         <v>4</v>
       </c>
       <c r="AR110" s="81" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AS110" s="81">
         <v>1</v>
@@ -40383,43 +40443,43 @@
         <v>281</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="M111" s="12" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="N111" s="12" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="O111" s="12" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="P111" s="13" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="Q111" s="13">
         <v>7</v>
       </c>
       <c r="R111" s="13" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="S111" s="13">
         <v>6</v>
       </c>
       <c r="AD111" s="13" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AE111" s="13">
         <v>90</v>
       </c>
       <c r="AF111" s="13" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="AG111" s="13">
         <v>10</v>
       </c>
       <c r="AP111" s="81" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="AQ111" s="81">
         <v>5</v>
@@ -40435,28 +40495,28 @@
         <v>282</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="N112" s="12" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="O112" s="12" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="P112" s="13" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="Q112" s="13">
         <v>3</v>
       </c>
       <c r="R112" s="13" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="S112" s="13">
         <v>6</v>
       </c>
       <c r="AD112" s="13" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="AE112" s="13">
         <v>100</v>
@@ -40474,46 +40534,46 @@
         <v>283</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="N113" s="12" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="O113" s="12" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="P113" s="13" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="Q113" s="13">
         <v>3</v>
       </c>
       <c r="R113" s="13" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="S113" s="13">
         <v>6</v>
       </c>
       <c r="AD113" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE113" s="13">
         <v>60</v>
       </c>
       <c r="AF113" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG113" s="13">
         <v>40</v>
       </c>
       <c r="AP113" s="81" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="AQ113" s="81">
         <v>3</v>
       </c>
       <c r="AR113" s="81" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AS113" s="81">
         <v>2</v>
@@ -40527,46 +40587,46 @@
         <v>284</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="N114" s="12" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="O114" s="12" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="P114" s="13" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="Q114" s="13">
         <v>3</v>
       </c>
       <c r="R114" s="13" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="S114" s="13">
         <v>6</v>
       </c>
       <c r="AD114" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AE114" s="13">
         <v>60</v>
       </c>
       <c r="AF114" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AG114" s="13">
         <v>40</v>
       </c>
       <c r="AP114" s="81" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="AQ114" s="81">
         <v>2</v>
       </c>
       <c r="AR114" s="81" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="AS114" s="81">
         <v>2</v>
@@ -40580,19 +40640,19 @@
         <v>285</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="O115" s="12" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="P115" s="13" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="Q115" s="13">
         <v>3</v>
       </c>
       <c r="R115" s="13" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="S115" s="13">
         <v>6</v>
@@ -40606,22 +40666,22 @@
         <v>286</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="P116" s="13" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="Q116" s="13">
         <v>80</v>
       </c>
       <c r="Z116" s="12" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="AA116" s="12">
         <v>140</v>
       </c>
       <c r="AD116" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE116" s="13">
         <v>4900</v>
@@ -40635,40 +40695,40 @@
         <v>287</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="P117" s="13" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="Q117" s="13">
         <v>80</v>
       </c>
       <c r="R117" s="13" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="S117" s="13">
         <v>20</v>
       </c>
       <c r="Z117" s="12" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="AA117" s="12">
         <v>160</v>
       </c>
       <c r="AD117" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE117" s="13">
         <v>3000</v>
       </c>
       <c r="AF117" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG117" s="13">
         <v>700</v>
       </c>
       <c r="AH117" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AI117" s="13">
         <v>200</v>
@@ -40682,40 +40742,40 @@
         <v>288</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="P118" s="13" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="Q118" s="13">
         <v>100</v>
       </c>
       <c r="R118" s="13" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="S118" s="13">
         <v>40</v>
       </c>
       <c r="Z118" s="12" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="AA118" s="12">
         <v>200</v>
       </c>
       <c r="AD118" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE118" s="13">
         <v>2000</v>
       </c>
       <c r="AF118" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG118" s="13">
         <v>1000</v>
       </c>
       <c r="AH118" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AI118" s="13">
         <v>300</v>
@@ -40729,7 +40789,7 @@
         <v>290</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>292</v>
@@ -40743,31 +40803,31 @@
         <v>291</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>292</v>
       </c>
       <c r="P120" s="13" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="Q120" s="13">
         <v>5</v>
       </c>
       <c r="AD120" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE120" s="13">
         <v>-1000</v>
       </c>
       <c r="AF120" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG120" s="13">
         <v>200</v>
       </c>
       <c r="AH120" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AI120" s="13">
         <v>100</v>
@@ -40781,43 +40841,43 @@
         <v>292</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>292</v>
       </c>
       <c r="P121" s="13" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="Q121" s="13">
         <v>10</v>
       </c>
       <c r="R121" s="13" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="S121" s="13">
         <v>1</v>
       </c>
       <c r="T121" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="U121" s="13">
         <v>1</v>
       </c>
       <c r="AD121" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE121" s="13">
         <v>-2000</v>
       </c>
       <c r="AF121" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG121" s="13">
         <v>400</v>
       </c>
       <c r="AH121" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AI121" s="13">
         <v>200</v>
@@ -40831,7 +40891,7 @@
         <v>293</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
     </row>
     <row r="123" spans="1:33">
@@ -40842,38 +40902,38 @@
         <v>294</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>288</v>
       </c>
       <c r="K123" s="2"/>
       <c r="P123" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="Q123" s="13">
         <v>3</v>
       </c>
       <c r="R123" s="13" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="S123" s="13">
         <v>1</v>
       </c>
       <c r="T123" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="U123" s="13">
         <v>3</v>
       </c>
       <c r="AD123" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AE123" s="13">
         <v>-800</v>
       </c>
       <c r="AF123" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AG123" s="13">
         <v>100</v>
@@ -40887,34 +40947,34 @@
         <v>295</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="P124" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="Q124" s="13">
         <v>1</v>
       </c>
       <c r="R124" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="S124" s="13">
         <v>2</v>
       </c>
       <c r="T124" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="U124" s="13">
         <v>1</v>
       </c>
       <c r="AD124" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AE124" s="13">
         <v>-1000</v>
       </c>
       <c r="AF124" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AG124" s="13">
         <v>50</v>
@@ -40928,7 +40988,7 @@
         <v>296</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>288</v>
@@ -40937,49 +40997,49 @@
         <v>292</v>
       </c>
       <c r="P125" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="Q125" s="13">
         <v>1</v>
       </c>
       <c r="R125" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="S125" s="13">
         <v>1</v>
       </c>
       <c r="T125" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="U125" s="13">
         <v>3</v>
       </c>
       <c r="V125" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="W125" s="13">
         <v>2</v>
       </c>
       <c r="X125" s="13" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="Y125" s="13">
         <v>2</v>
       </c>
       <c r="AD125" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AE125" s="13">
         <v>-1400</v>
       </c>
       <c r="AF125" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AG125" s="13">
         <v>50</v>
       </c>
       <c r="AH125" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AI125" s="13">
         <v>25</v>
@@ -40993,22 +41053,22 @@
         <v>299</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="P126" s="13" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="Q126" s="13">
         <v>120</v>
       </c>
       <c r="Z126" s="12" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="AA126" s="12">
         <v>135</v>
       </c>
       <c r="AD126" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE126" s="13">
         <v>4900</v>
@@ -41022,34 +41082,34 @@
         <v>300</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="P127" s="13" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="Q127" s="13">
         <v>120</v>
       </c>
       <c r="Z127" s="12" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="AA127" s="12">
         <v>145</v>
       </c>
       <c r="AD127" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE127" s="13">
         <v>3900</v>
       </c>
       <c r="AF127" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG127" s="13">
         <v>300</v>
       </c>
       <c r="AH127" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AI127" s="13">
         <v>200</v>
@@ -41063,16 +41123,16 @@
         <v>302</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="P128" s="13" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="Q128" s="13">
         <v>5</v>
       </c>
       <c r="Z128" s="12" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="AA128" s="12">
         <v>-5</v>
@@ -41086,28 +41146,28 @@
         <v>303</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="P129" s="13" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="Q129" s="13">
         <v>5</v>
       </c>
       <c r="AD129" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE129" s="13">
         <v>-1500</v>
       </c>
       <c r="AF129" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AG129" s="13">
         <v>50</v>
       </c>
       <c r="AH129" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AI129" s="13">
         <v>150</v>
@@ -41121,7 +41181,7 @@
         <v>304</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="131" spans="1:35">
@@ -41132,40 +41192,40 @@
         <v>305</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="P131" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="Q131" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R131" s="13" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="S131" s="13">
         <v>1</v>
       </c>
       <c r="T131" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="U131" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD131" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE131" s="13">
         <v>-1200</v>
       </c>
       <c r="AF131" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AG131" s="13">
         <v>150</v>
       </c>
       <c r="AH131" s="13" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AI131" s="13">
         <v>250</v>
@@ -41179,34 +41239,34 @@
         <v>306</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="P132" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="Q132" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R132" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="S132" s="13">
         <v>3</v>
       </c>
       <c r="T132" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="U132" s="13">
         <v>2</v>
       </c>
       <c r="AD132" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE132" s="13">
         <v>-1800</v>
       </c>
       <c r="AF132" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AG132" s="13">
         <v>150</v>
@@ -41220,58 +41280,98 @@
         <v>307</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>300</v>
       </c>
       <c r="P133" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="Q133" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R133" s="13" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="S133" s="13">
         <v>2</v>
       </c>
       <c r="T133" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="U133" s="13">
         <v>2</v>
       </c>
       <c r="V133" s="13" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="W133" s="13">
         <v>1</v>
       </c>
       <c r="X133" s="13" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Y133" s="13">
         <v>5</v>
       </c>
       <c r="AD133" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AE133" s="13">
         <v>-2400</v>
       </c>
       <c r="AF133" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AG133" s="13">
         <v>250</v>
       </c>
       <c r="AH133" s="13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AI133" s="13">
         <v>150</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -41327,51 +41427,51 @@
   <sheetData>
     <row r="1" s="14" customFormat="1" ht="15" spans="1:10">
       <c r="A1" s="23" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="B1" s="76" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="F1" s="76" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="H1" s="76" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="J1" s="76" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" s="10" customFormat="1" ht="14.25" spans="1:10">
       <c r="A2" s="10" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="D2" s="11">
         <v>30</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="F2" s="11">
         <v>1</v>
@@ -41380,7 +41480,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="I2" s="10">
         <v>1</v>
@@ -41391,19 +41491,19 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="D3" s="2">
         <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
@@ -41412,7 +41512,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
@@ -41457,70 +41557,70 @@
       <c r="B1" s="52"/>
       <c r="C1" s="53"/>
       <c r="D1" s="54" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="E1" s="55" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="F1" s="55" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="G1" s="55" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="H1" s="55" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="I1" s="55" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="J1" s="55" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="K1" s="55" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="L1" s="55" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="M1" s="55" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="N1" s="55" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="O1" s="55" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="P1" s="55" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="Q1" s="55" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="R1" s="55" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="S1" s="55" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="T1" s="55" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="U1" s="55" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="V1" s="55" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="W1" s="55" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="X1" s="55" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="Y1" s="70" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="Z1" s="71"/>
     </row>
@@ -41529,46 +41629,46 @@
       <c r="B2" s="57"/>
       <c r="C2" s="58"/>
       <c r="D2" s="59" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="E2" s="60" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="F2" s="60" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="H2" s="60" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="J2" s="60" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="K2" s="60" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="L2" s="60" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="M2" s="60" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="N2" s="60" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="O2" s="60" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="P2" s="60" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="Q2" s="60" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="R2" s="60"/>
       <c r="S2" s="60"/>
@@ -41585,70 +41685,70 @@
       <c r="B3" s="57"/>
       <c r="C3" s="58"/>
       <c r="D3" s="61" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="G3" s="62" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="H3" s="62" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="I3" s="62" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="K3" s="62" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="L3" s="62" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="M3" s="62" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="N3" s="62" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="O3" s="62" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="P3" s="62" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="Q3" s="62" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="R3" s="62" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="S3" s="62" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="T3" s="62" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="U3" s="62" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="V3" s="62" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="W3" s="62" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="X3" s="62" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="Y3" s="74" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="Z3" s="71"/>
     </row>
@@ -41657,46 +41757,46 @@
       <c r="B4" s="57"/>
       <c r="C4" s="58"/>
       <c r="D4" s="59" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="G4" s="60" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="H4" s="60" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="I4" s="60" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="J4" s="60" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="K4" s="60" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="M4" s="60" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="N4" s="60" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="O4" s="60" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="P4" s="60" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="Q4" s="60" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="R4" s="60"/>
       <c r="S4" s="60"/>
@@ -41713,70 +41813,70 @@
       <c r="B5" s="57"/>
       <c r="C5" s="58"/>
       <c r="D5" s="61" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="F5" s="62" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="G5" s="62" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="H5" s="62" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="I5" s="62" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="K5" s="62" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="L5" s="62" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="M5" s="62" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="N5" s="62" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="O5" s="62" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="P5" s="62" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="Q5" s="62" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="R5" s="62" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="S5" s="62" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="T5" s="62" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="U5" s="62" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="V5" s="62" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="W5" s="62" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="X5" s="62" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="Y5" s="74" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="Z5" s="71"/>
     </row>
@@ -41838,79 +41938,79 @@
     </row>
     <row r="7" s="43" customFormat="1" ht="14.25" spans="1:26">
       <c r="A7" s="43" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="D7" s="67" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="E7" s="68" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="F7" s="68" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="G7" s="68" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="H7" s="68" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="I7" s="68" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="J7" s="68" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="K7" s="68" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="L7" s="68" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="M7" s="68" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="N7" s="68" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="O7" s="68" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="P7" s="68" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="Q7" s="68" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="R7" s="68" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="S7" s="68" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="T7" s="68" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="U7" s="68" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="V7" s="68" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="W7" s="68" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="X7" s="68" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="Y7" s="75" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="Z7" s="71"/>
     </row>
@@ -45819,111 +45919,111 @@
   <sheetData>
     <row r="1" s="14" customFormat="1" ht="15" spans="1:31">
       <c r="A1" s="23" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="O1" s="38" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="P1" s="28" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="Q1" s="34" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="R1" s="34" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="T1" s="36" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="U1" s="37" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="V1" s="37" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="W1" s="38" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="X1" s="28" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="Y1" s="34" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="Z1" s="34" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="AA1" s="35" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="AB1" s="36" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="AC1" s="37" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="AD1" s="37" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="AE1" s="38" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" s="10" customFormat="1" ht="14.25" spans="1:31">
       <c r="A2" s="10" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="E2" s="31">
         <v>1</v>
@@ -45935,7 +46035,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="I2" s="10">
         <v>2</v>
@@ -45965,16 +46065,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="E3" s="17">
         <v>1.5</v>

--- a/数值设定/工具表v0.32.xlsx
+++ b/数值设定/工具表v0.32.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21525" windowHeight="12390" firstSheet="2" activeTab="4"/>
+    <workbookView windowWidth="20842" windowHeight="12390" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="使用说明" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="667">
   <si>
     <t>工具表版本</t>
   </si>
@@ -1237,7 +1237,7 @@
     <t>pm_sewing_machines</t>
   </si>
   <si>
-    <t>pm_automatic_power_sewing_machines</t>
+    <t>pm_automatic_sewing_machines</t>
   </si>
   <si>
     <t>pmg_magical_automation_building_textile_mills</t>
@@ -1393,648 +1393,690 @@
     <t>劳工</t>
   </si>
   <si>
+    <t>机工</t>
+  </si>
+  <si>
+    <t>building_laborers_shares_add</t>
+  </si>
+  <si>
+    <t>building_machinists_shares_add</t>
+  </si>
+  <si>
+    <t>高级工人合作社</t>
+  </si>
+  <si>
+    <t>工程师</t>
+  </si>
+  <si>
+    <t>法士</t>
+  </si>
+  <si>
+    <t>building_engineers_shares_add</t>
+  </si>
+  <si>
+    <t>building_magiciteain_shares_add</t>
+  </si>
+  <si>
+    <t>法师所有</t>
+  </si>
+  <si>
+    <t>无科学基础生产</t>
+  </si>
+  <si>
+    <t>高炉炼铁</t>
+  </si>
+  <si>
+    <t>煤炭</t>
+  </si>
+  <si>
+    <t>铁矿石</t>
+  </si>
+  <si>
+    <t>生铁</t>
+  </si>
+  <si>
+    <t>泡钢法</t>
+  </si>
+  <si>
+    <t>钢</t>
+  </si>
+  <si>
+    <t>贝塞麦转炉炼钢法</t>
+  </si>
+  <si>
+    <t>平炉炼钢法</t>
+  </si>
+  <si>
+    <t>无魔法基础生产</t>
+  </si>
+  <si>
+    <t>冲击分离法</t>
+  </si>
+  <si>
+    <t>灵能水晶</t>
+  </si>
+  <si>
+    <t>漂浮分离法</t>
+  </si>
+  <si>
+    <t>魔能丝线分离法</t>
+  </si>
+  <si>
+    <t>无科学自动化</t>
+  </si>
+  <si>
+    <t>水管锅炉</t>
+  </si>
+  <si>
+    <t>工具</t>
+  </si>
+  <si>
+    <t>旋转阀蒸汽机</t>
+  </si>
+  <si>
+    <t>无魔法自动化</t>
+  </si>
+  <si>
+    <t>基础魔偶</t>
+  </si>
+  <si>
+    <t>law_authority_only</t>
+  </si>
+  <si>
+    <t>law_forbid_magic</t>
+  </si>
+  <si>
+    <t>魔偶</t>
+  </si>
+  <si>
+    <t>pm_intellectual_doll_building_steel_mill</t>
+  </si>
+  <si>
+    <t>智能魔偶</t>
+  </si>
+  <si>
+    <t>强智能魔偶</t>
+  </si>
+  <si>
+    <t>无魔导自动化</t>
+  </si>
+  <si>
+    <t>魔偶流水线</t>
+  </si>
+  <si>
+    <t>law_prohibition_magiscientia</t>
+  </si>
+  <si>
+    <t>树胶</t>
+  </si>
+  <si>
+    <t>往复式蒸汽机</t>
+  </si>
+  <si>
+    <t>引擎</t>
+  </si>
+  <si>
+    <t>通用化蒸汽核心</t>
+  </si>
+  <si>
+    <t>泽洛</t>
+  </si>
+  <si>
+    <t>秘银</t>
+  </si>
+  <si>
+    <t>无自动化</t>
+  </si>
+  <si>
+    <t>流水线</t>
+  </si>
+  <si>
+    <t>基础魔偶生产</t>
+  </si>
+  <si>
+    <t>法师</t>
+  </si>
+  <si>
+    <t>大法师</t>
+  </si>
+  <si>
+    <t>智能魔偶生产</t>
+  </si>
+  <si>
+    <t>超智能魔偶生产</t>
+  </si>
+  <si>
+    <t>超智能魔偶</t>
+  </si>
+  <si>
+    <t>精炼</t>
+  </si>
+  <si>
+    <t>雌雄金属熔铸</t>
+  </si>
+  <si>
+    <t>元素叠加传送</t>
+  </si>
+  <si>
+    <t>pm_extract_ranch</t>
+  </si>
+  <si>
+    <t>养殖提取</t>
+  </si>
+  <si>
+    <t>谷物</t>
+  </si>
+  <si>
+    <t>牲畜</t>
+  </si>
+  <si>
+    <t>building_livestock_mortality_mult</t>
+  </si>
+  <si>
+    <t>building_laborers_mortality_mult</t>
+  </si>
+  <si>
+    <t>building_livestock_birth_mult</t>
+  </si>
+  <si>
+    <t>尸体榨取</t>
+  </si>
+  <si>
+    <t>标准法杖</t>
+  </si>
+  <si>
+    <t>硬木</t>
+  </si>
+  <si>
+    <t>魔能轻武器</t>
+  </si>
+  <si>
+    <t>教国法铳</t>
+  </si>
+  <si>
+    <t>制式法铳</t>
+  </si>
+  <si>
+    <t>复式法铳</t>
+  </si>
+  <si>
+    <t>灵能撞击法</t>
+  </si>
+  <si>
+    <t>灵能聚集法</t>
+  </si>
+  <si>
+    <t>灵能召唤法</t>
+  </si>
+  <si>
+    <t>无浮空车生产</t>
+  </si>
+  <si>
+    <t>布料</t>
+  </si>
+  <si>
+    <t>魔能浮空车</t>
+  </si>
+  <si>
+    <t>无飞行器生产</t>
+  </si>
+  <si>
+    <t>蒸汽飞机生产</t>
+  </si>
+  <si>
+    <t>空天母舰生产</t>
+  </si>
+  <si>
+    <t>无机甲生产</t>
+  </si>
+  <si>
+    <t>蒸汽机甲</t>
+  </si>
+  <si>
+    <t>魔导机甲</t>
+  </si>
+  <si>
+    <t>浮空平台生产</t>
+  </si>
+  <si>
+    <t>浮空城生产</t>
+  </si>
+  <si>
+    <t>魔能机甲</t>
+  </si>
+  <si>
+    <t>滑膛枪</t>
+  </si>
+  <si>
+    <t>炸药</t>
+  </si>
+  <si>
+    <t>轻武器</t>
+  </si>
+  <si>
+    <t>来复枪</t>
+  </si>
+  <si>
+    <t>铅</t>
+  </si>
+  <si>
+    <t>连发枪</t>
+  </si>
+  <si>
+    <t>栓动步枪</t>
+  </si>
+  <si>
+    <t>无火炮生产</t>
+  </si>
+  <si>
+    <t>加农炮</t>
+  </si>
+  <si>
+    <t>火炮</t>
+  </si>
+  <si>
+    <t>滑膛炮</t>
+  </si>
+  <si>
+    <t>后膛炮</t>
+  </si>
+  <si>
+    <t>面包房</t>
+  </si>
+  <si>
+    <t>精致食物</t>
+  </si>
+  <si>
+    <t>甜味剂</t>
+  </si>
+  <si>
+    <t>糖</t>
+  </si>
+  <si>
+    <t>烘焙粉</t>
+  </si>
+  <si>
+    <t>无罐装</t>
+  </si>
+  <si>
+    <t>罐装</t>
+  </si>
+  <si>
+    <t>真空罐装</t>
+  </si>
+  <si>
+    <t>手工面团</t>
+  </si>
+  <si>
+    <t>自动化面包房</t>
+  </si>
+  <si>
+    <t>魔偶面包房</t>
+  </si>
+  <si>
+    <t>魔偶自动面包房</t>
+  </si>
+  <si>
+    <t>罐馏器</t>
+  </si>
+  <si>
+    <t>烈酒</t>
+  </si>
+  <si>
+    <t>连续式蒸馏器</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>金属瓶身</t>
+  </si>
+  <si>
+    <t>玻璃瓶身</t>
+  </si>
+  <si>
+    <t>玻璃</t>
+  </si>
+  <si>
+    <t>自动蒸馏器</t>
+  </si>
+  <si>
+    <t>魔偶蒸馏</t>
+  </si>
+  <si>
+    <t>魔偶自动蒸馏器</t>
+  </si>
+  <si>
+    <t>手工缝纫</t>
+  </si>
+  <si>
+    <t>普通衣物</t>
+  </si>
+  <si>
+    <t>染料工坊</t>
+  </si>
+  <si>
+    <t>染料</t>
+  </si>
+  <si>
+    <t>无奢侈衣物</t>
+  </si>
+  <si>
+    <t>匠人缝纫</t>
+  </si>
+  <si>
+    <t>丝绸</t>
+  </si>
+  <si>
+    <t>奢侈服装</t>
+  </si>
+  <si>
+    <t>弹性织物</t>
+  </si>
+  <si>
+    <t>传统织机</t>
+  </si>
+  <si>
+    <t>缝纫机</t>
+  </si>
+  <si>
+    <t>自动缝纫机</t>
+  </si>
+  <si>
+    <t>货物代码名</t>
+  </si>
+  <si>
+    <t>货物汉化名</t>
+  </si>
+  <si>
+    <t>基础价格</t>
+  </si>
+  <si>
+    <t>货物类别</t>
+  </si>
+  <si>
+    <t>成瘾率</t>
+  </si>
+  <si>
+    <t>prestige_factor</t>
+  </si>
+  <si>
+    <t>是否可以被贸易</t>
+  </si>
+  <si>
+    <t>贸易路线价值系数</t>
+  </si>
+  <si>
+    <t>占用的运输船数量系数</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>伍德</t>
+  </si>
+  <si>
+    <t>“gfx/interface/icons/goods_icons/wood.dds”</t>
+  </si>
+  <si>
+    <t>staple</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>“gfx/interface/icons/goods_icons/test.dds”</t>
+  </si>
+  <si>
+    <t>military</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>需求代码名</t>
+  </si>
+  <si>
+    <t>simple_clothing</t>
+  </si>
+  <si>
+    <t>crude_items</t>
+  </si>
+  <si>
+    <t>basic_food</t>
+  </si>
+  <si>
+    <t>standard_clothing</t>
+  </si>
+  <si>
+    <t>household_items</t>
+  </si>
+  <si>
+    <t>heating</t>
+  </si>
+  <si>
+    <t>intoxicants</t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
+  <si>
+    <t>luxury_drinks</t>
+  </si>
+  <si>
+    <t>free_movement</t>
+  </si>
+  <si>
+    <t>communication</t>
+  </si>
+  <si>
+    <t>luxury_food</t>
+  </si>
+  <si>
+    <t>luxury_items</t>
+  </si>
+  <si>
+    <t>art</t>
+  </si>
+  <si>
+    <t>需求汉化名</t>
+  </si>
+  <si>
+    <t>简单衣物</t>
+  </si>
+  <si>
+    <t>简单物品</t>
+  </si>
+  <si>
+    <t>基础食物</t>
+  </si>
+  <si>
+    <t>标准衣物</t>
+  </si>
+  <si>
+    <t>家庭物品</t>
+  </si>
+  <si>
+    <t>取暖</t>
+  </si>
+  <si>
+    <t>成瘾品</t>
+  </si>
+  <si>
+    <t>服务</t>
+  </si>
+  <si>
+    <t>奢侈饮品</t>
+  </si>
+  <si>
+    <t>自由出行</t>
+  </si>
+  <si>
+    <t>交流</t>
+  </si>
+  <si>
+    <t>奢侈食物</t>
+  </si>
+  <si>
+    <t>奢侈物品</t>
+  </si>
+  <si>
+    <t>艺术</t>
+  </si>
+  <si>
+    <t>默认货物单价</t>
+  </si>
+  <si>
+    <t>生活水平</t>
+  </si>
+  <si>
+    <t>政治力量</t>
+  </si>
+  <si>
+    <t>总花费</t>
+  </si>
+  <si>
+    <t>需求量</t>
+  </si>
+  <si>
+    <t>默认货物</t>
+  </si>
+  <si>
+    <t>替代品</t>
+  </si>
+  <si>
+    <t>购买权重</t>
+  </si>
+  <si>
+    <t>最大比例</t>
+  </si>
+  <si>
+    <t>最小比例</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>测试1</t>
+  </si>
+  <si>
+    <t>wood2</t>
+  </si>
+  <si>
+    <t>wood3</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>测试2</t>
+  </si>
+  <si>
+    <t>goods</t>
+  </si>
+  <si>
+    <t>goods2</t>
+  </si>
+  <si>
+    <t>Pop代码名</t>
+  </si>
+  <si>
+    <t>Pop汉化名</t>
+  </si>
+  <si>
+    <t>工资权重</t>
+  </si>
+  <si>
+    <t>木头</t>
+  </si>
+  <si>
+    <t>academics</t>
+  </si>
+  <si>
+    <t>学者</t>
+  </si>
+  <si>
+    <t>metal_arms</t>
+  </si>
+  <si>
+    <t>金属武器</t>
+  </si>
+  <si>
+    <t>aristocrats</t>
+  </si>
+  <si>
+    <t>metal_armor</t>
+  </si>
+  <si>
+    <t>金属防具</t>
+  </si>
+  <si>
+    <t>bureaucrats</t>
+  </si>
+  <si>
+    <t>small_arms</t>
+  </si>
+  <si>
+    <t>capitalists</t>
+  </si>
+  <si>
+    <t>artillery</t>
+  </si>
+  <si>
+    <t>clergymen</t>
+  </si>
+  <si>
+    <t>magic_small_arms</t>
+  </si>
+  <si>
+    <t>魔能武器</t>
+  </si>
+  <si>
+    <t>clerks</t>
+  </si>
+  <si>
+    <t>mech</t>
+  </si>
+  <si>
+    <t>engineers</t>
+  </si>
+  <si>
+    <t>magical_mech</t>
+  </si>
+  <si>
+    <t>farmers</t>
+  </si>
+  <si>
+    <t>农民</t>
+  </si>
+  <si>
+    <t>mixed_mech</t>
+  </si>
+  <si>
+    <t>laborers</t>
+  </si>
+  <si>
+    <t>areoplanes</t>
+  </si>
+  <si>
+    <t>livestock</t>
+  </si>
+  <si>
+    <t>floating_platform</t>
+  </si>
+  <si>
+    <t>machinists</t>
+  </si>
+  <si>
     <t>机械师</t>
   </si>
   <si>
-    <t>building_laborers_shares_add</t>
-  </si>
-  <si>
-    <t>building_machinists_shares_add</t>
-  </si>
-  <si>
-    <t>高级工人合作社</t>
-  </si>
-  <si>
-    <t>工程师</t>
-  </si>
-  <si>
-    <t>法士</t>
-  </si>
-  <si>
-    <t>building_engineers_shares_add</t>
-  </si>
-  <si>
-    <t>building_magiciteain_shares_add</t>
-  </si>
-  <si>
-    <t>法师所有</t>
-  </si>
-  <si>
-    <t>无科学基础生产</t>
-  </si>
-  <si>
-    <t>高炉炼铁</t>
-  </si>
-  <si>
-    <t>煤炭</t>
-  </si>
-  <si>
-    <t>铁矿石</t>
-  </si>
-  <si>
-    <t>生铁</t>
-  </si>
-  <si>
-    <t>泡钢法</t>
-  </si>
-  <si>
-    <t>钢</t>
-  </si>
-  <si>
-    <t>贝塞麦转炉炼钢法</t>
-  </si>
-  <si>
-    <t>平炉炼钢法</t>
-  </si>
-  <si>
-    <t>无魔法基础生产</t>
-  </si>
-  <si>
-    <t>冲击分离法</t>
-  </si>
-  <si>
-    <t>灵能水晶</t>
-  </si>
-  <si>
-    <t>漂浮分离法</t>
-  </si>
-  <si>
-    <t>魔能丝线分离法</t>
-  </si>
-  <si>
-    <t>无科学自动化</t>
-  </si>
-  <si>
-    <t>水管锅炉</t>
-  </si>
-  <si>
-    <t>工具</t>
-  </si>
-  <si>
-    <t>旋转阀蒸汽机</t>
-  </si>
-  <si>
-    <t>无魔法自动化</t>
-  </si>
-  <si>
-    <t>基础魔偶</t>
-  </si>
-  <si>
-    <t>law_authority_only</t>
-  </si>
-  <si>
-    <t>law_forbid_magic</t>
-  </si>
-  <si>
-    <t>魔偶</t>
-  </si>
-  <si>
-    <t>pm_intellectual_doll_building_steel_mill</t>
-  </si>
-  <si>
-    <t>智能魔偶</t>
-  </si>
-  <si>
-    <t>强智能魔偶</t>
-  </si>
-  <si>
-    <t>无魔导自动化</t>
-  </si>
-  <si>
-    <t>魔偶流水线</t>
-  </si>
-  <si>
-    <t>law_prohibition_magiscientia</t>
-  </si>
-  <si>
-    <t>树胶</t>
-  </si>
-  <si>
-    <t>往复式蒸汽机</t>
-  </si>
-  <si>
-    <t>引擎</t>
-  </si>
-  <si>
-    <t>通用化蒸汽核心</t>
-  </si>
-  <si>
-    <t>泽洛</t>
-  </si>
-  <si>
-    <t>秘银</t>
-  </si>
-  <si>
-    <t>无自动化</t>
-  </si>
-  <si>
-    <t>流水线</t>
-  </si>
-  <si>
-    <t>基础魔偶生产</t>
-  </si>
-  <si>
-    <t>法师</t>
-  </si>
-  <si>
-    <t>大法师</t>
-  </si>
-  <si>
-    <t>智能魔偶生产</t>
-  </si>
-  <si>
-    <t>超智能魔偶生产</t>
-  </si>
-  <si>
-    <t>超智能魔偶</t>
-  </si>
-  <si>
-    <t>精炼</t>
-  </si>
-  <si>
-    <t>雌雄金属熔铸</t>
-  </si>
-  <si>
-    <t>元素叠加传送</t>
-  </si>
-  <si>
-    <t>pm_extract_ranch</t>
-  </si>
-  <si>
-    <t>养殖提取</t>
-  </si>
-  <si>
-    <t>谷物</t>
-  </si>
-  <si>
-    <t>牲畜</t>
-  </si>
-  <si>
-    <t>building_livestock_mortality_mult</t>
-  </si>
-  <si>
-    <t>building_laborers_mortality_mult</t>
-  </si>
-  <si>
-    <t>building_livestock_birth_mult</t>
-  </si>
-  <si>
-    <t>尸体榨取</t>
-  </si>
-  <si>
-    <t>标准法杖</t>
-  </si>
-  <si>
-    <t>硬木</t>
-  </si>
-  <si>
-    <t>魔能轻武器</t>
-  </si>
-  <si>
-    <t>教国法铳</t>
-  </si>
-  <si>
-    <t>制式法铳</t>
-  </si>
-  <si>
-    <t>复式法铳</t>
-  </si>
-  <si>
-    <t>灵能撞击法</t>
-  </si>
-  <si>
-    <t>灵能聚集法</t>
-  </si>
-  <si>
-    <t>灵能召唤法</t>
-  </si>
-  <si>
-    <t>无浮空车生产</t>
-  </si>
-  <si>
-    <t>布料</t>
-  </si>
-  <si>
-    <t>魔能浮空车</t>
-  </si>
-  <si>
-    <t>无飞行器生产</t>
-  </si>
-  <si>
-    <t>蒸汽飞机生产</t>
-  </si>
-  <si>
-    <t>空天母舰生产</t>
-  </si>
-  <si>
-    <t>无机甲生产</t>
-  </si>
-  <si>
-    <t>蒸汽机甲</t>
-  </si>
-  <si>
-    <t>魔导机甲</t>
-  </si>
-  <si>
-    <t>浮空平台生产</t>
-  </si>
-  <si>
-    <t>浮空城生产</t>
-  </si>
-  <si>
-    <t>魔能机甲</t>
-  </si>
-  <si>
-    <t>滑膛枪</t>
-  </si>
-  <si>
-    <t>炸药</t>
-  </si>
-  <si>
-    <t>轻武器</t>
-  </si>
-  <si>
-    <t>来复枪</t>
-  </si>
-  <si>
-    <t>铅</t>
-  </si>
-  <si>
-    <t>连发枪</t>
-  </si>
-  <si>
-    <t>栓动步枪</t>
-  </si>
-  <si>
-    <t>无火炮生产</t>
-  </si>
-  <si>
-    <t>加农炮</t>
-  </si>
-  <si>
-    <t>火炮</t>
-  </si>
-  <si>
-    <t>滑膛炮</t>
-  </si>
-  <si>
-    <t>后膛炮</t>
-  </si>
-  <si>
-    <t>面包房</t>
-  </si>
-  <si>
-    <t>精致食物</t>
-  </si>
-  <si>
-    <t>甜味剂</t>
-  </si>
-  <si>
-    <t>糖</t>
-  </si>
-  <si>
-    <t>烘焙粉</t>
-  </si>
-  <si>
-    <t>无罐装</t>
-  </si>
-  <si>
-    <t>罐装</t>
-  </si>
-  <si>
-    <t>真空罐装</t>
-  </si>
-  <si>
-    <t>手工面团</t>
-  </si>
-  <si>
-    <t>自动化面包房</t>
-  </si>
-  <si>
-    <t>魔偶面包房</t>
-  </si>
-  <si>
-    <t>魔偶自动面包房</t>
-  </si>
-  <si>
-    <t>罐馏器</t>
-  </si>
-  <si>
-    <t>烈酒</t>
-  </si>
-  <si>
-    <t>连续式蒸馏器</t>
-  </si>
-  <si>
-    <t>金属瓶身</t>
-  </si>
-  <si>
-    <t>玻璃瓶身</t>
-  </si>
-  <si>
-    <t>玻璃</t>
-  </si>
-  <si>
-    <t>自动蒸馏器</t>
-  </si>
-  <si>
-    <t>魔偶蒸馏</t>
-  </si>
-  <si>
-    <t>魔偶自动蒸馏器</t>
-  </si>
-  <si>
-    <t>货物代码名</t>
-  </si>
-  <si>
-    <t>货物汉化名</t>
-  </si>
-  <si>
-    <t>基础价格</t>
-  </si>
-  <si>
-    <t>货物类别</t>
-  </si>
-  <si>
-    <t>成瘾率</t>
-  </si>
-  <si>
-    <t>prestige_factor</t>
-  </si>
-  <si>
-    <t>是否可以被贸易</t>
-  </si>
-  <si>
-    <t>贸易路线价值系数</t>
-  </si>
-  <si>
-    <t>占用的运输船数量系数</t>
-  </si>
-  <si>
-    <t>wood</t>
-  </si>
-  <si>
-    <t>伍德</t>
-  </si>
-  <si>
-    <t>“gfx/interface/icons/goods_icons/wood.dds”</t>
-  </si>
-  <si>
-    <t>staple</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>测试</t>
-  </si>
-  <si>
-    <t>“gfx/interface/icons/goods_icons/test.dds”</t>
-  </si>
-  <si>
-    <t>military</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>需求代码名</t>
-  </si>
-  <si>
-    <t>simple_clothing</t>
-  </si>
-  <si>
-    <t>crude_items</t>
-  </si>
-  <si>
-    <t>basic_food</t>
-  </si>
-  <si>
-    <t>standard_clothing</t>
-  </si>
-  <si>
-    <t>household_items</t>
-  </si>
-  <si>
-    <t>heating</t>
-  </si>
-  <si>
-    <t>intoxicants</t>
-  </si>
-  <si>
-    <t>services</t>
-  </si>
-  <si>
-    <t>luxury_drinks</t>
-  </si>
-  <si>
-    <t>free_movement</t>
-  </si>
-  <si>
-    <t>communication</t>
-  </si>
-  <si>
-    <t>luxury_food</t>
-  </si>
-  <si>
-    <t>luxury_items</t>
-  </si>
-  <si>
-    <t>art</t>
-  </si>
-  <si>
-    <t>需求汉化名</t>
-  </si>
-  <si>
-    <t>简单衣物</t>
-  </si>
-  <si>
-    <t>简单物品</t>
-  </si>
-  <si>
-    <t>基础食物</t>
-  </si>
-  <si>
-    <t>标准衣物</t>
-  </si>
-  <si>
-    <t>家庭物品</t>
-  </si>
-  <si>
-    <t>取暖</t>
-  </si>
-  <si>
-    <t>成瘾品</t>
-  </si>
-  <si>
-    <t>服务</t>
-  </si>
-  <si>
-    <t>奢侈饮品</t>
-  </si>
-  <si>
-    <t>自由出行</t>
-  </si>
-  <si>
-    <t>交流</t>
-  </si>
-  <si>
-    <t>奢侈食物</t>
-  </si>
-  <si>
-    <t>奢侈物品</t>
-  </si>
-  <si>
-    <t>艺术</t>
-  </si>
-  <si>
-    <t>默认货物单价</t>
-  </si>
-  <si>
-    <t>生活水平</t>
-  </si>
-  <si>
-    <t>政治力量</t>
-  </si>
-  <si>
-    <t>总花费</t>
-  </si>
-  <si>
-    <t>需求量</t>
-  </si>
-  <si>
-    <t>默认货物</t>
-  </si>
-  <si>
-    <t>替代品</t>
-  </si>
-  <si>
-    <t>购买权重</t>
-  </si>
-  <si>
-    <t>最大比例</t>
-  </si>
-  <si>
-    <t>最小比例</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>测试1</t>
-  </si>
-  <si>
-    <t>wood2</t>
-  </si>
-  <si>
-    <t>wood3</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>测试2</t>
-  </si>
-  <si>
-    <t>goods</t>
-  </si>
-  <si>
-    <t>goods2</t>
-  </si>
-  <si>
-    <t>Pop代码名</t>
-  </si>
-  <si>
-    <t>Pop汉化名</t>
-  </si>
-  <si>
-    <t>工资权重</t>
-  </si>
-  <si>
-    <t>木头</t>
-  </si>
-  <si>
-    <t>academics</t>
-  </si>
-  <si>
-    <t>学者</t>
-  </si>
-  <si>
-    <t>metal_arms</t>
-  </si>
-  <si>
-    <t>金属武器</t>
-  </si>
-  <si>
-    <t>aristocrats</t>
-  </si>
-  <si>
-    <t>metal_armor</t>
-  </si>
-  <si>
-    <t>金属防具</t>
-  </si>
-  <si>
-    <t>bureaucrats</t>
-  </si>
-  <si>
-    <t>small_arms</t>
-  </si>
-  <si>
-    <t>capitalists</t>
-  </si>
-  <si>
-    <t>artillery</t>
-  </si>
-  <si>
-    <t>clergymen</t>
-  </si>
-  <si>
-    <t>magic_small_arms</t>
-  </si>
-  <si>
-    <t>魔能武器</t>
-  </si>
-  <si>
-    <t>clerks</t>
-  </si>
-  <si>
-    <t>mech</t>
-  </si>
-  <si>
-    <t>engineers</t>
-  </si>
-  <si>
-    <t>magical_mech</t>
-  </si>
-  <si>
-    <t>farmers</t>
-  </si>
-  <si>
-    <t>农民</t>
-  </si>
-  <si>
-    <t>mixed_mech</t>
-  </si>
-  <si>
-    <t>laborers</t>
-  </si>
-  <si>
-    <t>areoplanes</t>
-  </si>
-  <si>
-    <t>livestock</t>
-  </si>
-  <si>
-    <t>floating_platform</t>
-  </si>
-  <si>
-    <t>machinists</t>
-  </si>
-  <si>
     <t>grain</t>
   </si>
   <si>
@@ -2068,9 +2110,6 @@
     <t>clothes</t>
   </si>
   <si>
-    <t>普通衣物</t>
-  </si>
-  <si>
     <t>peasants</t>
   </si>
   <si>
@@ -2116,15 +2155,9 @@
     <t>silk</t>
   </si>
   <si>
-    <t>丝绸</t>
-  </si>
-  <si>
     <t>dye</t>
   </si>
   <si>
-    <t>染料</t>
-  </si>
-  <si>
     <t>sulfur</t>
   </si>
   <si>
@@ -2237,9 +2270,6 @@
   </si>
   <si>
     <t>luxury_clothes</t>
-  </si>
-  <si>
-    <t>奢侈服装</t>
   </si>
   <si>
     <t>luxury_furniture</t>
@@ -2267,8 +2297,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -2300,9 +2330,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2315,58 +2344,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2392,23 +2393,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2422,16 +2444,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2549,18 +2579,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2573,13 +2591,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2591,25 +2639,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2633,13 +2669,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2652,18 +2694,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3154,6 +3184,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3171,11 +3225,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3184,7 +3236,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3206,33 +3258,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3244,10 +3274,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3256,130 +3286,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4734,40 +4764,40 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="C2" s="8">
         <v>20</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="10" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="G2" s="4">
         <v>3</v>
@@ -4775,16 +4805,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="12" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="C3" s="13">
         <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>348</v>
@@ -4795,16 +4825,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="C4" s="13">
         <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>365</v>
@@ -4815,7 +4845,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="12" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>454</v>
@@ -4824,7 +4854,7 @@
         <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>361</v>
@@ -4835,7 +4865,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>461</v>
@@ -4844,7 +4874,7 @@
         <v>70</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>356</v>
@@ -4855,16 +4885,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="12" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="C7" s="13">
         <v>70</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>360</v>
@@ -4875,7 +4905,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="12" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>447</v>
@@ -4884,7 +4914,7 @@
         <v>80</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>372</v>
@@ -4895,7 +4925,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="12" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>451</v>
@@ -4904,10 +4934,10 @@
         <v>140</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="G9" s="4">
         <v>1.5</v>
@@ -4915,7 +4945,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="12" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>448</v>
@@ -4924,7 +4954,7 @@
         <v>120</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>367</v>
@@ -4935,7 +4965,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="12" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>242</v>
@@ -4944,7 +4974,7 @@
         <v>80</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>426</v>
@@ -4955,7 +4985,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="12" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>254</v>
@@ -4964,10 +4994,10 @@
         <v>100</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>368</v>
+        <v>595</v>
       </c>
       <c r="G12" s="4">
         <v>1.5</v>
@@ -4975,7 +5005,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="12" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>425</v>
@@ -4984,7 +5014,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>373</v>
@@ -4995,16 +5025,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="12" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="C14" s="13">
         <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>416</v>
@@ -5015,7 +5045,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>441</v>
@@ -5024,7 +5054,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>415</v>
@@ -5035,7 +5065,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="12" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>465</v>
@@ -5044,10 +5074,10 @@
         <v>30</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="G16" s="4">
         <v>5</v>
@@ -5055,19 +5085,19 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="12" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>593</v>
+        <v>487</v>
       </c>
       <c r="C17" s="13">
         <v>30</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="G17" s="4">
         <v>0.2</v>
@@ -5075,16 +5105,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="12" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="C18" s="13">
         <v>30</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>347</v>
@@ -5095,19 +5125,19 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="12" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="C19" s="13">
         <v>30</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
@@ -5115,7 +5145,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="12" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>346</v>
@@ -5124,10 +5154,10 @@
         <v>30</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="G20" s="4">
         <v>2</v>
@@ -5135,10 +5165,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="12" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="C21" s="13">
         <v>30</v>
@@ -5146,10 +5176,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="12" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="C22" s="13">
         <v>60</v>
@@ -5157,10 +5187,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="12" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>609</v>
+        <v>492</v>
       </c>
       <c r="C23" s="13">
         <v>40</v>
@@ -5168,10 +5198,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="12" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>611</v>
+        <v>489</v>
       </c>
       <c r="C24" s="13">
         <v>40</v>
@@ -5179,10 +5209,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="12" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="C25" s="13">
         <v>50</v>
@@ -5190,7 +5220,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="12" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>379</v>
@@ -5201,7 +5231,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="12" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>380</v>
@@ -5212,7 +5242,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="12" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>381</v>
@@ -5223,7 +5253,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="12" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>456</v>
@@ -5234,7 +5264,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="12" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>432</v>
@@ -5245,7 +5275,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="12" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>406</v>
@@ -5256,7 +5286,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="12" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>408</v>
@@ -5267,10 +5297,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C33" s="2">
         <v>40</v>
@@ -5278,7 +5308,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="12" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>383</v>
@@ -5289,10 +5319,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="12" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="C35" s="13">
         <v>30</v>
@@ -5300,7 +5330,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="12" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>393</v>
@@ -5311,7 +5341,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="12" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>453</v>
@@ -5322,7 +5352,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="12" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>345</v>
@@ -5333,7 +5363,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="12" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>410</v>
@@ -5344,7 +5374,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="12" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>411</v>
@@ -5355,7 +5385,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="12" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>388</v>
@@ -5366,7 +5396,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="12" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>399</v>
@@ -5377,7 +5407,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="12" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>442</v>
@@ -5388,10 +5418,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="12" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="C44" s="13">
         <v>70</v>
@@ -5399,10 +5429,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="12" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="C45" s="13">
         <v>30</v>
@@ -5410,10 +5440,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="12" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="C46" s="13">
         <v>30</v>
@@ -5421,7 +5451,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="12" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>477</v>
@@ -5432,10 +5462,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="12" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="C48" s="13">
         <v>60</v>
@@ -5443,10 +5473,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="12" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="C49" s="13">
         <v>50</v>
@@ -5454,7 +5484,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="12" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>467</v>
@@ -5465,10 +5495,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="12" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="C51" s="13">
         <v>40</v>
@@ -5476,10 +5506,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="12" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="C52" s="13">
         <v>50</v>
@@ -5487,10 +5517,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="12" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>650</v>
+        <v>493</v>
       </c>
       <c r="C53" s="13">
         <v>60</v>
@@ -5498,10 +5528,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="12" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="C54" s="13">
         <v>60</v>
@@ -5509,10 +5539,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="12" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="C55" s="13">
         <v>100</v>
@@ -5520,10 +5550,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="12" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="C56" s="13">
         <v>200</v>
@@ -33710,8 +33740,8 @@
   <sheetPr/>
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -34580,10 +34610,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CF138"/>
+  <dimension ref="A1:CF149"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -40812,7 +40842,7 @@
         <v>381</v>
       </c>
       <c r="Q120" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD120" s="13" t="s">
         <v>367</v>
@@ -40850,7 +40880,7 @@
         <v>381</v>
       </c>
       <c r="Q121" s="13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R121" s="13" t="s">
         <v>408</v>
@@ -40924,7 +40954,7 @@
         <v>379</v>
       </c>
       <c r="U123" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD123" s="13" t="s">
         <v>368</v>
@@ -41012,7 +41042,7 @@
         <v>393</v>
       </c>
       <c r="U125" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V125" s="13" t="s">
         <v>379</v>
@@ -41024,7 +41054,7 @@
         <v>408</v>
       </c>
       <c r="Y125" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD125" s="13" t="s">
         <v>368</v>
@@ -41090,6 +41120,9 @@
       <c r="Q127" s="13">
         <v>120</v>
       </c>
+      <c r="S127" s="13" t="s">
+        <v>479</v>
+      </c>
       <c r="Z127" s="12" t="s">
         <v>477</v>
       </c>
@@ -41123,7 +41156,7 @@
         <v>302</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="P128" s="13" t="s">
         <v>381</v>
@@ -41146,10 +41179,10 @@
         <v>303</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P129" s="13" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q129" s="13">
         <v>5</v>
@@ -41192,7 +41225,7 @@
         <v>305</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="P131" s="13" t="s">
         <v>393</v>
@@ -41239,7 +41272,7 @@
         <v>306</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="P132" s="13" t="s">
         <v>393</v>
@@ -41280,7 +41313,7 @@
         <v>307</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>300</v>
@@ -41334,45 +41367,424 @@
         <v>150</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:31">
       <c r="A134" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
+      <c r="C134" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="P134" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q134" s="13">
+        <v>40</v>
+      </c>
+      <c r="R134" s="13"/>
+      <c r="S134" s="13"/>
+      <c r="Z134" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="AA134" s="12">
+        <v>100</v>
+      </c>
+      <c r="AD134" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE134" s="13">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="135" spans="1:31">
       <c r="A135" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
+      <c r="C135" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="P135" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q135" s="13">
+        <v>40</v>
+      </c>
+      <c r="R135" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="S135" s="13">
+        <v>5</v>
+      </c>
+      <c r="Z135" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="AA135" s="12">
+        <v>150</v>
+      </c>
+      <c r="AD135" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE135" s="13">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
+      <c r="C136" s="12" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="137" spans="1:31">
       <c r="A137" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
+      <c r="C137" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="P137" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q137" s="13">
+        <v>15</v>
+      </c>
+      <c r="Z137" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="AA137" s="12">
+        <v>30</v>
+      </c>
+      <c r="AB137" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="AC137" s="12">
+        <v>-30</v>
+      </c>
+      <c r="AD137" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="AE137" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:31">
       <c r="A138" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>313</v>
       </c>
+      <c r="C138" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="P138" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q138" s="13">
+        <v>15</v>
+      </c>
+      <c r="R138" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="S138" s="13">
+        <v>5</v>
+      </c>
+      <c r="Z138" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="AA138" s="12">
+        <v>50</v>
+      </c>
+      <c r="AB138" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="AC138" s="12">
+        <v>-50</v>
+      </c>
+      <c r="AD138" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="AE138" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="140" spans="1:35">
+      <c r="A140" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="P140" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q140" s="13">
+        <v>6</v>
+      </c>
+      <c r="AD140" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE140" s="13">
+        <v>-1000</v>
+      </c>
+      <c r="AF140" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="AG140" s="13">
+        <v>400</v>
+      </c>
+      <c r="AH140" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="AI140" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:35">
+      <c r="A141" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="P141" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q141" s="13">
+        <v>8</v>
+      </c>
+      <c r="R141" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="S141" s="13">
+        <v>6</v>
+      </c>
+      <c r="AD141" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE141" s="13">
+        <v>-2000</v>
+      </c>
+      <c r="AF141" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="AG141" s="13">
+        <v>600</v>
+      </c>
+      <c r="AH141" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="AI141" s="13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="143" spans="1:33">
+      <c r="A143" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="P143" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q143" s="13">
+        <v>2</v>
+      </c>
+      <c r="R143" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="S143" s="13">
+        <v>1</v>
+      </c>
+      <c r="T143" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="U143" s="13">
+        <v>6</v>
+      </c>
+      <c r="AD143" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE143" s="13">
+        <v>-1500</v>
+      </c>
+      <c r="AF143" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="AG143" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="144" spans="1:33">
+      <c r="A144" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="P144" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q144" s="13">
+        <v>4</v>
+      </c>
+      <c r="R144" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="S144" s="13">
+        <v>2</v>
+      </c>
+      <c r="T144" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="U144" s="13">
+        <v>12</v>
+      </c>
+      <c r="AD144" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE144" s="13">
+        <v>-2900</v>
+      </c>
+      <c r="AF144" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="AG144" s="13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="146" spans="1:35">
+      <c r="A146" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="P146" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q146" s="13">
+        <v>4</v>
+      </c>
+      <c r="R146" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="S146" s="13">
+        <v>4</v>
+      </c>
+      <c r="T146" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="U146" s="13">
+        <v>1</v>
+      </c>
+      <c r="V146" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="W146" s="13">
+        <v>1</v>
+      </c>
+      <c r="X146" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y146" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD146" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE146" s="13">
+        <v>-600</v>
+      </c>
+      <c r="AF146" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="AG146" s="13">
+        <v>-150</v>
+      </c>
+      <c r="AH146" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="AI146" s="13">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1"/>
+      <c r="B147" s="2"/>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="2"/>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="2"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -41389,7 +41801,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ37:AJ125 AJ126:AJ127 AJ128:AJ129 AJ130:AJ1059 AL37:AL125 AL126:AL127 AL128:AL129 AL130:AL1059 AN37:AN125 AN126:AN127 AN128:AN129 AN130:AN1059">
       <formula1>数据表!$F$2:$F$32</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z55 Z56 Z57 Z58 P89 R89 T89 V89 X89 P90 R90 T90 V90 X90 P97 R97 T97 V97 P98 R98 T98 V98 P1:P58 P59:P62 P63:P68 P69:P72 P73:P79 P80:P83 P84:P88 P91:P94 P95:P96 P99:P103 P104:P107 P108:P116 P117:P125 P126:P127 P128:P129 P130:P1048576 R1:R58 R59:R62 R63:R68 R69:R72 R73:R79 R80:R81 R82:R83 R84:R88 R91:R94 R95:R96 R99:R103 R104:R107 R108:R116 R117:R125 R126:R127 R128:R129 R130:R1048576 T1:T58 T59:T62 T63:T68 T69:T72 T73:T79 T80:T83 T84:T88 T91:T94 T95:T96 T99:T103 T104:T107 T108:T125 T126:T127 T128:T129 T130:T1048576 V1:V58 V59:V62 V63:V68 V69:V72 V73:V79 V80:V83 V84:V88 V91:V94 V95:V96 V99:V103 V104:V107 V108:V125 V126:V127 V128:V129 V130:V1048576 X1:X58 X59:X62 X63:X68 X69:X72 X73:X79 X80:X83 X84:X88 X91:X94 X95:X103 X104:X107 X108:X125 X126:X127 X128:X129 X130:X1048576 Z1:Z43 Z44:Z46 Z47:Z54 Z59:Z95 Z96:Z98 Z99:Z125 Z126:Z127 Z128:Z129 Z130:Z1048576 AB1:AB125 AB126:AB127 AB128:AB129 AB130:AB1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z55 Z56 Z57 Z58 P89 R89 T89 V89 X89 P90 R90 T90 V90 X90 P97 R97 T97 V97 P98 R98 T98 V98 P144 R144 T144 P145 R145 T145 P146 R146 T146 V146 X146 P1:P58 P59:P62 P63:P68 P69:P72 P73:P79 P80:P83 P84:P88 P91:P94 P95:P96 P99:P103 P104:P107 P108:P116 P117:P125 P126:P127 P128:P129 P130:P143 P147:P1048576 R1:R58 R59:R62 R63:R68 R69:R72 R73:R79 R80:R81 R82:R83 R84:R88 R91:R94 R95:R96 R99:R103 R104:R107 R108:R116 R117:R125 R126:R127 R128:R129 R130:R143 R147:R1048576 T1:T58 T59:T62 T63:T68 T69:T72 T73:T79 T80:T83 T84:T88 T91:T94 T95:T96 T99:T103 T104:T107 T108:T125 T126:T127 T128:T129 T130:T143 T147:T1048576 V1:V58 V59:V62 V63:V68 V69:V72 V73:V79 V80:V83 V84:V88 V91:V94 V95:V96 V99:V103 V104:V107 V108:V125 V126:V127 V128:V129 V130:V145 V147:V1048576 X1:X58 X59:X62 X63:X68 X69:X72 X73:X79 X80:X83 X84:X88 X91:X94 X95:X103 X104:X107 X108:X125 X126:X127 X128:X129 X130:X145 X147:X1048576 Z1:Z43 Z44:Z46 Z47:Z54 Z59:Z95 Z96:Z98 Z99:Z125 Z126:Z127 Z128:Z129 Z130:Z1048576 AB1:AB125 AB126:AB127 AB128:AB129 AB130:AB1048576">
       <formula1>数据表!$B:$B</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ1060:AJ1048576 AL1060:AL1048576 AN1060:AN1048576">
@@ -41427,51 +41839,51 @@
   <sheetData>
     <row r="1" s="14" customFormat="1" ht="15" spans="1:10">
       <c r="A1" s="23" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="B1" s="76" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>324</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="F1" s="76" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="H1" s="76" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="J1" s="76" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" s="10" customFormat="1" ht="14.25" spans="1:10">
       <c r="A2" s="10" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="D2" s="11">
         <v>30</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="F2" s="11">
         <v>1</v>
@@ -41480,7 +41892,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="I2" s="10">
         <v>1</v>
@@ -41491,19 +41903,19 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="D3" s="2">
         <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
@@ -41512,7 +41924,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
@@ -41557,70 +41969,70 @@
       <c r="B1" s="52"/>
       <c r="C1" s="53"/>
       <c r="D1" s="54" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="E1" s="55" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="F1" s="55" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="G1" s="55" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="H1" s="55" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="I1" s="55" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="J1" s="55" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="K1" s="55" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="L1" s="55" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="M1" s="55" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="N1" s="55" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="O1" s="55" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="P1" s="55" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="Q1" s="55" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="R1" s="55" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="S1" s="55" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="T1" s="55" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="U1" s="55" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="V1" s="55" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="W1" s="55" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="X1" s="55" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="Y1" s="70" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="Z1" s="71"/>
     </row>
@@ -41629,46 +42041,46 @@
       <c r="B2" s="57"/>
       <c r="C2" s="58"/>
       <c r="D2" s="59" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="E2" s="60" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="F2" s="60" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="H2" s="60" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="J2" s="60" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="K2" s="60" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="L2" s="60" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="M2" s="60" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="N2" s="60" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="O2" s="60" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="P2" s="60" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="Q2" s="60" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="R2" s="60"/>
       <c r="S2" s="60"/>
@@ -41685,70 +42097,70 @@
       <c r="B3" s="57"/>
       <c r="C3" s="58"/>
       <c r="D3" s="61" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="G3" s="62" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="H3" s="62" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="I3" s="62" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="K3" s="62" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="L3" s="62" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="M3" s="62" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="N3" s="62" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="O3" s="62" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="P3" s="62" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="Q3" s="62" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="R3" s="62" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="S3" s="62" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="T3" s="62" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="U3" s="62" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="V3" s="62" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="W3" s="62" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="X3" s="62" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="Y3" s="74" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="Z3" s="71"/>
     </row>
@@ -41757,46 +42169,46 @@
       <c r="B4" s="57"/>
       <c r="C4" s="58"/>
       <c r="D4" s="59" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G4" s="60" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="H4" s="60" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="I4" s="60" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="J4" s="60" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="K4" s="60" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="M4" s="60" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="N4" s="60" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="O4" s="60" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="P4" s="60" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="Q4" s="60" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="R4" s="60"/>
       <c r="S4" s="60"/>
@@ -41813,70 +42225,70 @@
       <c r="B5" s="57"/>
       <c r="C5" s="58"/>
       <c r="D5" s="61" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="F5" s="62" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="G5" s="62" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="H5" s="62" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="I5" s="62" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="K5" s="62" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="L5" s="62" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="M5" s="62" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="N5" s="62" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="O5" s="62" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="P5" s="62" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="Q5" s="62" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="R5" s="62" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="S5" s="62" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="T5" s="62" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="U5" s="62" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="V5" s="62" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="W5" s="62" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="X5" s="62" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="Y5" s="74" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="Z5" s="71"/>
     </row>
@@ -41938,79 +42350,79 @@
     </row>
     <row r="7" s="43" customFormat="1" ht="14.25" spans="1:26">
       <c r="A7" s="43" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="D7" s="67" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="E7" s="68" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="F7" s="68" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="G7" s="68" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="H7" s="68" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="I7" s="68" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="J7" s="68" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="K7" s="68" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="L7" s="68" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="M7" s="68" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="N7" s="68" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="O7" s="68" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="P7" s="68" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="Q7" s="68" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="R7" s="68" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="S7" s="68" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="T7" s="68" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="U7" s="68" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="V7" s="68" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="W7" s="68" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="X7" s="68" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="Y7" s="75" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="Z7" s="71"/>
     </row>
@@ -45919,111 +46331,111 @@
   <sheetData>
     <row r="1" s="14" customFormat="1" ht="15" spans="1:31">
       <c r="A1" s="23" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="O1" s="38" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="P1" s="28" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="Q1" s="34" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="R1" s="34" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="T1" s="36" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="U1" s="37" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="V1" s="37" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="W1" s="38" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="X1" s="28" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="Y1" s="34" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="Z1" s="34" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="AA1" s="35" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="AB1" s="36" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="AC1" s="37" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="AD1" s="37" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="AE1" s="38" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2" s="10" customFormat="1" ht="14.25" spans="1:31">
       <c r="A2" s="10" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="E2" s="31">
         <v>1</v>
@@ -46035,7 +46447,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="I2" s="10">
         <v>2</v>
@@ -46065,16 +46477,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="E3" s="17">
         <v>1.5</v>
